--- a/excel_templates/查看记录表.xlsx
+++ b/excel_templates/查看记录表.xlsx
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5f141b1b-8e69-4543-bbf6-00b503aef902</t>
+          <t>57972f6e-70bd-4f3a-8f61-3875ae4a210c</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -473,14 +473,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-02-06 14:45</t>
+          <t>2026-02-06 14:46</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>57972f6e-70bd-4f3a-8f61-3875ae4a210c</t>
+          <t>f4389876-de70-4a62-9b55-058e9c164035</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -502,7 +502,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>f4389876-de70-4a62-9b55-058e9c164035</t>
+          <t>8889eac4-6a6d-4c54-aac8-da0b4c693fd0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -524,7 +524,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8889eac4-6a6d-4c54-aac8-da0b4c693fd0</t>
+          <t>ce0fc2f3-4f0b-4cc9-a951-1b94c86dfcd1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -539,19 +539,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-02-06 14:46</t>
+          <t>2026-02-06 14:47</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ce0fc2f3-4f0b-4cc9-a951-1b94c86dfcd1</t>
+          <t>b966f7fa-dc2c-4842-be2f-45e0839b4e1e</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -561,36 +561,36 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-02-06 14:47</t>
+          <t>2026-02-06 14:49</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>b966f7fa-dc2c-4842-be2f-45e0839b4e1e</t>
+          <t>72c61039-345f-44af-bf99-7cacf142aa08</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-02-06 14:49</t>
+          <t>2026-02-06 14:56</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>72c61039-345f-44af-bf99-7cacf142aa08</t>
+          <t>eff8c754-c540-4037-9640-328ec5056a07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-02-06 14:56</t>
+          <t>2026-02-06 14:57</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>eff8c754-c540-4037-9640-328ec5056a07</t>
+          <t>97544530-cd8a-44f9-874e-c11a2321a6aa</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -634,12 +634,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>97544530-cd8a-44f9-874e-c11a2321a6aa</t>
+          <t>1a54bd79-6fa6-4f1a-97ed-d20dfdc68b5c</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -649,14 +649,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-02-06 14:57</t>
+          <t>2026-02-06 15:01</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1a54bd79-6fa6-4f1a-97ed-d20dfdc68b5c</t>
+          <t>5dc4b0ad-37da-4b5e-8a0f-303e892bbd0c</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -678,12 +678,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5dc4b0ad-37da-4b5e-8a0f-303e892bbd0c</t>
+          <t>fda1a75e-3df2-4e77-9064-3e8c17d59ee3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>536</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -693,19 +693,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-02-06 15:01</t>
+          <t>2026-02-06 15:02</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>fda1a75e-3df2-4e77-9064-3e8c17d59ee3</t>
+          <t>05c31f95-dd33-48c5-8224-534902ab17f8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -715,19 +715,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-02-06 15:02</t>
+          <t>2026-02-06 15:03</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>05c31f95-dd33-48c5-8224-534902ab17f8</t>
+          <t>03f0e284-187d-4b12-bdbc-43eb55df54fa</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -744,12 +744,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03f0e284-187d-4b12-bdbc-43eb55df54fa</t>
+          <t>db65b287-9e2e-4e23-bc19-7c77265071dc</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>db65b287-9e2e-4e23-bc19-7c77265071dc</t>
+          <t>a6148cb7-7cee-41c9-ba4a-0d330d5c57f2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -781,19 +781,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-02-06 15:03</t>
+          <t>2026-02-06 15:04</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>a6148cb7-7cee-41c9-ba4a-0d330d5c57f2</t>
+          <t>42ec5e7a-ccb7-469a-98ca-72e3272d636b</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2026-02-06 15:04</t>
+          <t>2026-02-06 15:14</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>42ec5e7a-ccb7-469a-98ca-72e3272d636b</t>
+          <t>528813f1-b990-4db1-86ac-2b9f6e487e90</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -825,19 +825,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2026-02-06 15:14</t>
+          <t>2026-02-06 15:15</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>528813f1-b990-4db1-86ac-2b9f6e487e90</t>
+          <t>331fa790-b69a-4d71-85d2-d676479bd299</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -847,19 +847,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-02-06 15:15</t>
+          <t>2026-02-06 15:18</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>331fa790-b69a-4d71-85d2-d676479bd299</t>
+          <t>f402ab4d-ad84-4ede-8e5b-5ff76d759f02</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -876,12 +876,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>f402ab4d-ad84-4ede-8e5b-5ff76d759f02</t>
+          <t>b72133d4-43de-4fc4-b4ac-6fe260cf5d56</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -891,14 +891,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2026-02-06 15:18</t>
+          <t>2026-02-06 15:19</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>b72133d4-43de-4fc4-b4ac-6fe260cf5d56</t>
+          <t>88904f6c-b37e-4b3e-aa6f-fca29ad2c89b</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -913,19 +913,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2026-02-06 15:19</t>
+          <t>2026-02-06 15:20</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>88904f6c-b37e-4b3e-aa6f-fca29ad2c89b</t>
+          <t>b40e2c1c-2d8a-46c1-bc28-a555ef1221dc</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>PHO002</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -935,14 +935,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2026-02-06 15:20</t>
+          <t>2026-02-06 15:21</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>b40e2c1c-2d8a-46c1-bc28-a555ef1221dc</t>
+          <t>0a4e9324-fbd2-496e-899d-c6c750075ca0</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -964,12 +964,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0a4e9324-fbd2-496e-899d-c6c750075ca0</t>
+          <t>0a9fb931-c3b4-44ed-aecd-5751915526b4</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PHO002</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -979,19 +979,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2026-02-06 15:21</t>
+          <t>2026-02-06 15:22</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0a9fb931-c3b4-44ed-aecd-5751915526b4</t>
+          <t>3daa6b19-2029-45f3-ba15-7bed79d2a837</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1001,19 +1001,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2026-02-06 15:22</t>
+          <t>2026-02-06 15:23</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3daa6b19-2029-45f3-ba15-7bed79d2a837</t>
+          <t>b7cb5ab2-bd48-44c2-b71a-1380dd749906</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1030,12 +1030,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>b7cb5ab2-bd48-44c2-b71a-1380dd749906</t>
+          <t>4f80fee3-72f7-48fb-a941-794b44d2e22e</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>TEG-245</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1052,12 +1052,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4f80fee3-72f7-48fb-a941-794b44d2e22e</t>
+          <t>e5fb1ed8-1cb4-4f46-83b2-cc530fc33b8a</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TEG-245</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1067,14 +1067,14 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2026-02-06 15:23</t>
+          <t>2026-02-06 15:24</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>e5fb1ed8-1cb4-4f46-83b2-cc530fc33b8a</t>
+          <t>4c6eaf50-960f-49fb-9486-91e2e0900862</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4c6eaf50-960f-49fb-9486-91e2e0900862</t>
+          <t>1b546055-9484-445c-a1bd-6c775fb66ae7</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1118,7 +1118,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1b546055-9484-445c-a1bd-6c775fb66ae7</t>
+          <t>33cc3e55-75a5-4d6c-878e-6ff409fbdb18</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2026-02-06 15:24</t>
+          <t>2026-02-06 15:25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>33cc3e55-75a5-4d6c-878e-6ff409fbdb18</t>
+          <t>b617ee40-868e-4871-898f-c080301755dd</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1155,14 +1155,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2026-02-06 15:25</t>
+          <t>2026-02-06 15:29</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>b617ee40-868e-4871-898f-c080301755dd</t>
+          <t>96578c21-1068-4a4d-927b-afe525c95d4a</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1184,7 +1184,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>96578c21-1068-4a4d-927b-afe525c95d4a</t>
+          <t>5344df3e-1d63-4c0d-92a2-88e3d0271928</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1206,7 +1206,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5344df3e-1d63-4c0d-92a2-88e3d0271928</t>
+          <t>f80dec3f-0255-4ab2-8e19-e5e6261261ad</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>f80dec3f-0255-4ab2-8e19-e5e6261261ad</t>
+          <t>dc05e093-96d1-45ca-b60e-f3c5e09fe29e</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1243,14 +1243,14 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2026-02-06 15:29</t>
+          <t>2026-02-06 15:30</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>dc05e093-96d1-45ca-b60e-f3c5e09fe29e</t>
+          <t>a236f72b-d09e-49ba-9b88-43d7f7e7d757</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1272,7 +1272,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>a236f72b-d09e-49ba-9b88-43d7f7e7d757</t>
+          <t>cb534e05-2c3f-4086-8e93-b7373137e7ba</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1294,7 +1294,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cb534e05-2c3f-4086-8e93-b7373137e7ba</t>
+          <t>cc7c0e55-8071-4106-a843-e1fa9b2dc9f8</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1309,14 +1309,14 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2026-02-06 15:30</t>
+          <t>2026-02-06 15:31</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>cc7c0e55-8071-4106-a843-e1fa9b2dc9f8</t>
+          <t>28c6b12a-81a8-420e-813c-8e780d9acf53</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1338,7 +1338,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>28c6b12a-81a8-420e-813c-8e780d9acf53</t>
+          <t>d5dff3e4-3d4d-4599-9d4d-ef58251c645e</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1353,14 +1353,14 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2026-02-06 15:31</t>
+          <t>2026-02-06 15:32</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>d5dff3e4-3d4d-4599-9d4d-ef58251c645e</t>
+          <t>0faceaf9-e10c-4322-86d9-3cdabefc425e</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1382,7 +1382,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0faceaf9-e10c-4322-86d9-3cdabefc425e</t>
+          <t>5a84cba3-0728-423b-8995-805b3af5b592</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5a84cba3-0728-423b-8995-805b3af5b592</t>
+          <t>9c0a4a30-4bdb-42c9-a428-059abedfa631</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1426,7 +1426,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>9c0a4a30-4bdb-42c9-a428-059abedfa631</t>
+          <t>793b29f5-c882-4f2f-b8d5-b7082fb78309</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1441,14 +1441,14 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-02-06 15:32</t>
+          <t>2026-02-06 15:34</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>793b29f5-c882-4f2f-b8d5-b7082fb78309</t>
+          <t>fda15de0-aae2-4566-898a-fb2df8f7bf3b</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1470,7 +1470,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>fda15de0-aae2-4566-898a-fb2df8f7bf3b</t>
+          <t>e48b7b28-ff25-4cd9-8412-53c040d353f6</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>e48b7b28-ff25-4cd9-8412-53c040d353f6</t>
+          <t>826dc4f9-933e-4f07-945a-ac707bc3535c</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1507,14 +1507,14 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-06 15:34</t>
+          <t>2026-02-06 15:36</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>826dc4f9-933e-4f07-945a-ac707bc3535c</t>
+          <t>7e01cb7c-4d04-472d-ac50-936767e51c6b</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1536,7 +1536,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>7e01cb7c-4d04-472d-ac50-936767e51c6b</t>
+          <t>2d9286c2-d213-4fe4-a9dc-8cfbe7bc979a</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1558,7 +1558,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2d9286c2-d213-4fe4-a9dc-8cfbe7bc979a</t>
+          <t>760144f9-eb40-4eb7-8b6f-abb4433e3d37</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1573,14 +1573,14 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-06 15:36</t>
+          <t>2026-02-06 15:37</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>760144f9-eb40-4eb7-8b6f-abb4433e3d37</t>
+          <t>e27a2622-e437-4b0f-9bc7-f5b8cb6b7596</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1602,7 +1602,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>e27a2622-e437-4b0f-9bc7-f5b8cb6b7596</t>
+          <t>b26430f9-646c-4bc4-afb6-4c9488c2a82e</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1617,14 +1617,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-06 15:37</t>
+          <t>2026-02-06 15:38</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>b26430f9-646c-4bc4-afb6-4c9488c2a82e</t>
+          <t>95fa5d0f-f337-41fb-86c1-1de2bf4bd82d</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1639,19 +1639,19 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-02-06 15:38</t>
+          <t>2026-02-06 15:41</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>95fa5d0f-f337-41fb-86c1-1de2bf4bd82d</t>
+          <t>a5db1246-f72c-4cc8-8d7b-8770f4e4cb05</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-06 15:41</t>
+          <t>2026-02-06 15:42</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>a5db1246-f72c-4cc8-8d7b-8770f4e4cb05</t>
+          <t>d1af907c-f648-4ec0-a477-254a522d6ea9</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1690,12 +1690,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>d1af907c-f648-4ec0-a477-254a522d6ea9</t>
+          <t>bbb813e8-8a2c-4baa-9e0d-a0d310b84dbf</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>59326495-5ce0-4203-b699-f3c5c5fd6335</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1705,14 +1705,14 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-06 15:42</t>
+          <t>2026-02-06 15:43</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>bbb813e8-8a2c-4baa-9e0d-a0d310b84dbf</t>
+          <t>e404dab7-88b3-4868-b3a9-a17c4839f90d</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1734,7 +1734,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>e404dab7-88b3-4868-b3a9-a17c4839f90d</t>
+          <t>f51c4e21-087b-4e87-8630-0a9a871cdf05</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1756,12 +1756,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>f51c4e21-087b-4e87-8630-0a9a871cdf05</t>
+          <t>b9405056-5e3c-4953-9a7d-e0212a4ec609</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>59326495-5ce0-4203-b699-f3c5c5fd6335</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1771,19 +1771,19 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-06 15:43</t>
+          <t>2026-02-06 16:57</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>b9405056-5e3c-4953-9a7d-e0212a4ec609</t>
+          <t>2d89b00e-b20f-4a7a-b4be-b706270e0cbe</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>TEG-245</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1800,7 +1800,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2d89b00e-b20f-4a7a-b4be-b706270e0cbe</t>
+          <t>6c5d8fcc-043c-44ed-a94b-e6986e02fcf7</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1822,12 +1822,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6c5d8fcc-043c-44ed-a94b-e6986e02fcf7</t>
+          <t>f7bfa7bc-0087-4cef-88d9-4f2ee32595d3</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TEG-245</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1837,14 +1837,14 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-06 16:57</t>
+          <t>2026-02-06 16:58</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>f7bfa7bc-0087-4cef-88d9-4f2ee32595d3</t>
+          <t>17482407-37fe-4baa-9e79-872b40a61f88</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1866,7 +1866,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>17482407-37fe-4baa-9e79-872b40a61f88</t>
+          <t>2dd36311-88cb-4d30-bce7-8de4e3315b58</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1888,12 +1888,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2dd36311-88cb-4d30-bce7-8de4e3315b58</t>
+          <t>d5dfe529-c73e-43b4-b6f5-0cf528caf26a</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1903,19 +1903,19 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-06 16:58</t>
+          <t>2026-02-06 16:59</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>d5dfe529-c73e-43b4-b6f5-0cf528caf26a</t>
+          <t>779be6c9-a81b-4533-8ce0-7507b1ee6892</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1932,12 +1932,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>779be6c9-a81b-4533-8ce0-7507b1ee6892</t>
+          <t>13e6a4d0-a44f-4632-8241-d92014f080a7</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1954,7 +1954,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>13e6a4d0-a44f-4632-8241-d92014f080a7</t>
+          <t>89d1fa32-f3a0-4181-bcab-404d489e205a</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>89d1fa32-f3a0-4181-bcab-404d489e205a</t>
+          <t>1b479e6f-024e-4587-9632-70b3624874b4</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1998,56 +1998,56 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1b479e6f-024e-4587-9632-70b3624874b4</t>
+          <t>cd8a6a94-24c6-48e0-ac38-48c942ac87dc</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>46d518ee-2238-473d-9f24-ee5986b46517</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>jamorant</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-06 16:59</t>
+          <t>2026-02-06 17:04</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>cd8a6a94-24c6-48e0-ac38-48c942ac87dc</t>
+          <t>760d5e56-ebaa-484c-8ea5-d7905ab76f72</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>46d518ee-2238-473d-9f24-ee5986b46517</t>
+          <t>TEG-210</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>jamorant</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-06 17:04</t>
+          <t>2026-02-06 17:09</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>760d5e56-ebaa-484c-8ea5-d7905ab76f72</t>
+          <t>b1ffe59a-fe54-438b-8c1b-ef49f9b7c048</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TEG-210</t>
+          <t>TEG-205</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2057,19 +2057,19 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-02-06 17:09</t>
+          <t>2026-02-06 17:10</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>b1ffe59a-fe54-438b-8c1b-ef49f9b7c048</t>
+          <t>2fe1a6fb-e2bf-499c-9513-804c86dbc6a1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TEG-205</t>
+          <t>TEG-210</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2086,12 +2086,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2fe1a6fb-e2bf-499c-9513-804c86dbc6a1</t>
+          <t>1a5aa7c0-9b3b-4379-a4e0-81999f99332b</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TEG-210</t>
+          <t>TEG-197</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2108,12 +2108,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1a5aa7c0-9b3b-4379-a4e0-81999f99332b</t>
+          <t>c845b301-e08d-41c6-908a-68054a2146e8</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TEG-197</t>
+          <t>TEG-146</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2130,12 +2130,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>c845b301-e08d-41c6-908a-68054a2146e8</t>
+          <t>1d11f91f-0aa8-4d84-9084-25f5bb903767</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TEG-146</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2145,19 +2145,19 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-02-06 17:10</t>
+          <t>2026-02-06 18:26</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1d11f91f-0aa8-4d84-9084-25f5bb903767</t>
+          <t>61a0d3a6-1ae0-4251-9ab1-3d94e39341d0</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2167,19 +2167,19 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-02-06 18:26</t>
+          <t>2026-02-06 18:27</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>61a0d3a6-1ae0-4251-9ab1-3d94e39341d0</t>
+          <t>6ec90a2f-fe9e-494b-8b0f-c47c7179d55f</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>TEG-245</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2189,19 +2189,19 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2026-02-06 18:27</t>
+          <t>2026-02-06 18:28</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6ec90a2f-fe9e-494b-8b0f-c47c7179d55f</t>
+          <t>3cfa8736-3571-4833-8574-3f6c7598352a</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TEG-245</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2218,12 +2218,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>3cfa8736-3571-4833-8574-3f6c7598352a</t>
+          <t>838b18b9-3cb6-4757-b5b6-57305b86f694</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>PHO002</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2240,12 +2240,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>838b18b9-3cb6-4757-b5b6-57305b86f694</t>
+          <t>46a66821-ab0d-474f-a412-6cbf372c3808</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PHO002</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2255,19 +2255,19 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2026-02-06 18:28</t>
+          <t>2026-02-07 21:22</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>46a66821-ab0d-474f-a412-6cbf372c3808</t>
+          <t>a7ed5a9f-06a3-49ce-ba2b-0624da9b63f8</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2284,12 +2284,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>a7ed5a9f-06a3-49ce-ba2b-0624da9b63f8</t>
+          <t>247194d1-4406-44e2-acbd-bcba2152ea4e</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2306,12 +2306,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>247194d1-4406-44e2-acbd-bcba2152ea4e</t>
+          <t>1417a534-1a26-4d50-bc1b-1fedf7f444e6</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2328,7 +2328,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1417a534-1a26-4d50-bc1b-1fedf7f444e6</t>
+          <t>ad8f48d7-016c-4f7a-93db-2e358e4703da</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2343,14 +2343,14 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2026-02-07 21:22</t>
+          <t>2026-02-07 21:23</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ad8f48d7-016c-4f7a-93db-2e358e4703da</t>
+          <t>af94986e-1dda-4a77-85bc-d4bb4d7c0355</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2365,14 +2365,14 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2026-02-07 21:23</t>
+          <t>2026-02-07 21:24</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>af94986e-1dda-4a77-85bc-d4bb4d7c0355</t>
+          <t>0098d802-7884-4de5-8ba1-f9e764aa5d9f</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2394,12 +2394,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0098d802-7884-4de5-8ba1-f9e764aa5d9f</t>
+          <t>a89a1d0f-dfca-4550-af9f-023981453193</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2409,19 +2409,19 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2026-02-07 21:24</t>
+          <t>2026-02-07 21:25</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>a89a1d0f-dfca-4550-af9f-023981453193</t>
+          <t>793e8cdf-88a8-46ad-b650-e1e37201d445</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2438,7 +2438,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>793e8cdf-88a8-46ad-b650-e1e37201d445</t>
+          <t>e4ffec9e-9845-432e-8700-de55d008830f</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2453,14 +2453,14 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2026-02-07 21:25</t>
+          <t>2026-02-07 21:26</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>e4ffec9e-9845-432e-8700-de55d008830f</t>
+          <t>73f8f756-eea0-47c5-8c51-11fbae94183e</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2475,14 +2475,14 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2026-02-07 21:26</t>
+          <t>2026-02-07 21:27</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>73f8f756-eea0-47c5-8c51-11fbae94183e</t>
+          <t>17198ffd-b656-4b9b-b5fe-c490beeb0a48</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2504,7 +2504,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>17198ffd-b656-4b9b-b5fe-c490beeb0a48</t>
+          <t>ca063f8b-4234-46fd-b94c-24ca549f6012</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2519,14 +2519,14 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2026-02-07 21:27</t>
+          <t>2026-02-07 21:45</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ca063f8b-4234-46fd-b94c-24ca549f6012</t>
+          <t>96eb5152-6816-471d-a5e0-06ceefaed297</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2548,12 +2548,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>96eb5152-6816-471d-a5e0-06ceefaed297</t>
+          <t>31403cc0-4130-4a05-9571-1ea137cfe007</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2563,14 +2563,14 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2026-02-07 21:45</t>
+          <t>2026-02-07 21:46</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>31403cc0-4130-4a05-9571-1ea137cfe007</t>
+          <t>00575d6c-c650-4c36-af51-2052eb1cd94c</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2592,12 +2592,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>00575d6c-c650-4c36-af51-2052eb1cd94c</t>
+          <t>467a67ae-3318-4804-82c6-9450c5ddb096</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>467a67ae-3318-4804-82c6-9450c5ddb096</t>
+          <t>5b1f54b4-fdbd-46da-a92d-de15ec876e00</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2629,14 +2629,14 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2026-02-07 21:46</t>
+          <t>2026-02-07 21:49</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>5b1f54b4-fdbd-46da-a92d-de15ec876e00</t>
+          <t>e19c6536-05fa-45be-8785-ffe291f00f53</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2026-02-07 21:49</t>
+          <t>2026-02-07 22:40</t>
         </is>
       </c>
     </row>

--- a/excel_templates/查看记录表.xlsx
+++ b/excel_templates/查看记录表.xlsx
@@ -458,122 +458,122 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>57972f6e-70bd-4f3a-8f61-3875ae4a210c</t>
+          <t>528813f1-b990-4db1-86ac-2b9f6e487e90</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-02-06 14:46</t>
+          <t>2026-02-06 15:15</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>f4389876-de70-4a62-9b55-058e9c164035</t>
+          <t>331fa790-b69a-4d71-85d2-d676479bd299</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-02-06 14:46</t>
+          <t>2026-02-06 15:18</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8889eac4-6a6d-4c54-aac8-da0b4c693fd0</t>
+          <t>f402ab4d-ad84-4ede-8e5b-5ff76d759f02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-02-06 14:46</t>
+          <t>2026-02-06 15:18</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ce0fc2f3-4f0b-4cc9-a951-1b94c86dfcd1</t>
+          <t>b72133d4-43de-4fc4-b4ac-6fe260cf5d56</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-02-06 14:47</t>
+          <t>2026-02-06 15:19</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>b966f7fa-dc2c-4842-be2f-45e0839b4e1e</t>
+          <t>88904f6c-b37e-4b3e-aa6f-fca29ad2c89b</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-02-06 14:49</t>
+          <t>2026-02-06 15:20</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>72c61039-345f-44af-bf99-7cacf142aa08</t>
+          <t>b40e2c1c-2d8a-46c1-bc28-a555ef1221dc</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PHO002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -583,19 +583,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-02-06 14:56</t>
+          <t>2026-02-06 15:21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>eff8c754-c540-4037-9640-328ec5056a07</t>
+          <t>0a4e9324-fbd2-496e-899d-c6c750075ca0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PHO002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-02-06 14:57</t>
+          <t>2026-02-06 15:21</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>97544530-cd8a-44f9-874e-c11a2321a6aa</t>
+          <t>0a9fb931-c3b4-44ed-aecd-5751915526b4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -627,19 +627,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-02-06 14:57</t>
+          <t>2026-02-06 15:22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1a54bd79-6fa6-4f1a-97ed-d20dfdc68b5c</t>
+          <t>3daa6b19-2029-45f3-ba15-7bed79d2a837</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -649,19 +649,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-02-06 15:01</t>
+          <t>2026-02-06 15:23</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5dc4b0ad-37da-4b5e-8a0f-303e892bbd0c</t>
+          <t>b7cb5ab2-bd48-44c2-b71a-1380dd749906</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -671,19 +671,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-02-06 15:01</t>
+          <t>2026-02-06 15:23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>fda1a75e-3df2-4e77-9064-3e8c17d59ee3</t>
+          <t>4f80fee3-72f7-48fb-a941-794b44d2e22e</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>TEG-245</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -693,19 +693,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-02-06 15:02</t>
+          <t>2026-02-06 15:23</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>05c31f95-dd33-48c5-8224-534902ab17f8</t>
+          <t>e5fb1ed8-1cb4-4f46-83b2-cc530fc33b8a</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -715,19 +715,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-02-06 15:03</t>
+          <t>2026-02-06 15:24</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03f0e284-187d-4b12-bdbc-43eb55df54fa</t>
+          <t>4c6eaf50-960f-49fb-9486-91e2e0900862</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -737,19 +737,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-02-06 15:03</t>
+          <t>2026-02-06 15:24</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>db65b287-9e2e-4e23-bc19-7c77265071dc</t>
+          <t>1b546055-9484-445c-a1bd-6c775fb66ae7</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -759,19 +759,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-02-06 15:03</t>
+          <t>2026-02-06 15:24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>a6148cb7-7cee-41c9-ba4a-0d330d5c57f2</t>
+          <t>33cc3e55-75a5-4d6c-878e-6ff409fbdb18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -781,19 +781,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-02-06 15:04</t>
+          <t>2026-02-06 15:25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>42ec5e7a-ccb7-469a-98ca-72e3272d636b</t>
+          <t>b617ee40-868e-4871-898f-c080301755dd</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -803,19 +803,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2026-02-06 15:14</t>
+          <t>2026-02-06 15:29</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>528813f1-b990-4db1-86ac-2b9f6e487e90</t>
+          <t>96578c21-1068-4a4d-927b-afe525c95d4a</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -825,19 +825,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2026-02-06 15:15</t>
+          <t>2026-02-06 15:29</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>331fa790-b69a-4d71-85d2-d676479bd299</t>
+          <t>5344df3e-1d63-4c0d-92a2-88e3d0271928</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -847,19 +847,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-02-06 15:18</t>
+          <t>2026-02-06 15:29</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>f402ab4d-ad84-4ede-8e5b-5ff76d759f02</t>
+          <t>f80dec3f-0255-4ab2-8e19-e5e6261261ad</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -869,14 +869,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2026-02-06 15:18</t>
+          <t>2026-02-06 15:29</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>b72133d4-43de-4fc4-b4ac-6fe260cf5d56</t>
+          <t>dc05e093-96d1-45ca-b60e-f3c5e09fe29e</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -891,14 +891,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2026-02-06 15:19</t>
+          <t>2026-02-06 15:30</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>88904f6c-b37e-4b3e-aa6f-fca29ad2c89b</t>
+          <t>a236f72b-d09e-49ba-9b88-43d7f7e7d757</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -913,19 +913,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2026-02-06 15:20</t>
+          <t>2026-02-06 15:30</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>b40e2c1c-2d8a-46c1-bc28-a555ef1221dc</t>
+          <t>cb534e05-2c3f-4086-8e93-b7373137e7ba</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PHO002</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -935,19 +935,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2026-02-06 15:21</t>
+          <t>2026-02-06 15:30</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0a4e9324-fbd2-496e-899d-c6c750075ca0</t>
+          <t>cc7c0e55-8071-4106-a843-e1fa9b2dc9f8</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PHO002</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2026-02-06 15:21</t>
+          <t>2026-02-06 15:31</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0a9fb931-c3b4-44ed-aecd-5751915526b4</t>
+          <t>28c6b12a-81a8-420e-813c-8e780d9acf53</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -979,14 +979,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2026-02-06 15:22</t>
+          <t>2026-02-06 15:31</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3daa6b19-2029-45f3-ba15-7bed79d2a837</t>
+          <t>d5dff3e4-3d4d-4599-9d4d-ef58251c645e</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1001,19 +1001,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2026-02-06 15:23</t>
+          <t>2026-02-06 15:32</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>b7cb5ab2-bd48-44c2-b71a-1380dd749906</t>
+          <t>0faceaf9-e10c-4322-86d9-3cdabefc425e</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1023,19 +1023,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2026-02-06 15:23</t>
+          <t>2026-02-06 15:32</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4f80fee3-72f7-48fb-a941-794b44d2e22e</t>
+          <t>5a84cba3-0728-423b-8995-805b3af5b592</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TEG-245</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1045,14 +1045,14 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2026-02-06 15:23</t>
+          <t>2026-02-06 15:32</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>e5fb1ed8-1cb4-4f46-83b2-cc530fc33b8a</t>
+          <t>9c0a4a30-4bdb-42c9-a428-059abedfa631</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1067,14 +1067,14 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2026-02-06 15:24</t>
+          <t>2026-02-06 15:32</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4c6eaf50-960f-49fb-9486-91e2e0900862</t>
+          <t>793b29f5-c882-4f2f-b8d5-b7082fb78309</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1089,14 +1089,14 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2026-02-06 15:24</t>
+          <t>2026-02-06 15:34</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1b546055-9484-445c-a1bd-6c775fb66ae7</t>
+          <t>fda15de0-aae2-4566-898a-fb2df8f7bf3b</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1111,14 +1111,14 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2026-02-06 15:24</t>
+          <t>2026-02-06 15:34</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>33cc3e55-75a5-4d6c-878e-6ff409fbdb18</t>
+          <t>e48b7b28-ff25-4cd9-8412-53c040d353f6</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2026-02-06 15:25</t>
+          <t>2026-02-06 15:34</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>b617ee40-868e-4871-898f-c080301755dd</t>
+          <t>826dc4f9-933e-4f07-945a-ac707bc3535c</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1155,14 +1155,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2026-02-06 15:29</t>
+          <t>2026-02-06 15:36</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>96578c21-1068-4a4d-927b-afe525c95d4a</t>
+          <t>7e01cb7c-4d04-472d-ac50-936767e51c6b</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1177,14 +1177,14 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2026-02-06 15:29</t>
+          <t>2026-02-06 15:36</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5344df3e-1d63-4c0d-92a2-88e3d0271928</t>
+          <t>2d9286c2-d213-4fe4-a9dc-8cfbe7bc979a</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2026-02-06 15:29</t>
+          <t>2026-02-06 15:36</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>f80dec3f-0255-4ab2-8e19-e5e6261261ad</t>
+          <t>760144f9-eb40-4eb7-8b6f-abb4433e3d37</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1221,14 +1221,14 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2026-02-06 15:29</t>
+          <t>2026-02-06 15:37</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>dc05e093-96d1-45ca-b60e-f3c5e09fe29e</t>
+          <t>e27a2622-e437-4b0f-9bc7-f5b8cb6b7596</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1243,14 +1243,14 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2026-02-06 15:30</t>
+          <t>2026-02-06 15:37</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>a236f72b-d09e-49ba-9b88-43d7f7e7d757</t>
+          <t>b26430f9-646c-4bc4-afb6-4c9488c2a82e</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1265,14 +1265,14 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2026-02-06 15:30</t>
+          <t>2026-02-06 15:38</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>cb534e05-2c3f-4086-8e93-b7373137e7ba</t>
+          <t>95fa5d0f-f337-41fb-86c1-1de2bf4bd82d</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1287,19 +1287,19 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2026-02-06 15:30</t>
+          <t>2026-02-06 15:41</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cc7c0e55-8071-4106-a843-e1fa9b2dc9f8</t>
+          <t>a5db1246-f72c-4cc8-8d7b-8770f4e4cb05</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1309,14 +1309,14 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2026-02-06 15:31</t>
+          <t>2026-02-06 15:42</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>28c6b12a-81a8-420e-813c-8e780d9acf53</t>
+          <t>d1af907c-f648-4ec0-a477-254a522d6ea9</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1331,19 +1331,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2026-02-06 15:31</t>
+          <t>2026-02-06 15:42</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>d5dff3e4-3d4d-4599-9d4d-ef58251c645e</t>
+          <t>bbb813e8-8a2c-4baa-9e0d-a0d310b84dbf</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>59326495-5ce0-4203-b699-f3c5c5fd6335</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1353,19 +1353,19 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2026-02-06 15:32</t>
+          <t>2026-02-06 15:43</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0faceaf9-e10c-4322-86d9-3cdabefc425e</t>
+          <t>e404dab7-88b3-4868-b3a9-a17c4839f90d</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>59326495-5ce0-4203-b699-f3c5c5fd6335</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1375,19 +1375,19 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2026-02-06 15:32</t>
+          <t>2026-02-06 15:43</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5a84cba3-0728-423b-8995-805b3af5b592</t>
+          <t>f51c4e21-087b-4e87-8630-0a9a871cdf05</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>59326495-5ce0-4203-b699-f3c5c5fd6335</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1397,14 +1397,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2026-02-06 15:32</t>
+          <t>2026-02-06 15:43</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>9c0a4a30-4bdb-42c9-a428-059abedfa631</t>
+          <t>b9405056-5e3c-4953-9a7d-e0212a4ec609</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1419,19 +1419,19 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2026-02-06 15:32</t>
+          <t>2026-02-06 16:57</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>793b29f5-c882-4f2f-b8d5-b7082fb78309</t>
+          <t>2d89b00e-b20f-4a7a-b4be-b706270e0cbe</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>TEG-245</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1441,19 +1441,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-02-06 15:34</t>
+          <t>2026-02-06 16:57</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>fda15de0-aae2-4566-898a-fb2df8f7bf3b</t>
+          <t>6c5d8fcc-043c-44ed-a94b-e6986e02fcf7</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>TEG-245</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1463,19 +1463,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-02-06 15:34</t>
+          <t>2026-02-06 16:57</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>e48b7b28-ff25-4cd9-8412-53c040d353f6</t>
+          <t>f7bfa7bc-0087-4cef-88d9-4f2ee32595d3</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1485,19 +1485,19 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-02-06 15:34</t>
+          <t>2026-02-06 16:58</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>826dc4f9-933e-4f07-945a-ac707bc3535c</t>
+          <t>17482407-37fe-4baa-9e79-872b40a61f88</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1507,19 +1507,19 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-06 15:36</t>
+          <t>2026-02-06 16:58</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>7e01cb7c-4d04-472d-ac50-936767e51c6b</t>
+          <t>2dd36311-88cb-4d30-bce7-8de4e3315b58</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1529,19 +1529,19 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-02-06 15:36</t>
+          <t>2026-02-06 16:58</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2d9286c2-d213-4fe4-a9dc-8cfbe7bc979a</t>
+          <t>d5dfe529-c73e-43b4-b6f5-0cf528caf26a</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1551,19 +1551,19 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-02-06 15:36</t>
+          <t>2026-02-06 16:59</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>760144f9-eb40-4eb7-8b6f-abb4433e3d37</t>
+          <t>779be6c9-a81b-4533-8ce0-7507b1ee6892</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1573,19 +1573,19 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-06 15:37</t>
+          <t>2026-02-06 16:59</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>e27a2622-e437-4b0f-9bc7-f5b8cb6b7596</t>
+          <t>13e6a4d0-a44f-4632-8241-d92014f080a7</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1595,19 +1595,19 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-06 15:37</t>
+          <t>2026-02-06 16:59</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>b26430f9-646c-4bc4-afb6-4c9488c2a82e</t>
+          <t>89d1fa32-f3a0-4181-bcab-404d489e205a</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1617,19 +1617,19 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-06 15:38</t>
+          <t>2026-02-06 16:59</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>95fa5d0f-f337-41fb-86c1-1de2bf4bd82d</t>
+          <t>1b479e6f-024e-4587-9632-70b3624874b4</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1639,41 +1639,41 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-02-06 15:41</t>
+          <t>2026-02-06 16:59</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>a5db1246-f72c-4cc8-8d7b-8770f4e4cb05</t>
+          <t>cd8a6a94-24c6-48e0-ac38-48c942ac87dc</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>46d518ee-2238-473d-9f24-ee5986b46517</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>jamorant</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-06 15:42</t>
+          <t>2026-02-06 17:04</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>d1af907c-f648-4ec0-a477-254a522d6ea9</t>
+          <t>760d5e56-ebaa-484c-8ea5-d7905ab76f72</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>TEG-210</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1683,19 +1683,19 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-06 15:42</t>
+          <t>2026-02-06 17:09</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>bbb813e8-8a2c-4baa-9e0d-a0d310b84dbf</t>
+          <t>b1ffe59a-fe54-438b-8c1b-ef49f9b7c048</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>59326495-5ce0-4203-b699-f3c5c5fd6335</t>
+          <t>TEG-205</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1705,19 +1705,19 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-06 15:43</t>
+          <t>2026-02-06 17:10</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>e404dab7-88b3-4868-b3a9-a17c4839f90d</t>
+          <t>2fe1a6fb-e2bf-499c-9513-804c86dbc6a1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>59326495-5ce0-4203-b699-f3c5c5fd6335</t>
+          <t>TEG-210</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1727,19 +1727,19 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-06 15:43</t>
+          <t>2026-02-06 17:10</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>f51c4e21-087b-4e87-8630-0a9a871cdf05</t>
+          <t>1a5aa7c0-9b3b-4379-a4e0-81999f99332b</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>59326495-5ce0-4203-b699-f3c5c5fd6335</t>
+          <t>TEG-197</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1749,19 +1749,19 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-06 15:43</t>
+          <t>2026-02-06 17:10</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>b9405056-5e3c-4953-9a7d-e0212a4ec609</t>
+          <t>c845b301-e08d-41c6-908a-68054a2146e8</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>TEG-146</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1771,19 +1771,19 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-06 16:57</t>
+          <t>2026-02-06 17:10</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2d89b00e-b20f-4a7a-b4be-b706270e0cbe</t>
+          <t>1d11f91f-0aa8-4d84-9084-25f5bb903767</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TEG-245</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1793,19 +1793,19 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-06 16:57</t>
+          <t>2026-02-06 18:26</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6c5d8fcc-043c-44ed-a94b-e6986e02fcf7</t>
+          <t>61a0d3a6-1ae0-4251-9ab1-3d94e39341d0</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TEG-245</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1815,19 +1815,19 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-06 16:57</t>
+          <t>2026-02-06 18:27</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>f7bfa7bc-0087-4cef-88d9-4f2ee32595d3</t>
+          <t>6ec90a2f-fe9e-494b-8b0f-c47c7179d55f</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>TEG-245</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1837,19 +1837,19 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-06 16:58</t>
+          <t>2026-02-06 18:28</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>17482407-37fe-4baa-9e79-872b40a61f88</t>
+          <t>3cfa8736-3571-4833-8574-3f6c7598352a</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1859,19 +1859,19 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-06 16:58</t>
+          <t>2026-02-06 18:28</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2dd36311-88cb-4d30-bce7-8de4e3315b58</t>
+          <t>838b18b9-3cb6-4757-b5b6-57305b86f694</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>PHO002</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1881,19 +1881,19 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-06 16:58</t>
+          <t>2026-02-06 18:28</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>d5dfe529-c73e-43b4-b6f5-0cf528caf26a</t>
+          <t>46a66821-ab0d-474f-a412-6cbf372c3808</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1903,19 +1903,19 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-06 16:59</t>
+          <t>2026-02-07 21:22</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>779be6c9-a81b-4533-8ce0-7507b1ee6892</t>
+          <t>a7ed5a9f-06a3-49ce-ba2b-0624da9b63f8</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1925,19 +1925,19 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-02-06 16:59</t>
+          <t>2026-02-07 21:22</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>13e6a4d0-a44f-4632-8241-d92014f080a7</t>
+          <t>247194d1-4406-44e2-acbd-bcba2152ea4e</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1947,19 +1947,19 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-06 16:59</t>
+          <t>2026-02-07 21:22</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>89d1fa32-f3a0-4181-bcab-404d489e205a</t>
+          <t>1417a534-1a26-4d50-bc1b-1fedf7f444e6</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1969,19 +1969,19 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-06 16:59</t>
+          <t>2026-02-07 21:22</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1b479e6f-024e-4587-9632-70b3624874b4</t>
+          <t>ad8f48d7-016c-4f7a-93db-2e358e4703da</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1991,41 +1991,41 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-02-06 16:59</t>
+          <t>2026-02-07 21:23</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>cd8a6a94-24c6-48e0-ac38-48c942ac87dc</t>
+          <t>af94986e-1dda-4a77-85bc-d4bb4d7c0355</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>46d518ee-2238-473d-9f24-ee5986b46517</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>jamorant</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-06 17:04</t>
+          <t>2026-02-07 21:24</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>760d5e56-ebaa-484c-8ea5-d7905ab76f72</t>
+          <t>0098d802-7884-4de5-8ba1-f9e764aa5d9f</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TEG-210</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2035,19 +2035,19 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-06 17:09</t>
+          <t>2026-02-07 21:24</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>b1ffe59a-fe54-438b-8c1b-ef49f9b7c048</t>
+          <t>a89a1d0f-dfca-4550-af9f-023981453193</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TEG-205</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2057,19 +2057,19 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-02-06 17:10</t>
+          <t>2026-02-07 21:25</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2fe1a6fb-e2bf-499c-9513-804c86dbc6a1</t>
+          <t>793e8cdf-88a8-46ad-b650-e1e37201d445</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TEG-210</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2079,19 +2079,19 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2026-02-06 17:10</t>
+          <t>2026-02-07 21:25</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1a5aa7c0-9b3b-4379-a4e0-81999f99332b</t>
+          <t>e4ffec9e-9845-432e-8700-de55d008830f</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TEG-197</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2101,19 +2101,19 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-02-06 17:10</t>
+          <t>2026-02-07 21:26</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>c845b301-e08d-41c6-908a-68054a2146e8</t>
+          <t>73f8f756-eea0-47c5-8c51-11fbae94183e</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TEG-146</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2123,19 +2123,19 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-02-06 17:10</t>
+          <t>2026-02-07 21:27</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1d11f91f-0aa8-4d84-9084-25f5bb903767</t>
+          <t>17198ffd-b656-4b9b-b5fe-c490beeb0a48</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2145,19 +2145,19 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-02-06 18:26</t>
+          <t>2026-02-07 21:27</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>61a0d3a6-1ae0-4251-9ab1-3d94e39341d0</t>
+          <t>ca063f8b-4234-46fd-b94c-24ca549f6012</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2167,19 +2167,19 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-02-06 18:27</t>
+          <t>2026-02-07 21:45</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6ec90a2f-fe9e-494b-8b0f-c47c7179d55f</t>
+          <t>96eb5152-6816-471d-a5e0-06ceefaed297</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TEG-245</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2189,14 +2189,14 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2026-02-06 18:28</t>
+          <t>2026-02-07 21:45</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3cfa8736-3571-4833-8574-3f6c7598352a</t>
+          <t>31403cc0-4130-4a05-9571-1ea137cfe007</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2211,19 +2211,19 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2026-02-06 18:28</t>
+          <t>2026-02-07 21:46</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>838b18b9-3cb6-4757-b5b6-57305b86f694</t>
+          <t>00575d6c-c650-4c36-af51-2052eb1cd94c</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PHO002</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2233,14 +2233,14 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2026-02-06 18:28</t>
+          <t>2026-02-07 21:46</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>46a66821-ab0d-474f-a412-6cbf372c3808</t>
+          <t>467a67ae-3318-4804-82c6-9450c5ddb096</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2255,19 +2255,19 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2026-02-07 21:22</t>
+          <t>2026-02-07 21:46</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>a7ed5a9f-06a3-49ce-ba2b-0624da9b63f8</t>
+          <t>5b1f54b4-fdbd-46da-a92d-de15ec876e00</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2277,19 +2277,19 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2026-02-07 21:22</t>
+          <t>2026-02-07 21:49</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>247194d1-4406-44e2-acbd-bcba2152ea4e</t>
+          <t>e19c6536-05fa-45be-8785-ffe291f00f53</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2299,19 +2299,19 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2026-02-07 21:22</t>
+          <t>2026-02-07 22:40</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1417a534-1a26-4d50-bc1b-1fedf7f444e6</t>
+          <t>dd4b71e0-b498-4cac-889a-f8364a1399fe</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2321,19 +2321,19 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2026-02-07 21:22</t>
+          <t>2026-02-07 22:43</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ad8f48d7-016c-4f7a-93db-2e358e4703da</t>
+          <t>337b78c9-dbe8-49b7-9b9c-c84b637d631e</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2343,19 +2343,19 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2026-02-07 21:23</t>
+          <t>2026-02-07 22:43</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>af94986e-1dda-4a77-85bc-d4bb4d7c0355</t>
+          <t>aa9e538e-bd33-4be8-a7e8-2eeda0611148</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2026-02-07 21:24</t>
+          <t>2026-02-07 22:45</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0098d802-7884-4de5-8ba1-f9e764aa5d9f</t>
+          <t>ce1c51db-fd7c-4b9f-8845-00e94d1ce003</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2387,19 +2387,19 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2026-02-07 21:24</t>
+          <t>2026-02-07 22:45</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>a89a1d0f-dfca-4550-af9f-023981453193</t>
+          <t>a0022729-d0a9-4981-892e-362bce5ebeaa</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2409,14 +2409,14 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2026-02-07 21:25</t>
+          <t>2026-02-07 22:46</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>793e8cdf-88a8-46ad-b650-e1e37201d445</t>
+          <t>dc64fa78-893d-461a-9eff-943108a0c32f</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2431,14 +2431,14 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2026-02-07 21:25</t>
+          <t>2026-02-07 22:46</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>e4ffec9e-9845-432e-8700-de55d008830f</t>
+          <t>572ba956-e7da-4322-9415-95b51e43e25e</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2453,14 +2453,14 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2026-02-07 21:26</t>
+          <t>2026-02-07 22:46</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>73f8f756-eea0-47c5-8c51-11fbae94183e</t>
+          <t>37c7da8d-57a8-4df3-9715-9e97a01f33bc</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2475,14 +2475,14 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2026-02-07 21:27</t>
+          <t>2026-02-07 22:50</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>17198ffd-b656-4b9b-b5fe-c490beeb0a48</t>
+          <t>01fd641d-aa27-41cf-8695-be6a84924584</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2497,14 +2497,14 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2026-02-07 21:27</t>
+          <t>2026-02-07 22:51</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ca063f8b-4234-46fd-b94c-24ca549f6012</t>
+          <t>ab124383-3e8c-49cf-b6ae-b90750dd8083</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2519,14 +2519,14 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2026-02-07 21:45</t>
+          <t>2026-02-07 22:52</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>96eb5152-6816-471d-a5e0-06ceefaed297</t>
+          <t>33c54ee9-5d22-4eba-855f-c03542094c55</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2541,19 +2541,19 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2026-02-07 21:45</t>
+          <t>2026-02-07 22:54</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>31403cc0-4130-4a05-9571-1ea137cfe007</t>
+          <t>698a54ae-dea6-461e-9ea8-1f5cb45a14e2</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2563,19 +2563,19 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2026-02-07 21:46</t>
+          <t>2026-02-07 22:54</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>00575d6c-c650-4c36-af51-2052eb1cd94c</t>
+          <t>6eea9716-64c4-4d93-8e7d-37b78ea88752</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2585,14 +2585,14 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2026-02-07 21:46</t>
+          <t>2026-02-07 22:55</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>467a67ae-3318-4804-82c6-9450c5ddb096</t>
+          <t>6cfc99f6-4144-4a7a-82ac-fcc72b167045</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2607,14 +2607,14 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2026-02-07 21:46</t>
+          <t>2026-02-07 22:58</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>5b1f54b4-fdbd-46da-a92d-de15ec876e00</t>
+          <t>7268899c-8dee-4e8e-9121-972c6ef8cccb</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2629,14 +2629,14 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2026-02-07 21:49</t>
+          <t>2026-02-07 23:02</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>e19c6536-05fa-45be-8785-ffe291f00f53</t>
+          <t>105107cb-5ace-414e-b303-2b62464b813b</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2026-02-07 22:40</t>
+          <t>2026-02-07 23:04</t>
         </is>
       </c>
     </row>

--- a/excel_templates/查看记录表.xlsx
+++ b/excel_templates/查看记录表.xlsx
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>528813f1-b990-4db1-86ac-2b9f6e487e90</t>
+          <t>f402ab4d-ad84-4ede-8e5b-5ff76d759f02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -473,19 +473,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-02-06 15:15</t>
+          <t>2026-02-06 15:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>331fa790-b69a-4d71-85d2-d676479bd299</t>
+          <t>b72133d4-43de-4fc4-b4ac-6fe260cf5d56</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,19 +495,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-02-06 15:18</t>
+          <t>2026-02-06 15:19</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>f402ab4d-ad84-4ede-8e5b-5ff76d759f02</t>
+          <t>88904f6c-b37e-4b3e-aa6f-fca29ad2c89b</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -517,19 +517,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-02-06 15:18</t>
+          <t>2026-02-06 15:20</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>b72133d4-43de-4fc4-b4ac-6fe260cf5d56</t>
+          <t>b40e2c1c-2d8a-46c1-bc28-a555ef1221dc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>PHO002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -539,19 +539,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-02-06 15:19</t>
+          <t>2026-02-06 15:21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>88904f6c-b37e-4b3e-aa6f-fca29ad2c89b</t>
+          <t>0a4e9324-fbd2-496e-899d-c6c750075ca0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>PHO002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -561,19 +561,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-02-06 15:20</t>
+          <t>2026-02-06 15:21</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>b40e2c1c-2d8a-46c1-bc28-a555ef1221dc</t>
+          <t>0a9fb931-c3b4-44ed-aecd-5751915526b4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHO002</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -583,19 +583,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-02-06 15:21</t>
+          <t>2026-02-06 15:22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0a4e9324-fbd2-496e-899d-c6c750075ca0</t>
+          <t>3daa6b19-2029-45f3-ba15-7bed79d2a837</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHO002</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-02-06 15:21</t>
+          <t>2026-02-06 15:23</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0a9fb931-c3b4-44ed-aecd-5751915526b4</t>
+          <t>b7cb5ab2-bd48-44c2-b71a-1380dd749906</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -627,19 +627,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-02-06 15:22</t>
+          <t>2026-02-06 15:23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3daa6b19-2029-45f3-ba15-7bed79d2a837</t>
+          <t>4f80fee3-72f7-48fb-a941-794b44d2e22e</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>TEG-245</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -656,12 +656,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>b7cb5ab2-bd48-44c2-b71a-1380dd749906</t>
+          <t>e5fb1ed8-1cb4-4f46-83b2-cc530fc33b8a</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -671,19 +671,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-02-06 15:23</t>
+          <t>2026-02-06 15:24</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4f80fee3-72f7-48fb-a941-794b44d2e22e</t>
+          <t>4c6eaf50-960f-49fb-9486-91e2e0900862</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TEG-245</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -693,14 +693,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-02-06 15:23</t>
+          <t>2026-02-06 15:24</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>e5fb1ed8-1cb4-4f46-83b2-cc530fc33b8a</t>
+          <t>1b546055-9484-445c-a1bd-6c775fb66ae7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -722,7 +722,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4c6eaf50-960f-49fb-9486-91e2e0900862</t>
+          <t>33cc3e55-75a5-4d6c-878e-6ff409fbdb18</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -737,14 +737,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-02-06 15:24</t>
+          <t>2026-02-06 15:25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1b546055-9484-445c-a1bd-6c775fb66ae7</t>
+          <t>b617ee40-868e-4871-898f-c080301755dd</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -759,14 +759,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-02-06 15:24</t>
+          <t>2026-02-06 15:29</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>33cc3e55-75a5-4d6c-878e-6ff409fbdb18</t>
+          <t>96578c21-1068-4a4d-927b-afe525c95d4a</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -781,14 +781,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-02-06 15:25</t>
+          <t>2026-02-06 15:29</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>b617ee40-868e-4871-898f-c080301755dd</t>
+          <t>5344df3e-1d63-4c0d-92a2-88e3d0271928</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>96578c21-1068-4a4d-927b-afe525c95d4a</t>
+          <t>f80dec3f-0255-4ab2-8e19-e5e6261261ad</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5344df3e-1d63-4c0d-92a2-88e3d0271928</t>
+          <t>dc05e093-96d1-45ca-b60e-f3c5e09fe29e</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -847,14 +847,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-02-06 15:29</t>
+          <t>2026-02-06 15:30</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>f80dec3f-0255-4ab2-8e19-e5e6261261ad</t>
+          <t>a236f72b-d09e-49ba-9b88-43d7f7e7d757</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -869,14 +869,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2026-02-06 15:29</t>
+          <t>2026-02-06 15:30</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>dc05e093-96d1-45ca-b60e-f3c5e09fe29e</t>
+          <t>cb534e05-2c3f-4086-8e93-b7373137e7ba</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -898,7 +898,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>a236f72b-d09e-49ba-9b88-43d7f7e7d757</t>
+          <t>cc7c0e55-8071-4106-a843-e1fa9b2dc9f8</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -913,14 +913,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2026-02-06 15:30</t>
+          <t>2026-02-06 15:31</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>cb534e05-2c3f-4086-8e93-b7373137e7ba</t>
+          <t>28c6b12a-81a8-420e-813c-8e780d9acf53</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -935,14 +935,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2026-02-06 15:30</t>
+          <t>2026-02-06 15:31</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>cc7c0e55-8071-4106-a843-e1fa9b2dc9f8</t>
+          <t>d5dff3e4-3d4d-4599-9d4d-ef58251c645e</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -957,14 +957,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2026-02-06 15:31</t>
+          <t>2026-02-06 15:32</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>28c6b12a-81a8-420e-813c-8e780d9acf53</t>
+          <t>0faceaf9-e10c-4322-86d9-3cdabefc425e</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -979,14 +979,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2026-02-06 15:31</t>
+          <t>2026-02-06 15:32</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>d5dff3e4-3d4d-4599-9d4d-ef58251c645e</t>
+          <t>5a84cba3-0728-423b-8995-805b3af5b592</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1008,7 +1008,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0faceaf9-e10c-4322-86d9-3cdabefc425e</t>
+          <t>9c0a4a30-4bdb-42c9-a428-059abedfa631</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1030,7 +1030,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5a84cba3-0728-423b-8995-805b3af5b592</t>
+          <t>793b29f5-c882-4f2f-b8d5-b7082fb78309</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1045,14 +1045,14 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2026-02-06 15:32</t>
+          <t>2026-02-06 15:34</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>9c0a4a30-4bdb-42c9-a428-059abedfa631</t>
+          <t>fda15de0-aae2-4566-898a-fb2df8f7bf3b</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1067,14 +1067,14 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2026-02-06 15:32</t>
+          <t>2026-02-06 15:34</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>793b29f5-c882-4f2f-b8d5-b7082fb78309</t>
+          <t>e48b7b28-ff25-4cd9-8412-53c040d353f6</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>fda15de0-aae2-4566-898a-fb2df8f7bf3b</t>
+          <t>826dc4f9-933e-4f07-945a-ac707bc3535c</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1111,14 +1111,14 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2026-02-06 15:34</t>
+          <t>2026-02-06 15:36</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>e48b7b28-ff25-4cd9-8412-53c040d353f6</t>
+          <t>7e01cb7c-4d04-472d-ac50-936767e51c6b</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2026-02-06 15:34</t>
+          <t>2026-02-06 15:36</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>826dc4f9-933e-4f07-945a-ac707bc3535c</t>
+          <t>2d9286c2-d213-4fe4-a9dc-8cfbe7bc979a</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7e01cb7c-4d04-472d-ac50-936767e51c6b</t>
+          <t>760144f9-eb40-4eb7-8b6f-abb4433e3d37</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1177,14 +1177,14 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2026-02-06 15:36</t>
+          <t>2026-02-06 15:37</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2d9286c2-d213-4fe4-a9dc-8cfbe7bc979a</t>
+          <t>e27a2622-e437-4b0f-9bc7-f5b8cb6b7596</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2026-02-06 15:36</t>
+          <t>2026-02-06 15:37</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>760144f9-eb40-4eb7-8b6f-abb4433e3d37</t>
+          <t>b26430f9-646c-4bc4-afb6-4c9488c2a82e</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1221,14 +1221,14 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2026-02-06 15:37</t>
+          <t>2026-02-06 15:38</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>e27a2622-e437-4b0f-9bc7-f5b8cb6b7596</t>
+          <t>95fa5d0f-f337-41fb-86c1-1de2bf4bd82d</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1243,19 +1243,19 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2026-02-06 15:37</t>
+          <t>2026-02-06 15:41</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>b26430f9-646c-4bc4-afb6-4c9488c2a82e</t>
+          <t>a5db1246-f72c-4cc8-8d7b-8770f4e4cb05</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1265,14 +1265,14 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2026-02-06 15:38</t>
+          <t>2026-02-06 15:42</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>95fa5d0f-f337-41fb-86c1-1de2bf4bd82d</t>
+          <t>d1af907c-f648-4ec0-a477-254a522d6ea9</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1287,19 +1287,19 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2026-02-06 15:41</t>
+          <t>2026-02-06 15:42</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>a5db1246-f72c-4cc8-8d7b-8770f4e4cb05</t>
+          <t>bbb813e8-8a2c-4baa-9e0d-a0d310b84dbf</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>59326495-5ce0-4203-b699-f3c5c5fd6335</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2026-02-06 15:42</t>
+          <t>2026-02-06 15:43</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>d1af907c-f648-4ec0-a477-254a522d6ea9</t>
+          <t>e404dab7-88b3-4868-b3a9-a17c4839f90d</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>59326495-5ce0-4203-b699-f3c5c5fd6335</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1331,14 +1331,14 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2026-02-06 15:42</t>
+          <t>2026-02-06 15:43</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>bbb813e8-8a2c-4baa-9e0d-a0d310b84dbf</t>
+          <t>f51c4e21-087b-4e87-8630-0a9a871cdf05</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1360,12 +1360,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>e404dab7-88b3-4868-b3a9-a17c4839f90d</t>
+          <t>b9405056-5e3c-4953-9a7d-e0212a4ec609</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>59326495-5ce0-4203-b699-f3c5c5fd6335</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1375,19 +1375,19 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2026-02-06 15:43</t>
+          <t>2026-02-06 16:57</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>f51c4e21-087b-4e87-8630-0a9a871cdf05</t>
+          <t>2d89b00e-b20f-4a7a-b4be-b706270e0cbe</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>59326495-5ce0-4203-b699-f3c5c5fd6335</t>
+          <t>TEG-245</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1397,19 +1397,19 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2026-02-06 15:43</t>
+          <t>2026-02-06 16:57</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>b9405056-5e3c-4953-9a7d-e0212a4ec609</t>
+          <t>6c5d8fcc-043c-44ed-a94b-e6986e02fcf7</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>TEG-245</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1426,12 +1426,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2d89b00e-b20f-4a7a-b4be-b706270e0cbe</t>
+          <t>f7bfa7bc-0087-4cef-88d9-4f2ee32595d3</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TEG-245</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1441,19 +1441,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-02-06 16:57</t>
+          <t>2026-02-06 16:58</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6c5d8fcc-043c-44ed-a94b-e6986e02fcf7</t>
+          <t>17482407-37fe-4baa-9e79-872b40a61f88</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TEG-245</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1463,14 +1463,14 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-02-06 16:57</t>
+          <t>2026-02-06 16:58</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>f7bfa7bc-0087-4cef-88d9-4f2ee32595d3</t>
+          <t>2dd36311-88cb-4d30-bce7-8de4e3315b58</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1492,12 +1492,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>17482407-37fe-4baa-9e79-872b40a61f88</t>
+          <t>d5dfe529-c73e-43b4-b6f5-0cf528caf26a</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1507,19 +1507,19 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-06 16:58</t>
+          <t>2026-02-06 16:59</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2dd36311-88cb-4d30-bce7-8de4e3315b58</t>
+          <t>779be6c9-a81b-4533-8ce0-7507b1ee6892</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1529,19 +1529,19 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-02-06 16:58</t>
+          <t>2026-02-06 16:59</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>d5dfe529-c73e-43b4-b6f5-0cf528caf26a</t>
+          <t>13e6a4d0-a44f-4632-8241-d92014f080a7</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1558,12 +1558,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>779be6c9-a81b-4533-8ce0-7507b1ee6892</t>
+          <t>89d1fa32-f3a0-4181-bcab-404d489e205a</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1580,7 +1580,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>13e6a4d0-a44f-4632-8241-d92014f080a7</t>
+          <t>1b479e6f-024e-4587-9632-70b3624874b4</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1602,34 +1602,34 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>89d1fa32-f3a0-4181-bcab-404d489e205a</t>
+          <t>cd8a6a94-24c6-48e0-ac38-48c942ac87dc</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>46d518ee-2238-473d-9f24-ee5986b46517</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>jamorant</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-06 16:59</t>
+          <t>2026-02-06 17:04</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1b479e6f-024e-4587-9632-70b3624874b4</t>
+          <t>760d5e56-ebaa-484c-8ea5-d7905ab76f72</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>TEG-210</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1639,36 +1639,36 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-02-06 16:59</t>
+          <t>2026-02-06 17:09</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>cd8a6a94-24c6-48e0-ac38-48c942ac87dc</t>
+          <t>b1ffe59a-fe54-438b-8c1b-ef49f9b7c048</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>46d518ee-2238-473d-9f24-ee5986b46517</t>
+          <t>TEG-205</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>jamorant</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-06 17:04</t>
+          <t>2026-02-06 17:10</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>760d5e56-ebaa-484c-8ea5-d7905ab76f72</t>
+          <t>2fe1a6fb-e2bf-499c-9513-804c86dbc6a1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1683,19 +1683,19 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-06 17:09</t>
+          <t>2026-02-06 17:10</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>b1ffe59a-fe54-438b-8c1b-ef49f9b7c048</t>
+          <t>1a5aa7c0-9b3b-4379-a4e0-81999f99332b</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TEG-205</t>
+          <t>TEG-197</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1712,12 +1712,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2fe1a6fb-e2bf-499c-9513-804c86dbc6a1</t>
+          <t>c845b301-e08d-41c6-908a-68054a2146e8</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TEG-210</t>
+          <t>TEG-146</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1734,12 +1734,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1a5aa7c0-9b3b-4379-a4e0-81999f99332b</t>
+          <t>1d11f91f-0aa8-4d84-9084-25f5bb903767</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TEG-197</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1749,19 +1749,19 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-06 17:10</t>
+          <t>2026-02-06 18:26</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>c845b301-e08d-41c6-908a-68054a2146e8</t>
+          <t>61a0d3a6-1ae0-4251-9ab1-3d94e39341d0</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TEG-146</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1771,19 +1771,19 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-06 17:10</t>
+          <t>2026-02-06 18:27</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1d11f91f-0aa8-4d84-9084-25f5bb903767</t>
+          <t>6ec90a2f-fe9e-494b-8b0f-c47c7179d55f</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>TEG-245</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1793,19 +1793,19 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-06 18:26</t>
+          <t>2026-02-06 18:28</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>61a0d3a6-1ae0-4251-9ab1-3d94e39341d0</t>
+          <t>3cfa8736-3571-4833-8574-3f6c7598352a</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1815,19 +1815,19 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-06 18:27</t>
+          <t>2026-02-06 18:28</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6ec90a2f-fe9e-494b-8b0f-c47c7179d55f</t>
+          <t>838b18b9-3cb6-4757-b5b6-57305b86f694</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TEG-245</t>
+          <t>PHO002</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1844,12 +1844,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3cfa8736-3571-4833-8574-3f6c7598352a</t>
+          <t>46a66821-ab0d-474f-a412-6cbf372c3808</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1859,19 +1859,19 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-06 18:28</t>
+          <t>2026-02-07 21:22</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>838b18b9-3cb6-4757-b5b6-57305b86f694</t>
+          <t>a7ed5a9f-06a3-49ce-ba2b-0624da9b63f8</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PHO002</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1881,19 +1881,19 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-06 18:28</t>
+          <t>2026-02-07 21:22</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>46a66821-ab0d-474f-a412-6cbf372c3808</t>
+          <t>247194d1-4406-44e2-acbd-bcba2152ea4e</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1910,12 +1910,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>a7ed5a9f-06a3-49ce-ba2b-0624da9b63f8</t>
+          <t>1417a534-1a26-4d50-bc1b-1fedf7f444e6</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1932,12 +1932,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>247194d1-4406-44e2-acbd-bcba2152ea4e</t>
+          <t>ad8f48d7-016c-4f7a-93db-2e358e4703da</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1947,14 +1947,14 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-07 21:22</t>
+          <t>2026-02-07 21:23</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1417a534-1a26-4d50-bc1b-1fedf7f444e6</t>
+          <t>af94986e-1dda-4a77-85bc-d4bb4d7c0355</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1969,14 +1969,14 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-07 21:22</t>
+          <t>2026-02-07 21:24</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ad8f48d7-016c-4f7a-93db-2e358e4703da</t>
+          <t>0098d802-7884-4de5-8ba1-f9e764aa5d9f</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1991,19 +1991,19 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-02-07 21:23</t>
+          <t>2026-02-07 21:24</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>af94986e-1dda-4a77-85bc-d4bb4d7c0355</t>
+          <t>a89a1d0f-dfca-4550-af9f-023981453193</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-07 21:24</t>
+          <t>2026-02-07 21:25</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0098d802-7884-4de5-8ba1-f9e764aa5d9f</t>
+          <t>793e8cdf-88a8-46ad-b650-e1e37201d445</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2035,19 +2035,19 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-07 21:24</t>
+          <t>2026-02-07 21:25</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>a89a1d0f-dfca-4550-af9f-023981453193</t>
+          <t>e4ffec9e-9845-432e-8700-de55d008830f</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2057,14 +2057,14 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-02-07 21:25</t>
+          <t>2026-02-07 21:26</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>793e8cdf-88a8-46ad-b650-e1e37201d445</t>
+          <t>73f8f756-eea0-47c5-8c51-11fbae94183e</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2079,14 +2079,14 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2026-02-07 21:25</t>
+          <t>2026-02-07 21:27</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>e4ffec9e-9845-432e-8700-de55d008830f</t>
+          <t>17198ffd-b656-4b9b-b5fe-c490beeb0a48</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2101,14 +2101,14 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-02-07 21:26</t>
+          <t>2026-02-07 21:27</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>73f8f756-eea0-47c5-8c51-11fbae94183e</t>
+          <t>ca063f8b-4234-46fd-b94c-24ca549f6012</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2123,14 +2123,14 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-02-07 21:27</t>
+          <t>2026-02-07 21:45</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>17198ffd-b656-4b9b-b5fe-c490beeb0a48</t>
+          <t>96eb5152-6816-471d-a5e0-06ceefaed297</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2145,19 +2145,19 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-02-07 21:27</t>
+          <t>2026-02-07 21:45</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ca063f8b-4234-46fd-b94c-24ca549f6012</t>
+          <t>31403cc0-4130-4a05-9571-1ea137cfe007</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2167,19 +2167,19 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-02-07 21:45</t>
+          <t>2026-02-07 21:46</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>96eb5152-6816-471d-a5e0-06ceefaed297</t>
+          <t>00575d6c-c650-4c36-af51-2052eb1cd94c</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2189,19 +2189,19 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2026-02-07 21:45</t>
+          <t>2026-02-07 21:46</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>31403cc0-4130-4a05-9571-1ea137cfe007</t>
+          <t>467a67ae-3318-4804-82c6-9450c5ddb096</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2218,12 +2218,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>00575d6c-c650-4c36-af51-2052eb1cd94c</t>
+          <t>5b1f54b4-fdbd-46da-a92d-de15ec876e00</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2233,14 +2233,14 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2026-02-07 21:46</t>
+          <t>2026-02-07 21:49</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>467a67ae-3318-4804-82c6-9450c5ddb096</t>
+          <t>e19c6536-05fa-45be-8785-ffe291f00f53</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2255,14 +2255,14 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2026-02-07 21:46</t>
+          <t>2026-02-07 22:40</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>5b1f54b4-fdbd-46da-a92d-de15ec876e00</t>
+          <t>dd4b71e0-b498-4cac-889a-f8364a1399fe</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2277,14 +2277,14 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2026-02-07 21:49</t>
+          <t>2026-02-07 22:43</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>e19c6536-05fa-45be-8785-ffe291f00f53</t>
+          <t>337b78c9-dbe8-49b7-9b9c-c84b637d631e</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2299,14 +2299,14 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2026-02-07 22:40</t>
+          <t>2026-02-07 22:43</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>dd4b71e0-b498-4cac-889a-f8364a1399fe</t>
+          <t>aa9e538e-bd33-4be8-a7e8-2eeda0611148</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2321,14 +2321,14 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2026-02-07 22:43</t>
+          <t>2026-02-07 22:45</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>337b78c9-dbe8-49b7-9b9c-c84b637d631e</t>
+          <t>ce1c51db-fd7c-4b9f-8845-00e94d1ce003</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2343,14 +2343,14 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2026-02-07 22:43</t>
+          <t>2026-02-07 22:45</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>aa9e538e-bd33-4be8-a7e8-2eeda0611148</t>
+          <t>a0022729-d0a9-4981-892e-362bce5ebeaa</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2365,14 +2365,14 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2026-02-07 22:45</t>
+          <t>2026-02-07 22:46</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ce1c51db-fd7c-4b9f-8845-00e94d1ce003</t>
+          <t>dc64fa78-893d-461a-9eff-943108a0c32f</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2387,14 +2387,14 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2026-02-07 22:45</t>
+          <t>2026-02-07 22:46</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>a0022729-d0a9-4981-892e-362bce5ebeaa</t>
+          <t>572ba956-e7da-4322-9415-95b51e43e25e</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2416,7 +2416,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>dc64fa78-893d-461a-9eff-943108a0c32f</t>
+          <t>37c7da8d-57a8-4df3-9715-9e97a01f33bc</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2431,14 +2431,14 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2026-02-07 22:46</t>
+          <t>2026-02-07 22:50</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>572ba956-e7da-4322-9415-95b51e43e25e</t>
+          <t>01fd641d-aa27-41cf-8695-be6a84924584</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2453,14 +2453,14 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2026-02-07 22:46</t>
+          <t>2026-02-07 22:51</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>37c7da8d-57a8-4df3-9715-9e97a01f33bc</t>
+          <t>ab124383-3e8c-49cf-b6ae-b90750dd8083</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2475,14 +2475,14 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2026-02-07 22:50</t>
+          <t>2026-02-07 22:52</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>01fd641d-aa27-41cf-8695-be6a84924584</t>
+          <t>33c54ee9-5d22-4eba-855f-c03542094c55</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2497,14 +2497,14 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2026-02-07 22:51</t>
+          <t>2026-02-07 22:54</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ab124383-3e8c-49cf-b6ae-b90750dd8083</t>
+          <t>698a54ae-dea6-461e-9ea8-1f5cb45a14e2</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2519,14 +2519,14 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2026-02-07 22:52</t>
+          <t>2026-02-07 22:54</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>33c54ee9-5d22-4eba-855f-c03542094c55</t>
+          <t>6eea9716-64c4-4d93-8e7d-37b78ea88752</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2541,14 +2541,14 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2026-02-07 22:54</t>
+          <t>2026-02-07 22:55</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>698a54ae-dea6-461e-9ea8-1f5cb45a14e2</t>
+          <t>6cfc99f6-4144-4a7a-82ac-fcc72b167045</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2563,14 +2563,14 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2026-02-07 22:54</t>
+          <t>2026-02-07 22:58</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>6eea9716-64c4-4d93-8e7d-37b78ea88752</t>
+          <t>7268899c-8dee-4e8e-9121-972c6ef8cccb</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2585,14 +2585,14 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2026-02-07 22:55</t>
+          <t>2026-02-07 23:02</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>6cfc99f6-4144-4a7a-82ac-fcc72b167045</t>
+          <t>105107cb-5ace-414e-b303-2b62464b813b</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2607,14 +2607,14 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2026-02-07 22:58</t>
+          <t>2026-02-07 23:04</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>7268899c-8dee-4e8e-9121-972c6ef8cccb</t>
+          <t>77146fe8-9fe2-4bf7-be7b-520a4c80bb54</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2629,19 +2629,19 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2026-02-07 23:02</t>
+          <t>2026-02-08 22:30</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>105107cb-5ace-414e-b303-2b62464b813b</t>
+          <t>0f2f911b-40e5-43c6-b238-e856484eda56</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2026-02-07 23:04</t>
+          <t>2026-02-08 22:31</t>
         </is>
       </c>
     </row>

--- a/excel_templates/查看记录表.xlsx
+++ b/excel_templates/查看记录表.xlsx
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>f402ab4d-ad84-4ede-8e5b-5ff76d759f02</t>
+          <t>105107cb-5ace-414e-b303-2b62464b813b</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -473,19 +473,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-02-06 15:18</t>
+          <t>2026-02-07 23:04</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>b72133d4-43de-4fc4-b4ac-6fe260cf5d56</t>
+          <t>77146fe8-9fe2-4bf7-be7b-520a4c80bb54</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,19 +495,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-02-06 15:19</t>
+          <t>2026-02-08 22:30</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>88904f6c-b37e-4b3e-aa6f-fca29ad2c89b</t>
+          <t>0f2f911b-40e5-43c6-b238-e856484eda56</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -517,916 +517,916 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-02-06 15:20</t>
+          <t>2026-02-08 22:31</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>b40e2c1c-2d8a-46c1-bc28-a555ef1221dc</t>
+          <t>b008cc6d-1f03-4c37-a0a4-118e11621fd3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHO002</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-02-06 15:21</t>
+          <t>2026-02-09 09:19</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0a4e9324-fbd2-496e-899d-c6c750075ca0</t>
+          <t>6b7daa0e-88bf-4d12-8164-852f2a0cdf7a</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHO002</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-02-06 15:21</t>
+          <t>2026-02-09 09:19</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0a9fb931-c3b4-44ed-aecd-5751915526b4</t>
+          <t>a465987a-c62b-4c4d-9436-5ed541f9350b</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-02-06 15:22</t>
+          <t>2026-02-09 09:25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3daa6b19-2029-45f3-ba15-7bed79d2a837</t>
+          <t>930e1fb5-5f50-4241-97e4-b1bde96169f6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-02-06 15:23</t>
+          <t>2026-02-09 09:25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>b7cb5ab2-bd48-44c2-b71a-1380dd749906</t>
+          <t>223cf4ea-04ba-47c3-9ef9-034517c3fa04</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-02-06 15:23</t>
+          <t>2026-02-09 09:28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4f80fee3-72f7-48fb-a941-794b44d2e22e</t>
+          <t>d26fce6d-61db-482c-996c-b8d396162fe2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TEG-245</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-02-06 15:23</t>
+          <t>2026-02-09 09:28</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>e5fb1ed8-1cb4-4f46-83b2-cc530fc33b8a</t>
+          <t>b35c8c55-4104-4ac2-b4a0-7414399ff0d7</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-02-06 15:24</t>
+          <t>2026-02-09 09:29</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4c6eaf50-960f-49fb-9486-91e2e0900862</t>
+          <t>e2c47a2c-c40e-40aa-8ad7-54c079bd74cd</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-02-06 15:24</t>
+          <t>2026-02-09 09:29</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1b546055-9484-445c-a1bd-6c775fb66ae7</t>
+          <t>dce33c02-6443-4dda-b9ab-ec8e6cfa85a3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-02-06 15:24</t>
+          <t>2026-02-09 09:29</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>33cc3e55-75a5-4d6c-878e-6ff409fbdb18</t>
+          <t>e0638330-db8f-43b8-a0b5-2b8a12c32651</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-02-06 15:25</t>
+          <t>2026-02-09 09:30</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>b617ee40-868e-4871-898f-c080301755dd</t>
+          <t>a9849221-0fb3-48f2-9814-dbda1a570c7a</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-02-06 15:29</t>
+          <t>2026-02-09 09:30</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>96578c21-1068-4a4d-927b-afe525c95d4a</t>
+          <t>5a36268b-00c1-4b76-b0ec-c4cc2155015c</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-02-06 15:29</t>
+          <t>2026-02-09 09:30</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5344df3e-1d63-4c0d-92a2-88e3d0271928</t>
+          <t>223314f4-ff9a-4a71-b67b-8b35f6d3c191</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2026-02-06 15:29</t>
+          <t>2026-02-09 09:31</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>f80dec3f-0255-4ab2-8e19-e5e6261261ad</t>
+          <t>35d1083f-2d1f-4f20-ba7f-ed5949709136</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2026-02-06 15:29</t>
+          <t>2026-02-09 09:32</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dc05e093-96d1-45ca-b60e-f3c5e09fe29e</t>
+          <t>935a8798-4c17-4df9-b269-e2b6e02849ea</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-02-06 15:30</t>
+          <t>2026-02-09 09:32</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>a236f72b-d09e-49ba-9b88-43d7f7e7d757</t>
+          <t>3d8d7eb3-fb6a-402a-a286-2fd271ba8130</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2026-02-06 15:30</t>
+          <t>2026-02-09 09:35</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>cb534e05-2c3f-4086-8e93-b7373137e7ba</t>
+          <t>26e0c16b-275d-460b-8fe6-fc59560a24c0</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2026-02-06 15:30</t>
+          <t>2026-02-09 09:35</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>cc7c0e55-8071-4106-a843-e1fa9b2dc9f8</t>
+          <t>db54a7c4-844d-4b17-8b89-ee55502e86b1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2026-02-06 15:31</t>
+          <t>2026-02-09 09:35</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>28c6b12a-81a8-420e-813c-8e780d9acf53</t>
+          <t>b7c102c6-e769-4e40-9864-e541af34c2d0</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2026-02-06 15:31</t>
+          <t>2026-02-09 09:37</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>d5dff3e4-3d4d-4599-9d4d-ef58251c645e</t>
+          <t>a6d64a9d-85bb-4ab6-8367-0c9d4cbbe47a</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2026-02-06 15:32</t>
+          <t>2026-02-09 09:37</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0faceaf9-e10c-4322-86d9-3cdabefc425e</t>
+          <t>7fb5bac3-4ec4-49b3-8f83-a82e9912bb49</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2026-02-06 15:32</t>
+          <t>2026-02-09 09:37</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5a84cba3-0728-423b-8995-805b3af5b592</t>
+          <t>41c115b6-1f3a-4b58-b518-e933322711b3</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>148faa59-7f7e-4219-9054-1f89877683d6</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2026-02-06 15:32</t>
+          <t>2026-02-09 09:37</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>9c0a4a30-4bdb-42c9-a428-059abedfa631</t>
+          <t>f4a4daa0-a1ce-49bf-80dd-3aebfe539fe8</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>PHO002</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2026-02-06 15:32</t>
+          <t>2026-02-09 09:38</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>793b29f5-c882-4f2f-b8d5-b7082fb78309</t>
+          <t>0852fd2b-5989-4731-87ca-b0be962a1321</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>PHO002</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2026-02-06 15:34</t>
+          <t>2026-02-09 09:38</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>fda15de0-aae2-4566-898a-fb2df8f7bf3b</t>
+          <t>4fe64a61-1745-4ac3-8782-9898006205c9</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>PHO002</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2026-02-06 15:34</t>
+          <t>2026-02-09 09:39</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>e48b7b28-ff25-4cd9-8412-53c040d353f6</t>
+          <t>38313171-bb18-4be5-8bfe-9e1459032739</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2026-02-06 15:34</t>
+          <t>2026-02-09 09:39</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>826dc4f9-933e-4f07-945a-ac707bc3535c</t>
+          <t>122711ae-aac5-45fd-80d6-0f71d1bd3172</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2026-02-06 15:36</t>
+          <t>2026-02-09 09:39</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7e01cb7c-4d04-472d-ac50-936767e51c6b</t>
+          <t>433e587b-22ed-404c-a07a-7681b0813503</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2026-02-06 15:36</t>
+          <t>2026-02-09 09:40</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2d9286c2-d213-4fe4-a9dc-8cfbe7bc979a</t>
+          <t>d52b0283-4e37-44ad-9c07-7c2faf108101</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2026-02-06 15:36</t>
+          <t>2026-02-09 09:40</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>760144f9-eb40-4eb7-8b6f-abb4433e3d37</t>
+          <t>0288ce0d-8ce1-41e2-9b60-4c1cc14348ff</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2026-02-06 15:37</t>
+          <t>2026-02-09 09:40</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>e27a2622-e437-4b0f-9bc7-f5b8cb6b7596</t>
+          <t>2a09384a-7416-4fec-acde-6ebd4c6dc768</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2026-02-06 15:37</t>
+          <t>2026-02-09 09:40</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>b26430f9-646c-4bc4-afb6-4c9488c2a82e</t>
+          <t>f266da94-4080-4387-8e50-318534cb4f62</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2026-02-06 15:38</t>
+          <t>2026-02-09 09:41</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>95fa5d0f-f337-41fb-86c1-1de2bf4bd82d</t>
+          <t>6462efea-6e74-454a-8063-502d60fb91c9</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2026-02-06 15:41</t>
+          <t>2026-02-09 09:41</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>a5db1246-f72c-4cc8-8d7b-8770f4e4cb05</t>
+          <t>cb968abb-b037-41fe-af09-af35fcf6ddc8</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2026-02-06 15:42</t>
+          <t>2026-02-09 09:46</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>d1af907c-f648-4ec0-a477-254a522d6ea9</t>
+          <t>9e70ed9f-39f5-4b25-a6e3-43ce510d4929</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2026-02-06 15:42</t>
+          <t>2026-02-09 09:49</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bbb813e8-8a2c-4baa-9e0d-a0d310b84dbf</t>
+          <t>120775f5-4290-40d3-9670-943a3c62b2fe</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>59326495-5ce0-4203-b699-f3c5c5fd6335</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2026-02-06 15:43</t>
+          <t>2026-02-09 09:51</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>e404dab7-88b3-4868-b3a9-a17c4839f90d</t>
+          <t>7f0736ad-8008-4ab9-8563-c1a0b06a8c8e</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>59326495-5ce0-4203-b699-f3c5c5fd6335</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2026-02-06 15:43</t>
+          <t>2026-02-09 09:51</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>f51c4e21-087b-4e87-8630-0a9a871cdf05</t>
+          <t>83334e3a-eb09-4c90-b9d7-ab395a7bb54a</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>59326495-5ce0-4203-b699-f3c5c5fd6335</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2026-02-06 15:43</t>
+          <t>2026-02-09 09:52</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>b9405056-5e3c-4953-9a7d-e0212a4ec609</t>
+          <t>179c8a2c-1dc4-4287-b3fa-c893bff590bd</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2026-02-06 16:57</t>
+          <t>2026-02-09 09:53</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2d89b00e-b20f-4a7a-b4be-b706270e0cbe</t>
+          <t>f0cb75cb-38ba-49b9-b693-deb10475e16e</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TEG-245</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2026-02-06 16:57</t>
+          <t>2026-02-09 09:53</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6c5d8fcc-043c-44ed-a94b-e6986e02fcf7</t>
+          <t>31c24732-5402-4db6-98ae-d378b0628026</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TEG-245</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2026-02-06 16:57</t>
+          <t>2026-02-09 09:53</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>f7bfa7bc-0087-4cef-88d9-4f2ee32595d3</t>
+          <t>5ef9b82b-d7d1-4af7-82c1-168ab5db4b02</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1436,19 +1436,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-02-06 16:58</t>
+          <t>2026-02-09 09:53</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>17482407-37fe-4baa-9e79-872b40a61f88</t>
+          <t>13e759b3-d964-467d-8777-450eb6a92844</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1458,63 +1458,63 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-02-06 16:58</t>
+          <t>2026-02-09 09:53</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2dd36311-88cb-4d30-bce7-8de4e3315b58</t>
+          <t>0c65ecab-c047-4c0d-a6b8-e07ce0655848</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-02-06 16:58</t>
+          <t>2026-02-09 09:54</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>d5dfe529-c73e-43b4-b6f5-0cf528caf26a</t>
+          <t>5b7756c6-7a81-4de5-9e63-9d1e4b2bf070</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-06 16:59</t>
+          <t>2026-02-09 09:55</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>779be6c9-a81b-4533-8ce0-7507b1ee6892</t>
+          <t>b2210744-7e5a-4844-acd7-1df519c3edcb</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1524,239 +1524,239 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-02-06 16:59</t>
+          <t>2026-02-09 10:02</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>13e6a4d0-a44f-4632-8241-d92014f080a7</t>
+          <t>3466b939-0b41-4c1b-81ed-98c54041e02b</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-02-06 16:59</t>
+          <t>2026-02-09 10:02</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>89d1fa32-f3a0-4181-bcab-404d489e205a</t>
+          <t>acd7ed9d-6d02-4cfe-a95c-d4fe6e840546</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>395</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-06 16:59</t>
+          <t>2026-02-09 10:03</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1b479e6f-024e-4587-9632-70b3624874b4</t>
+          <t>d1169e9e-cef5-4101-83a3-835c4153d92f</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-06 16:59</t>
+          <t>2026-02-09 10:03</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>cd8a6a94-24c6-48e0-ac38-48c942ac87dc</t>
+          <t>fe54fe81-c4b2-4f72-af08-96c519b37b22</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>46d518ee-2238-473d-9f24-ee5986b46517</t>
+          <t>119</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>jamorant</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-06 17:04</t>
+          <t>2026-02-09 10:03</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>760d5e56-ebaa-484c-8ea5-d7905ab76f72</t>
+          <t>8b8ba1ea-5ad4-41b9-9ec7-4376c98e6ec8</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TEG-210</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-02-06 17:09</t>
+          <t>2026-02-09 10:03</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>b1ffe59a-fe54-438b-8c1b-ef49f9b7c048</t>
+          <t>b042993c-5459-4d0a-a9e9-d87950ac5db5</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TEG-205</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-06 17:10</t>
+          <t>2026-02-09 10:03</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2fe1a6fb-e2bf-499c-9513-804c86dbc6a1</t>
+          <t>6efd4961-2382-47d0-9c36-d7acddd5ac6b</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TEG-210</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-06 17:10</t>
+          <t>2026-02-09 10:03</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1a5aa7c0-9b3b-4379-a4e0-81999f99332b</t>
+          <t>c4b1012e-150c-4294-b2af-51ec725aec37</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TEG-197</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-06 17:10</t>
+          <t>2026-02-09 10:04</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>c845b301-e08d-41c6-908a-68054a2146e8</t>
+          <t>b4640671-d0e1-4eb3-bf04-5fb2e4333636</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TEG-146</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-06 17:10</t>
+          <t>2026-02-09 10:05</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1d11f91f-0aa8-4d84-9084-25f5bb903767</t>
+          <t>34af0aed-f9d6-4c1f-a90c-b15bc5f42286</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-06 18:26</t>
+          <t>2026-02-09 10:05</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>61a0d3a6-1ae0-4251-9ab1-3d94e39341d0</t>
+          <t>088555bb-0cfa-4d5a-8542-822544f64386</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1766,85 +1766,85 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-06 18:27</t>
+          <t>2026-02-09 10:05</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6ec90a2f-fe9e-494b-8b0f-c47c7179d55f</t>
+          <t>c587f6b5-8d59-49cf-ab89-cfd5a617cb13</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TEG-245</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-06 18:28</t>
+          <t>2026-02-09 10:06</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3cfa8736-3571-4833-8574-3f6c7598352a</t>
+          <t>809ff47e-3e55-46d3-b3ee-522a9aab4d7b</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-06 18:28</t>
+          <t>2026-02-09 10:08</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>838b18b9-3cb6-4757-b5b6-57305b86f694</t>
+          <t>e82ed443-dcda-42c0-827f-884476157e5e</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PHO002</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-06 18:28</t>
+          <t>2026-02-09 10:09</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>46a66821-ab0d-474f-a412-6cbf372c3808</t>
+          <t>9adb1af8-7d53-4494-8cf2-15356c9d0572</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1854,85 +1854,85 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-07 21:22</t>
+          <t>2026-02-09 10:20</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>a7ed5a9f-06a3-49ce-ba2b-0624da9b63f8</t>
+          <t>6ff4076e-3054-4391-963b-61e93288b76a</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-07 21:22</t>
+          <t>2026-02-09 10:20</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>247194d1-4406-44e2-acbd-bcba2152ea4e</t>
+          <t>0d08146d-1cbf-466b-8ca2-4256c147b24a</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-07 21:22</t>
+          <t>2026-02-09 10:25</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1417a534-1a26-4d50-bc1b-1fedf7f444e6</t>
+          <t>5b596765-f37a-4402-819e-817caa761caa</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-02-07 21:22</t>
+          <t>2026-02-09 10:26</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ad8f48d7-016c-4f7a-93db-2e358e4703da</t>
+          <t>9255bb56-535f-40a5-8c01-25c22830e509</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1942,19 +1942,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-07 21:23</t>
+          <t>2026-02-09 10:29</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>af94986e-1dda-4a77-85bc-d4bb4d7c0355</t>
+          <t>35a815a1-5a16-4d60-b9a8-96896f7b2f44</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1964,19 +1964,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-07 21:24</t>
+          <t>2026-02-09 10:30</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0098d802-7884-4de5-8ba1-f9e764aa5d9f</t>
+          <t>3e6b6050-a9f3-40a9-bb1b-c4a6552436f2</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1986,63 +1986,63 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-02-07 21:24</t>
+          <t>2026-02-09 10:31</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>a89a1d0f-dfca-4550-af9f-023981453193</t>
+          <t>c894ae2d-f342-433e-827e-7cfa24635a73</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-07 21:25</t>
+          <t>2026-02-09 10:31</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>793e8cdf-88a8-46ad-b650-e1e37201d445</t>
+          <t>1c40fe5a-786a-48ed-810d-167293b760ca</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-07 21:25</t>
+          <t>2026-02-09 10:31</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>e4ffec9e-9845-432e-8700-de55d008830f</t>
+          <t>b2443aad-06b5-4922-9f93-91f1084428e9</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2052,63 +2052,63 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-02-07 21:26</t>
+          <t>2026-02-09 10:32</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>73f8f756-eea0-47c5-8c51-11fbae94183e</t>
+          <t>76a81ae7-ebec-469d-9413-9c465630eb2b</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2026-02-07 21:27</t>
+          <t>2026-02-09 10:33</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>17198ffd-b656-4b9b-b5fe-c490beeb0a48</t>
+          <t>26235f49-38c1-4352-ba47-6d9d863b893b</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-02-07 21:27</t>
+          <t>2026-02-09 10:33</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ca063f8b-4234-46fd-b94c-24ca549f6012</t>
+          <t>9600bea3-5cd8-4ffc-a2ca-c15e010bbda6</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2118,19 +2118,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-02-07 21:45</t>
+          <t>2026-02-09 10:34</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>96eb5152-6816-471d-a5e0-06ceefaed297</t>
+          <t>52ea3ff6-c59a-483c-8369-aa04c03bc4a6</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2140,85 +2140,85 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-02-07 21:45</t>
+          <t>2026-02-09 10:34</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>31403cc0-4130-4a05-9571-1ea137cfe007</t>
+          <t>20e32f17-68e2-49ed-9dfc-2dbd851c5fec</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-02-07 21:46</t>
+          <t>2026-02-09 10:37</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>00575d6c-c650-4c36-af51-2052eb1cd94c</t>
+          <t>fa74d317-f2d1-48a6-88f6-63ba035638e9</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2026-02-07 21:46</t>
+          <t>2026-02-09 10:37</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>467a67ae-3318-4804-82c6-9450c5ddb096</t>
+          <t>34eddf2e-b72a-4a28-bf04-eed1f9b71880</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2026-02-07 21:46</t>
+          <t>2026-02-09 10:38</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>5b1f54b4-fdbd-46da-a92d-de15ec876e00</t>
+          <t>3b517a77-70ab-42e1-996a-12ed730be398</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2233,14 +2233,14 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2026-02-07 21:49</t>
+          <t>2026-02-09 10:42</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>e19c6536-05fa-45be-8785-ffe291f00f53</t>
+          <t>cb80d3da-d5c7-48ba-b128-f2063e3e0f50</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2255,14 +2255,14 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2026-02-07 22:40</t>
+          <t>2026-02-09 10:43</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>dd4b71e0-b498-4cac-889a-f8364a1399fe</t>
+          <t>411ba183-ea02-4992-a009-9d3266496d4c</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2277,14 +2277,14 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2026-02-07 22:43</t>
+          <t>2026-02-09 10:43</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>337b78c9-dbe8-49b7-9b9c-c84b637d631e</t>
+          <t>549ee573-5503-4136-a12b-0947ca021ff6</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2299,14 +2299,14 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2026-02-07 22:43</t>
+          <t>2026-02-09 10:46</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>aa9e538e-bd33-4be8-a7e8-2eeda0611148</t>
+          <t>cdb69783-f152-4d74-a7b4-0406d85bffa2</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2321,14 +2321,14 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2026-02-07 22:45</t>
+          <t>2026-02-09 10:46</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ce1c51db-fd7c-4b9f-8845-00e94d1ce003</t>
+          <t>22966879-fa93-4af3-862b-c0840c39708c</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2343,14 +2343,14 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2026-02-07 22:45</t>
+          <t>2026-02-09 10:47</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>a0022729-d0a9-4981-892e-362bce5ebeaa</t>
+          <t>d14f27ab-ac83-425b-8116-7df8077ab716</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2365,14 +2365,14 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2026-02-07 22:46</t>
+          <t>2026-02-09 10:47</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>dc64fa78-893d-461a-9eff-943108a0c32f</t>
+          <t>d54e2f09-6473-4a8c-a43f-3f87de2a940d</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2387,14 +2387,14 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2026-02-07 22:46</t>
+          <t>2026-02-09 10:48</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>572ba956-e7da-4322-9415-95b51e43e25e</t>
+          <t>d3b7a4ae-32ad-407c-8ccf-a9ffff4c1b2a</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2409,14 +2409,14 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2026-02-07 22:46</t>
+          <t>2026-02-09 10:48</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>37c7da8d-57a8-4df3-9715-9e97a01f33bc</t>
+          <t>d3472351-9cea-42c4-b0b3-41a809825fb3</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2431,19 +2431,19 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2026-02-07 22:50</t>
+          <t>2026-02-09 10:53</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>01fd641d-aa27-41cf-8695-be6a84924584</t>
+          <t>b7a7eea0-7cab-4e7a-8cc5-95d20baa02c9</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2453,14 +2453,14 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2026-02-07 22:51</t>
+          <t>2026-02-09 10:59</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ab124383-3e8c-49cf-b6ae-b90750dd8083</t>
+          <t>2ec22502-6d3d-4482-9223-38ac8dde272d</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2475,14 +2475,14 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2026-02-07 22:52</t>
+          <t>2026-02-09 10:59</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>33c54ee9-5d22-4eba-855f-c03542094c55</t>
+          <t>0a41d08c-e09d-4a35-b151-556f3dff575a</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2497,19 +2497,19 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2026-02-07 22:54</t>
+          <t>2026-02-09 11:00</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>698a54ae-dea6-461e-9ea8-1f5cb45a14e2</t>
+          <t>0a1eb5c7-8d9d-4cc5-9a36-78b97da7f993</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2519,14 +2519,14 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2026-02-07 22:54</t>
+          <t>2026-02-09 11:00</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>6eea9716-64c4-4d93-8e7d-37b78ea88752</t>
+          <t>998db873-967a-4112-9f47-46ebbecdbe24</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2541,14 +2541,14 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2026-02-07 22:55</t>
+          <t>2026-02-09 11:01</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>6cfc99f6-4144-4a7a-82ac-fcc72b167045</t>
+          <t>2baf1d2e-7a14-46f1-900e-6ba704668dfe</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2563,14 +2563,14 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2026-02-07 22:58</t>
+          <t>2026-02-09 11:09</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>7268899c-8dee-4e8e-9121-972c6ef8cccb</t>
+          <t>729ad8ca-0e2b-42c3-8970-75b9931a3b0d</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2580,19 +2580,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2026-02-07 23:02</t>
+          <t>2026-02-09 11:33</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>105107cb-5ace-414e-b303-2b62464b813b</t>
+          <t>78a39a6a-028c-471a-be64-d6ee54bb2f0b</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2607,14 +2607,14 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2026-02-07 23:04</t>
+          <t>2026-02-09 11:34</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>77146fe8-9fe2-4bf7-be7b-520a4c80bb54</t>
+          <t>fc696024-b2d9-491b-a1ee-523c1c1e0c5f</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2624,34 +2624,34 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2026-02-08 22:30</t>
+          <t>2026-02-09 11:35</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0f2f911b-40e5-43c6-b238-e856484eda56</t>
+          <t>6c20b89d-a01a-4d03-974d-ac22fda4ef41</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2026-02-08 22:31</t>
+          <t>2026-02-09 11:35</t>
         </is>
       </c>
     </row>

--- a/excel_templates/查看记录表.xlsx
+++ b/excel_templates/查看记录表.xlsx
@@ -458,29 +458,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>105107cb-5ace-414e-b303-2b62464b813b</t>
+          <t>b042993c-5459-4d0a-a9e9-d87950ac5db5</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-02-07 23:04</t>
+          <t>2026-02-09 10:03</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>77146fe8-9fe2-4bf7-be7b-520a4c80bb54</t>
+          <t>6efd4961-2382-47d0-9c36-d7acddd5ac6b</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -490,46 +490,46 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-02-08 22:30</t>
+          <t>2026-02-09 10:03</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0f2f911b-40e5-43c6-b238-e856484eda56</t>
+          <t>c4b1012e-150c-4294-b2af-51ec725aec37</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-02-08 22:31</t>
+          <t>2026-02-09 10:04</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>b008cc6d-1f03-4c37-a0a4-118e11621fd3</t>
+          <t>b4640671-d0e1-4eb3-bf04-5fb2e4333636</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -539,19 +539,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-02-09 09:19</t>
+          <t>2026-02-09 10:05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6b7daa0e-88bf-4d12-8164-852f2a0cdf7a</t>
+          <t>34af0aed-f9d6-4c1f-a90c-b15bc5f42286</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -561,19 +561,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-02-09 09:19</t>
+          <t>2026-02-09 10:05</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>a465987a-c62b-4c4d-9436-5ed541f9350b</t>
+          <t>088555bb-0cfa-4d5a-8542-822544f64386</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -583,19 +583,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-02-09 09:25</t>
+          <t>2026-02-09 10:05</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>930e1fb5-5f50-4241-97e4-b1bde96169f6</t>
+          <t>c587f6b5-8d59-49cf-ab89-cfd5a617cb13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-02-09 09:25</t>
+          <t>2026-02-09 10:06</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>223cf4ea-04ba-47c3-9ef9-034517c3fa04</t>
+          <t>809ff47e-3e55-46d3-b3ee-522a9aab4d7b</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -627,19 +627,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-02-09 09:28</t>
+          <t>2026-02-09 10:08</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>d26fce6d-61db-482c-996c-b8d396162fe2</t>
+          <t>e82ed443-dcda-42c0-827f-884476157e5e</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -649,19 +649,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-02-09 09:28</t>
+          <t>2026-02-09 10:09</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>b35c8c55-4104-4ac2-b4a0-7414399ff0d7</t>
+          <t>9adb1af8-7d53-4494-8cf2-15356c9d0572</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -671,19 +671,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-02-09 09:29</t>
+          <t>2026-02-09 10:20</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>e2c47a2c-c40e-40aa-8ad7-54c079bd74cd</t>
+          <t>6ff4076e-3054-4391-963b-61e93288b76a</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -693,19 +693,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-02-09 09:29</t>
+          <t>2026-02-09 10:20</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dce33c02-6443-4dda-b9ab-ec8e6cfa85a3</t>
+          <t>0d08146d-1cbf-466b-8ca2-4256c147b24a</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -715,19 +715,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-02-09 09:29</t>
+          <t>2026-02-09 10:25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>e0638330-db8f-43b8-a0b5-2b8a12c32651</t>
+          <t>5b596765-f37a-4402-819e-817caa761caa</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -737,657 +737,657 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-02-09 09:30</t>
+          <t>2026-02-09 10:26</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>a9849221-0fb3-48f2-9814-dbda1a570c7a</t>
+          <t>9255bb56-535f-40a5-8c01-25c22830e509</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-02-09 09:30</t>
+          <t>2026-02-09 10:29</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5a36268b-00c1-4b76-b0ec-c4cc2155015c</t>
+          <t>35a815a1-5a16-4d60-b9a8-96896f7b2f44</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-02-09 09:30</t>
+          <t>2026-02-09 10:30</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>223314f4-ff9a-4a71-b67b-8b35f6d3c191</t>
+          <t>3e6b6050-a9f3-40a9-bb1b-c4a6552436f2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2026-02-09 09:31</t>
+          <t>2026-02-09 10:31</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>35d1083f-2d1f-4f20-ba7f-ed5949709136</t>
+          <t>c894ae2d-f342-433e-827e-7cfa24635a73</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2026-02-09 09:32</t>
+          <t>2026-02-09 10:31</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>935a8798-4c17-4df9-b269-e2b6e02849ea</t>
+          <t>1c40fe5a-786a-48ed-810d-167293b760ca</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-02-09 09:32</t>
+          <t>2026-02-09 10:31</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3d8d7eb3-fb6a-402a-a286-2fd271ba8130</t>
+          <t>b2443aad-06b5-4922-9f93-91f1084428e9</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2026-02-09 09:35</t>
+          <t>2026-02-09 10:32</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>26e0c16b-275d-460b-8fe6-fc59560a24c0</t>
+          <t>76a81ae7-ebec-469d-9413-9c465630eb2b</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2026-02-09 09:35</t>
+          <t>2026-02-09 10:33</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>db54a7c4-844d-4b17-8b89-ee55502e86b1</t>
+          <t>26235f49-38c1-4352-ba47-6d9d863b893b</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2026-02-09 09:35</t>
+          <t>2026-02-09 10:33</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>b7c102c6-e769-4e40-9864-e541af34c2d0</t>
+          <t>9600bea3-5cd8-4ffc-a2ca-c15e010bbda6</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2026-02-09 09:37</t>
+          <t>2026-02-09 10:34</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>a6d64a9d-85bb-4ab6-8367-0c9d4cbbe47a</t>
+          <t>52ea3ff6-c59a-483c-8369-aa04c03bc4a6</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2026-02-09 09:37</t>
+          <t>2026-02-09 10:34</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7fb5bac3-4ec4-49b3-8f83-a82e9912bb49</t>
+          <t>20e32f17-68e2-49ed-9dfc-2dbd851c5fec</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2026-02-09 09:37</t>
+          <t>2026-02-09 10:37</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>41c115b6-1f3a-4b58-b518-e933322711b3</t>
+          <t>fa74d317-f2d1-48a6-88f6-63ba035638e9</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>148faa59-7f7e-4219-9054-1f89877683d6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2026-02-09 09:37</t>
+          <t>2026-02-09 10:37</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>f4a4daa0-a1ce-49bf-80dd-3aebfe539fe8</t>
+          <t>34eddf2e-b72a-4a28-bf04-eed1f9b71880</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PHO002</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>summer2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2026-02-09 09:38</t>
+          <t>2026-02-09 10:38</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0852fd2b-5989-4731-87ca-b0be962a1321</t>
+          <t>3b517a77-70ab-42e1-996a-12ed730be398</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PHO002</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2026-02-09 09:38</t>
+          <t>2026-02-09 10:42</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4fe64a61-1745-4ac3-8782-9898006205c9</t>
+          <t>cb80d3da-d5c7-48ba-b128-f2063e3e0f50</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PHO002</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2026-02-09 09:39</t>
+          <t>2026-02-09 10:43</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>38313171-bb18-4be5-8bfe-9e1459032739</t>
+          <t>411ba183-ea02-4992-a009-9d3266496d4c</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2026-02-09 09:39</t>
+          <t>2026-02-09 10:43</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>122711ae-aac5-45fd-80d6-0f71d1bd3172</t>
+          <t>549ee573-5503-4136-a12b-0947ca021ff6</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2026-02-09 09:39</t>
+          <t>2026-02-09 10:46</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>433e587b-22ed-404c-a07a-7681b0813503</t>
+          <t>cdb69783-f152-4d74-a7b4-0406d85bffa2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2026-02-09 09:40</t>
+          <t>2026-02-09 10:46</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>d52b0283-4e37-44ad-9c07-7c2faf108101</t>
+          <t>22966879-fa93-4af3-862b-c0840c39708c</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2026-02-09 09:40</t>
+          <t>2026-02-09 10:47</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0288ce0d-8ce1-41e2-9b60-4c1cc14348ff</t>
+          <t>d14f27ab-ac83-425b-8116-7df8077ab716</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2026-02-09 09:40</t>
+          <t>2026-02-09 10:47</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2a09384a-7416-4fec-acde-6ebd4c6dc768</t>
+          <t>d54e2f09-6473-4a8c-a43f-3f87de2a940d</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2026-02-09 09:40</t>
+          <t>2026-02-09 10:48</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>f266da94-4080-4387-8e50-318534cb4f62</t>
+          <t>d3b7a4ae-32ad-407c-8ccf-a9ffff4c1b2a</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2026-02-09 09:41</t>
+          <t>2026-02-09 10:48</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6462efea-6e74-454a-8063-502d60fb91c9</t>
+          <t>d3472351-9cea-42c4-b0b3-41a809825fb3</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2026-02-09 09:41</t>
+          <t>2026-02-09 10:53</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>cb968abb-b037-41fe-af09-af35fcf6ddc8</t>
+          <t>b7a7eea0-7cab-4e7a-8cc5-95d20baa02c9</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2026-02-09 09:46</t>
+          <t>2026-02-09 10:59</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>9e70ed9f-39f5-4b25-a6e3-43ce510d4929</t>
+          <t>2ec22502-6d3d-4482-9223-38ac8dde272d</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2026-02-09 09:49</t>
+          <t>2026-02-09 10:59</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>120775f5-4290-40d3-9670-943a3c62b2fe</t>
+          <t>0a41d08c-e09d-4a35-b151-556f3dff575a</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2026-02-09 09:51</t>
+          <t>2026-02-09 11:00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7f0736ad-8008-4ab9-8563-c1a0b06a8c8e</t>
+          <t>0a1eb5c7-8d9d-4cc5-9a36-78b97da7f993</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2026-02-09 09:51</t>
+          <t>2026-02-09 11:00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>83334e3a-eb09-4c90-b9d7-ab395a7bb54a</t>
+          <t>998db873-967a-4112-9f47-46ebbecdbe24</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2026-02-09 09:52</t>
+          <t>2026-02-09 11:01</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>179c8a2c-1dc4-4287-b3fa-c893bff590bd</t>
+          <t>2baf1d2e-7a14-46f1-900e-6ba704668dfe</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2026-02-09 09:53</t>
+          <t>2026-02-09 11:09</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>f0cb75cb-38ba-49b9-b693-deb10475e16e</t>
+          <t>729ad8ca-0e2b-42c3-8970-75b9931a3b0d</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1397,41 +1397,41 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2026-02-09 09:53</t>
+          <t>2026-02-09 11:33</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>31c24732-5402-4db6-98ae-d378b0628026</t>
+          <t>78a39a6a-028c-471a-be64-d6ee54bb2f0b</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2026-02-09 09:53</t>
+          <t>2026-02-09 11:34</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5ef9b82b-d7d1-4af7-82c1-168ab5db4b02</t>
+          <t>fc696024-b2d9-491b-a1ee-523c1c1e0c5f</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1441,19 +1441,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-02-09 09:53</t>
+          <t>2026-02-09 11:35</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>13e759b3-d964-467d-8777-450eb6a92844</t>
+          <t>6c20b89d-a01a-4d03-974d-ac22fda4ef41</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1463,19 +1463,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-02-09 09:53</t>
+          <t>2026-02-09 11:35</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0c65ecab-c047-4c0d-a6b8-e07ce0655848</t>
+          <t>aa801a91-d8f3-486c-9c86-772a9411baf0</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1485,19 +1485,19 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-02-09 09:54</t>
+          <t>2026-02-09 14:43</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5b7756c6-7a81-4de5-9e63-9d1e4b2bf070</t>
+          <t>3ae73ee0-e966-4e15-a690-e22a50a948e2</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1507,19 +1507,19 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-09 09:55</t>
+          <t>2026-02-09 14:44</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>b2210744-7e5a-4844-acd7-1df519c3edcb</t>
+          <t>c0d6619c-0f2a-4de3-998b-842d2382e3d5</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1529,19 +1529,19 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-02-09 10:02</t>
+          <t>2026-02-09 14:44</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3466b939-0b41-4c1b-81ed-98c54041e02b</t>
+          <t>eec2c5fa-7f68-4e3f-94a9-24d758c1ff45</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1551,19 +1551,19 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-02-09 10:02</t>
+          <t>2026-02-09 14:45</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>acd7ed9d-6d02-4cfe-a95c-d4fe6e840546</t>
+          <t>e04a3140-2a2c-4c24-a73d-5b7607aeb95e</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1573,19 +1573,19 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-09 10:03</t>
+          <t>2026-02-09 14:59</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>d1169e9e-cef5-4101-83a3-835c4153d92f</t>
+          <t>f22b7fc4-a7ee-45a5-8229-bb5e7bfdc5eb</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1595,19 +1595,19 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-09 10:03</t>
+          <t>2026-02-09 15:03</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>fe54fe81-c4b2-4f72-af08-96c519b37b22</t>
+          <t>5f805c6f-c0b1-40ce-a812-008c735bd0c4</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1617,19 +1617,19 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-09 10:03</t>
+          <t>2026-02-09 15:04</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>8b8ba1ea-5ad4-41b9-9ec7-4376c98e6ec8</t>
+          <t>057cafe5-d0be-4324-86b5-5d0344415ff9</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1639,19 +1639,19 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-02-09 10:03</t>
+          <t>2026-02-09 15:05</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>b042993c-5459-4d0a-a9e9-d87950ac5db5</t>
+          <t>d7c34358-70ac-4cbc-8a1d-e30b9b3c3c68</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1661,14 +1661,14 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-09 10:03</t>
+          <t>2026-02-09 15:09</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6efd4961-2382-47d0-9c36-d7acddd5ac6b</t>
+          <t>318ef43b-f807-40af-9c4f-5519421f9083</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1683,19 +1683,19 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-09 10:03</t>
+          <t>2026-02-09 15:09</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>c4b1012e-150c-4294-b2af-51ec725aec37</t>
+          <t>4e60263c-cd6b-4149-9546-7c1ef42ff45c</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1705,19 +1705,19 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-09 10:04</t>
+          <t>2026-02-09 15:13</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>b4640671-d0e1-4eb3-bf04-5fb2e4333636</t>
+          <t>3ff4fd44-3e62-4e3f-8f7d-bf7e364d88d1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1727,19 +1727,19 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-09 10:05</t>
+          <t>2026-02-09 15:13</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>34af0aed-f9d6-4c1f-a90c-b15bc5f42286</t>
+          <t>f569dfde-e3ef-4eff-b46a-5002f9ccaa15</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1749,19 +1749,19 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-09 10:05</t>
+          <t>2026-02-09 15:15</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>088555bb-0cfa-4d5a-8542-822544f64386</t>
+          <t>44c70899-0045-40ce-ab9e-2a74bcc940fc</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1771,19 +1771,19 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-09 10:05</t>
+          <t>2026-02-09 15:15</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>c587f6b5-8d59-49cf-ab89-cfd5a617cb13</t>
+          <t>27c0ebb6-d72f-459a-8df0-5fba48978589</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1793,19 +1793,19 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-09 10:06</t>
+          <t>2026-02-09 15:15</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>809ff47e-3e55-46d3-b3ee-522a9aab4d7b</t>
+          <t>723241ee-c56d-4328-a331-4fccae1b3ba9</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1815,19 +1815,19 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-09 10:08</t>
+          <t>2026-02-09 15:15</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>e82ed443-dcda-42c0-827f-884476157e5e</t>
+          <t>d9857272-74f1-45b9-a9f0-399842f872dd</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>PHO003</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1837,19 +1837,19 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-09 10:09</t>
+          <t>2026-02-09 15:15</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>9adb1af8-7d53-4494-8cf2-15356c9d0572</t>
+          <t>12b90d45-ef6c-406c-aa37-11c1da0ac2ca</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>cea5f628-8066-466c-8c8b-dc0d66e106f0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1859,19 +1859,19 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-09 10:20</t>
+          <t>2026-02-09 15:15</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6ff4076e-3054-4391-963b-61e93288b76a</t>
+          <t>5764a8db-065f-4d5a-84b1-1d741355fbdc</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>PHO003</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1881,19 +1881,19 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-09 10:20</t>
+          <t>2026-02-09 15:15</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0d08146d-1cbf-466b-8ca2-4256c147b24a</t>
+          <t>b27b3f21-e664-40d2-84de-1e1d62836ee1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1903,19 +1903,19 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-09 10:25</t>
+          <t>2026-02-09 15:18</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>5b596765-f37a-4402-819e-817caa761caa</t>
+          <t>e512f80a-f9fc-4528-b190-3bbdc534a871</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1925,212 +1925,212 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-02-09 10:26</t>
+          <t>2026-02-09 15:18</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>9255bb56-535f-40a5-8c01-25c22830e509</t>
+          <t>a97a19a6-bfc5-43ee-a965-7177466eb853</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-09 10:29</t>
+          <t>2026-02-09 15:19</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>35a815a1-5a16-4d60-b9a8-96896f7b2f44</t>
+          <t>6608f62c-2055-404e-bf7c-5be6a289060a</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-09 10:30</t>
+          <t>2026-02-09 15:20</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3e6b6050-a9f3-40a9-bb1b-c4a6552436f2</t>
+          <t>2c4949bc-a674-4490-a76b-0957ab4c2b3f</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-02-09 10:31</t>
+          <t>2026-02-09 15:22</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>c894ae2d-f342-433e-827e-7cfa24635a73</t>
+          <t>aad5b85f-0f92-4c26-bfac-9de1b0157f87</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-09 10:31</t>
+          <t>2026-02-09 15:22</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1c40fe5a-786a-48ed-810d-167293b760ca</t>
+          <t>ecdd7dbe-fcca-47e6-a1af-91a5ec6f1b16</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-09 10:31</t>
+          <t>2026-02-09 15:23</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>b2443aad-06b5-4922-9f93-91f1084428e9</t>
+          <t>f5e67905-4c72-46fc-b082-9355c3a254c3</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-02-09 10:32</t>
+          <t>2026-02-09 15:23</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>76a81ae7-ebec-469d-9413-9c465630eb2b</t>
+          <t>4ad686bd-f597-4dac-9984-6b57f7b370fc</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2026-02-09 10:33</t>
+          <t>2026-02-09 15:24</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>26235f49-38c1-4352-ba47-6d9d863b893b</t>
+          <t>53eaeb60-a2f7-48e7-96c3-f229fabdc900</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-02-09 10:33</t>
+          <t>2026-02-09 15:24</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>9600bea3-5cd8-4ffc-a2ca-c15e010bbda6</t>
+          <t>e488b3f7-6319-463d-872f-73cbfeaeb225</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-02-09 10:34</t>
+          <t>2026-02-09 15:24</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>52ea3ff6-c59a-483c-8369-aa04c03bc4a6</t>
+          <t>baec8258-9207-48d9-951d-28c160870f36</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2140,85 +2140,85 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-02-09 10:34</t>
+          <t>2026-02-09 15:24</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20e32f17-68e2-49ed-9dfc-2dbd851c5fec</t>
+          <t>5a33c75f-b594-4d1a-b4c1-fb21eaa7f356</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-02-09 10:37</t>
+          <t>2026-02-09 15:25</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>fa74d317-f2d1-48a6-88f6-63ba035638e9</t>
+          <t>641a2cb7-5ad5-436f-b4ab-c71bc55962a6</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2026-02-09 10:37</t>
+          <t>2026-02-09 15:25</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>34eddf2e-b72a-4a28-bf04-eed1f9b71880</t>
+          <t>e47677a2-1e0b-4cb2-901a-e42ffab3003c</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2026-02-09 10:38</t>
+          <t>2026-02-09 15:25</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>3b517a77-70ab-42e1-996a-12ed730be398</t>
+          <t>7b97b441-9b7a-4c4d-88a7-3667995733fe</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2228,19 +2228,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2026-02-09 10:42</t>
+          <t>2026-02-09 15:25</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>cb80d3da-d5c7-48ba-b128-f2063e3e0f50</t>
+          <t>3ca606b3-900f-4450-8ccf-7b063e0b4bf3</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2250,19 +2250,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2026-02-09 10:43</t>
+          <t>2026-02-09 15:25</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>411ba183-ea02-4992-a009-9d3266496d4c</t>
+          <t>a2e6feb3-395a-40da-ab73-2b2cdb3156b8</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2272,19 +2272,19 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2026-02-09 10:43</t>
+          <t>2026-02-09 15:26</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>549ee573-5503-4136-a12b-0947ca021ff6</t>
+          <t>9e7479f9-56f1-49bf-bd0d-3490bbf2eeca</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2294,19 +2294,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2026-02-09 10:46</t>
+          <t>2026-02-09 15:27</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>cdb69783-f152-4d74-a7b4-0406d85bffa2</t>
+          <t>5daafbdc-8f59-4cb7-9886-b2bf27938c7a</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2316,19 +2316,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2026-02-09 10:46</t>
+          <t>2026-02-09 15:27</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>22966879-fa93-4af3-862b-c0840c39708c</t>
+          <t>14c3ef5e-c798-4150-bda8-b209eb5b0684</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2338,19 +2338,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2026-02-09 10:47</t>
+          <t>2026-02-09 15:27</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>d14f27ab-ac83-425b-8116-7df8077ab716</t>
+          <t>45345851-5609-4ee7-b9f0-4d58734cc375</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2360,19 +2360,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2026-02-09 10:47</t>
+          <t>2026-02-09 15:28</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>d54e2f09-6473-4a8c-a43f-3f87de2a940d</t>
+          <t>efe30ba1-4d4a-406e-b336-327b1a9b5fc6</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2382,19 +2382,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2026-02-09 10:48</t>
+          <t>2026-02-09 15:28</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>d3b7a4ae-32ad-407c-8ccf-a9ffff4c1b2a</t>
+          <t>dbbb2660-85f4-4ee5-8d94-c93a9879912e</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2404,19 +2404,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2026-02-09 10:48</t>
+          <t>2026-02-09 15:28</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>d3472351-9cea-42c4-b0b3-41a809825fb3</t>
+          <t>4c777751-0bde-40bc-a45b-872ea9f145e0</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2426,41 +2426,41 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2026-02-09 10:53</t>
+          <t>2026-02-09 15:30</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>b7a7eea0-7cab-4e7a-8cc5-95d20baa02c9</t>
+          <t>38292f1d-59fa-4ac2-9bbd-dc77903654c6</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2026-02-09 10:59</t>
+          <t>2026-02-09 15:30</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2ec22502-6d3d-4482-9223-38ac8dde272d</t>
+          <t>6bd75c74-f775-4e0d-8609-f0a7477bac03</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2470,19 +2470,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2026-02-09 10:59</t>
+          <t>2026-02-09 15:33</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0a41d08c-e09d-4a35-b151-556f3dff575a</t>
+          <t>6568a80e-0130-431a-946c-da90cba1ae9f</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2492,41 +2492,41 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2026-02-09 11:00</t>
+          <t>2026-02-09 15:33</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0a1eb5c7-8d9d-4cc5-9a36-78b97da7f993</t>
+          <t>148e706e-a7d2-480c-9f7d-4f96335308b4</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2026-02-09 11:00</t>
+          <t>2026-02-09 15:34</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>998db873-967a-4112-9f47-46ebbecdbe24</t>
+          <t>2b0a3c89-94a8-4b94-b99e-3034e28b487f</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2536,19 +2536,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2026-02-09 11:01</t>
+          <t>2026-02-09 15:34</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2baf1d2e-7a14-46f1-900e-6ba704668dfe</t>
+          <t>b5844d1a-48c1-4178-bb20-2f6a0d0cbc12</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2558,19 +2558,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2026-02-09 11:09</t>
+          <t>2026-02-09 15:35</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>729ad8ca-0e2b-42c3-8970-75b9931a3b0d</t>
+          <t>0ae5b408-0162-4dd2-b4f1-8e65ac309a87</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2585,14 +2585,14 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2026-02-09 11:33</t>
+          <t>2026-02-09 15:35</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>78a39a6a-028c-471a-be64-d6ee54bb2f0b</t>
+          <t>fcab4260-4392-4234-8379-3d60680ac58f</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2602,19 +2602,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2026-02-09 11:34</t>
+          <t>2026-02-09 15:35</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>fc696024-b2d9-491b-a1ee-523c1c1e0c5f</t>
+          <t>30c77f76-80f4-4377-88f0-ed7db1557e07</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2629,14 +2629,14 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2026-02-09 11:35</t>
+          <t>2026-02-09 15:35</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>6c20b89d-a01a-4d03-974d-ac22fda4ef41</t>
+          <t>69c6fa23-37d8-4377-ba3e-ba0f175d9d59</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2026-02-09 11:35</t>
+          <t>2026-02-09 15:37</t>
         </is>
       </c>
     </row>

--- a/excel_templates/查看记录表.xlsx
+++ b/excel_templates/查看记录表.xlsx
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>b042993c-5459-4d0a-a9e9-d87950ac5db5</t>
+          <t>f569dfde-e3ef-4eff-b46a-5002f9ccaa15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -473,14 +473,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-02-09 10:03</t>
+          <t>2026-02-09 15:15</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6efd4961-2382-47d0-9c36-d7acddd5ac6b</t>
+          <t>44c70899-0045-40ce-ab9e-2a74bcc940fc</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -495,19 +495,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-02-09 10:03</t>
+          <t>2026-02-09 15:15</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>c4b1012e-150c-4294-b2af-51ec725aec37</t>
+          <t>27c0ebb6-d72f-459a-8df0-5fba48978589</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -517,19 +517,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-02-09 10:04</t>
+          <t>2026-02-09 15:15</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>b4640671-d0e1-4eb3-bf04-5fb2e4333636</t>
+          <t>723241ee-c56d-4328-a331-4fccae1b3ba9</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -539,19 +539,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-02-09 10:05</t>
+          <t>2026-02-09 15:15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>34af0aed-f9d6-4c1f-a90c-b15bc5f42286</t>
+          <t>d9857272-74f1-45b9-a9f0-399842f872dd</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>PHO003</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -561,19 +561,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-02-09 10:05</t>
+          <t>2026-02-09 15:15</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>088555bb-0cfa-4d5a-8542-822544f64386</t>
+          <t>12b90d45-ef6c-406c-aa37-11c1da0ac2ca</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>cea5f628-8066-466c-8c8b-dc0d66e106f0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -583,19 +583,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-02-09 10:05</t>
+          <t>2026-02-09 15:15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>c587f6b5-8d59-49cf-ab89-cfd5a617cb13</t>
+          <t>5764a8db-065f-4d5a-84b1-1d741355fbdc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>PHO003</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-02-09 10:06</t>
+          <t>2026-02-09 15:15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>809ff47e-3e55-46d3-b3ee-522a9aab4d7b</t>
+          <t>b27b3f21-e664-40d2-84de-1e1d62836ee1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -627,19 +627,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-02-09 10:08</t>
+          <t>2026-02-09 15:18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>e82ed443-dcda-42c0-827f-884476157e5e</t>
+          <t>e512f80a-f9fc-4528-b190-3bbdc534a871</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -649,14 +649,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-02-09 10:09</t>
+          <t>2026-02-09 15:18</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9adb1af8-7d53-4494-8cf2-15356c9d0572</t>
+          <t>a97a19a6-bfc5-43ee-a965-7177466eb853</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -671,19 +671,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-02-09 10:20</t>
+          <t>2026-02-09 15:19</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6ff4076e-3054-4391-963b-61e93288b76a</t>
+          <t>6608f62c-2055-404e-bf7c-5be6a289060a</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -693,19 +693,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-02-09 10:20</t>
+          <t>2026-02-09 15:20</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0d08146d-1cbf-466b-8ca2-4256c147b24a</t>
+          <t>2c4949bc-a674-4490-a76b-0957ab4c2b3f</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -715,19 +715,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-02-09 10:25</t>
+          <t>2026-02-09 15:22</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5b596765-f37a-4402-819e-817caa761caa</t>
+          <t>aad5b85f-0f92-4c26-bfac-9de1b0157f87</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -737,36 +737,36 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-02-09 10:26</t>
+          <t>2026-02-09 15:22</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>9255bb56-535f-40a5-8c01-25c22830e509</t>
+          <t>ecdd7dbe-fcca-47e6-a1af-91a5ec6f1b16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-02-09 10:29</t>
+          <t>2026-02-09 15:23</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>35a815a1-5a16-4d60-b9a8-96896f7b2f44</t>
+          <t>f5e67905-4c72-46fc-b082-9355c3a254c3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -776,19 +776,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-02-09 10:30</t>
+          <t>2026-02-09 15:23</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3e6b6050-a9f3-40a9-bb1b-c4a6552436f2</t>
+          <t>4ad686bd-f597-4dac-9984-6b57f7b370fc</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -798,19 +798,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2026-02-09 10:31</t>
+          <t>2026-02-09 15:24</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>c894ae2d-f342-433e-827e-7cfa24635a73</t>
+          <t>53eaeb60-a2f7-48e7-96c3-f229fabdc900</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -820,19 +820,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2026-02-09 10:31</t>
+          <t>2026-02-09 15:24</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1c40fe5a-786a-48ed-810d-167293b760ca</t>
+          <t>e488b3f7-6319-463d-872f-73cbfeaeb225</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -842,19 +842,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-02-09 10:31</t>
+          <t>2026-02-09 15:24</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>b2443aad-06b5-4922-9f93-91f1084428e9</t>
+          <t>baec8258-9207-48d9-951d-28c160870f36</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -864,63 +864,63 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2026-02-09 10:32</t>
+          <t>2026-02-09 15:24</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>76a81ae7-ebec-469d-9413-9c465630eb2b</t>
+          <t>5a33c75f-b594-4d1a-b4c1-fb21eaa7f356</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2026-02-09 10:33</t>
+          <t>2026-02-09 15:25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>26235f49-38c1-4352-ba47-6d9d863b893b</t>
+          <t>641a2cb7-5ad5-436f-b4ab-c71bc55962a6</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2026-02-09 10:33</t>
+          <t>2026-02-09 15:25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>9600bea3-5cd8-4ffc-a2ca-c15e010bbda6</t>
+          <t>e47677a2-1e0b-4cb2-901a-e42ffab3003c</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -930,19 +930,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2026-02-09 10:34</t>
+          <t>2026-02-09 15:25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>52ea3ff6-c59a-483c-8369-aa04c03bc4a6</t>
+          <t>7b97b441-9b7a-4c4d-88a7-3667995733fe</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -952,85 +952,85 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2026-02-09 10:34</t>
+          <t>2026-02-09 15:25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20e32f17-68e2-49ed-9dfc-2dbd851c5fec</t>
+          <t>3ca606b3-900f-4450-8ccf-7b063e0b4bf3</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2026-02-09 10:37</t>
+          <t>2026-02-09 15:25</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>fa74d317-f2d1-48a6-88f6-63ba035638e9</t>
+          <t>a2e6feb3-395a-40da-ab73-2b2cdb3156b8</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2026-02-09 10:37</t>
+          <t>2026-02-09 15:26</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>34eddf2e-b72a-4a28-bf04-eed1f9b71880</t>
+          <t>9e7479f9-56f1-49bf-bd0d-3490bbf2eeca</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2026-02-09 10:38</t>
+          <t>2026-02-09 15:27</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3b517a77-70ab-42e1-996a-12ed730be398</t>
+          <t>5daafbdc-8f59-4cb7-9886-b2bf27938c7a</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1040,19 +1040,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2026-02-09 10:42</t>
+          <t>2026-02-09 15:27</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>cb80d3da-d5c7-48ba-b128-f2063e3e0f50</t>
+          <t>14c3ef5e-c798-4150-bda8-b209eb5b0684</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1062,19 +1062,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2026-02-09 10:43</t>
+          <t>2026-02-09 15:27</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>411ba183-ea02-4992-a009-9d3266496d4c</t>
+          <t>45345851-5609-4ee7-b9f0-4d58734cc375</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1084,19 +1084,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2026-02-09 10:43</t>
+          <t>2026-02-09 15:28</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>549ee573-5503-4136-a12b-0947ca021ff6</t>
+          <t>efe30ba1-4d4a-406e-b336-327b1a9b5fc6</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1106,19 +1106,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2026-02-09 10:46</t>
+          <t>2026-02-09 15:28</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>cdb69783-f152-4d74-a7b4-0406d85bffa2</t>
+          <t>dbbb2660-85f4-4ee5-8d94-c93a9879912e</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1128,19 +1128,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2026-02-09 10:46</t>
+          <t>2026-02-09 15:28</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>22966879-fa93-4af3-862b-c0840c39708c</t>
+          <t>4c777751-0bde-40bc-a45b-872ea9f145e0</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2026-02-09 10:47</t>
+          <t>2026-02-09 15:30</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>d14f27ab-ac83-425b-8116-7df8077ab716</t>
+          <t>38292f1d-59fa-4ac2-9bbd-dc77903654c6</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1172,19 +1172,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2026-02-09 10:47</t>
+          <t>2026-02-09 15:30</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>d54e2f09-6473-4a8c-a43f-3f87de2a940d</t>
+          <t>6bd75c74-f775-4e0d-8609-f0a7477bac03</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1194,19 +1194,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2026-02-09 10:48</t>
+          <t>2026-02-09 15:33</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>d3b7a4ae-32ad-407c-8ccf-a9ffff4c1b2a</t>
+          <t>6568a80e-0130-431a-946c-da90cba1ae9f</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1216,19 +1216,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2026-02-09 10:48</t>
+          <t>2026-02-09 15:33</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>d3472351-9cea-42c4-b0b3-41a809825fb3</t>
+          <t>148e706e-a7d2-480c-9f7d-4f96335308b4</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1238,41 +1238,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2026-02-09 10:53</t>
+          <t>2026-02-09 15:34</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>b7a7eea0-7cab-4e7a-8cc5-95d20baa02c9</t>
+          <t>2b0a3c89-94a8-4b94-b99e-3034e28b487f</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2026-02-09 10:59</t>
+          <t>2026-02-09 15:34</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2ec22502-6d3d-4482-9223-38ac8dde272d</t>
+          <t>b5844d1a-48c1-4178-bb20-2f6a0d0cbc12</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1282,19 +1282,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2026-02-09 10:59</t>
+          <t>2026-02-09 15:35</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0a41d08c-e09d-4a35-b151-556f3dff575a</t>
+          <t>0ae5b408-0162-4dd2-b4f1-8e65ac309a87</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1304,41 +1304,41 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2026-02-09 11:00</t>
+          <t>2026-02-09 15:35</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0a1eb5c7-8d9d-4cc5-9a36-78b97da7f993</t>
+          <t>fcab4260-4392-4234-8379-3d60680ac58f</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2026-02-09 11:00</t>
+          <t>2026-02-09 15:35</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>998db873-967a-4112-9f47-46ebbecdbe24</t>
+          <t>30c77f76-80f4-4377-88f0-ed7db1557e07</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1348,19 +1348,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2026-02-09 11:01</t>
+          <t>2026-02-09 15:35</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2baf1d2e-7a14-46f1-900e-6ba704668dfe</t>
+          <t>69c6fa23-37d8-4377-ba3e-ba0f175d9d59</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1370,19 +1370,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2026-02-09 11:09</t>
+          <t>2026-02-09 15:37</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>729ad8ca-0e2b-42c3-8970-75b9931a3b0d</t>
+          <t>7cb199bc-9a26-4314-97a8-b4bdb38c5778</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1392,24 +1392,24 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2026-02-09 11:33</t>
+          <t>2026-02-09 21:06</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>78a39a6a-028c-471a-be64-d6ee54bb2f0b</t>
+          <t>ee3d8e5d-0ada-4ca6-a6da-0ee71f3f1631</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1419,58 +1419,58 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2026-02-09 11:34</t>
+          <t>2026-02-09 21:06</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>fc696024-b2d9-491b-a1ee-523c1c1e0c5f</t>
+          <t>91319deb-ea34-4e80-a591-30bd20d40603</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-02-09 11:35</t>
+          <t>2026-02-09 21:07</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6c20b89d-a01a-4d03-974d-ac22fda4ef41</t>
+          <t>2b86f7d7-35a0-4152-9522-9800310f8df3</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-02-09 11:35</t>
+          <t>2026-02-09 21:08</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>aa801a91-d8f3-486c-9c86-772a9411baf0</t>
+          <t>efbcc911-01e0-4543-96d2-71bbf52cb9fe</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1480,19 +1480,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-02-09 14:43</t>
+          <t>2026-02-09 21:08</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3ae73ee0-e966-4e15-a690-e22a50a948e2</t>
+          <t>bc77ccaf-e304-43e6-9041-c11805d232f3</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1502,19 +1502,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-09 14:44</t>
+          <t>2026-02-09 21:14</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>c0d6619c-0f2a-4de3-998b-842d2382e3d5</t>
+          <t>374b0695-d7ad-4bc1-8b42-fed226b5ffc1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1524,217 +1524,217 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-02-09 14:44</t>
+          <t>2026-02-09 21:14</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>eec2c5fa-7f68-4e3f-94a9-24d758c1ff45</t>
+          <t>7b2185a9-32fc-45a3-88ab-2fa2d0a25c2b</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-02-09 14:45</t>
+          <t>2026-02-09 21:14</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>e04a3140-2a2c-4c24-a73d-5b7607aeb95e</t>
+          <t>257f2f14-b3c7-40ec-aef3-10767d2aa2a8</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-09 14:59</t>
+          <t>2026-02-09 21:14</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>f22b7fc4-a7ee-45a5-8229-bb5e7bfdc5eb</t>
+          <t>77972ff7-069a-475d-93f5-866354f61daf</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-09 15:03</t>
+          <t>2026-02-09 21:14</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5f805c6f-c0b1-40ce-a812-008c735bd0c4</t>
+          <t>7adcd91f-bd47-45df-aa97-b803ffc56e7d</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>cea5f628-8066-466c-8c8b-dc0d66e106f0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-09 15:04</t>
+          <t>2026-02-09 21:14</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>057cafe5-d0be-4324-86b5-5d0344415ff9</t>
+          <t>d29f7137-b102-44a9-9f6a-f88dd67d13dd</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PHO002</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-02-09 15:05</t>
+          <t>2026-02-09 21:14</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>d7c34358-70ac-4cbc-8a1d-e30b9b3c3c68</t>
+          <t>73ea5c12-f695-4ce5-9e51-e911978af7d8</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-09 15:09</t>
+          <t>2026-02-09 22:07</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>318ef43b-f807-40af-9c4f-5519421f9083</t>
+          <t>300d20b5-ae66-4958-9d4f-998bcf36f96d</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-09 15:09</t>
+          <t>2026-02-09 22:07</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>4e60263c-cd6b-4149-9546-7c1ef42ff45c</t>
+          <t>980431e0-fa65-4522-9a45-7d6aa91afaa3</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-09 15:13</t>
+          <t>2026-02-09 22:07</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3ff4fd44-3e62-4e3f-8f7d-bf7e364d88d1</t>
+          <t>a23aa804-631a-4171-8b0e-c3c5f6438bdb</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-09 15:13</t>
+          <t>2026-02-09 22:07</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>f569dfde-e3ef-4eff-b46a-5002f9ccaa15</t>
+          <t>6cb1ac89-4ab3-4085-adec-a142f6ef7e1f</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1744,151 +1744,151 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-09 15:15</t>
+          <t>2026-02-09 22:07</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>44c70899-0045-40ce-ab9e-2a74bcc940fc</t>
+          <t>5028ffb7-ab8a-4c51-8268-e946a49211a8</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-09 15:15</t>
+          <t>2026-02-09 22:08</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>27c0ebb6-d72f-459a-8df0-5fba48978589</t>
+          <t>e79bfe00-42ad-4435-b681-0f3d4a87ae53</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-09 15:15</t>
+          <t>2026-02-09 22:08</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>723241ee-c56d-4328-a331-4fccae1b3ba9</t>
+          <t>17d57931-ce50-4c3d-8f58-9e2e96dcd94f</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-09 15:15</t>
+          <t>2026-02-09 22:10</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>d9857272-74f1-45b9-a9f0-399842f872dd</t>
+          <t>f6dbb23f-f033-4479-bb80-f0f5aadec027</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PHO003</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-09 15:15</t>
+          <t>2026-02-09 22:11</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>12b90d45-ef6c-406c-aa37-11c1da0ac2ca</t>
+          <t>ed193c87-1d47-4232-9f0f-6618417cca5c</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>cea5f628-8066-466c-8c8b-dc0d66e106f0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-09 15:15</t>
+          <t>2026-02-09 22:11</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>5764a8db-065f-4d5a-84b1-1d741355fbdc</t>
+          <t>f5562c9d-d7a1-4be7-99b9-dc7676ac18c6</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PHO003</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-09 15:15</t>
+          <t>2026-02-09 22:11</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>b27b3f21-e664-40d2-84de-1e1d62836ee1</t>
+          <t>3d9a3f48-0506-4601-897c-b33337b395a9</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1898,19 +1898,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-09 15:18</t>
+          <t>2026-02-09 22:11</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>e512f80a-f9fc-4528-b190-3bbdc534a871</t>
+          <t>bc89d55b-7898-467f-b731-6f0a397bda42</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1920,85 +1920,85 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-02-09 15:18</t>
+          <t>2026-02-09 22:11</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>a97a19a6-bfc5-43ee-a965-7177466eb853</t>
+          <t>350219ca-6cda-4155-840c-4021d282480c</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-09 15:19</t>
+          <t>2026-02-09 22:11</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6608f62c-2055-404e-bf7c-5be6a289060a</t>
+          <t>3bcf3f84-bc33-4e47-bf27-6dfc1e6bda46</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-09 15:20</t>
+          <t>2026-02-09 22:11</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2c4949bc-a674-4490-a76b-0957ab4c2b3f</t>
+          <t>e4905670-2588-4929-89d4-4aaba793fbe7</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-02-09 15:22</t>
+          <t>2026-02-09 22:16</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>aad5b85f-0f92-4c26-bfac-9de1b0157f87</t>
+          <t>38d347e7-b05c-4ac5-a8d9-6342d59ad0d4</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2008,19 +2008,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-09 15:22</t>
+          <t>2026-02-09 22:16</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ecdd7dbe-fcca-47e6-a1af-91a5ec6f1b16</t>
+          <t>521d01eb-57c4-4ffe-acc7-c4da653e35df</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2030,107 +2030,107 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-09 15:23</t>
+          <t>2026-02-09 22:17</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>f5e67905-4c72-46fc-b082-9355c3a254c3</t>
+          <t>f0ab4c97-0275-48bc-8d6f-25375ca07ce2</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-02-09 15:23</t>
+          <t>2026-02-09 22:17</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>4ad686bd-f597-4dac-9984-6b57f7b370fc</t>
+          <t>3a943fba-a8e1-48d6-9e2b-a2cb66bfc892</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2026-02-09 15:24</t>
+          <t>2026-02-09 22:17</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>53eaeb60-a2f7-48e7-96c3-f229fabdc900</t>
+          <t>4401c5e8-f432-48bb-863e-4c2c65ef8917</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-02-09 15:24</t>
+          <t>2026-02-09 22:17</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>e488b3f7-6319-463d-872f-73cbfeaeb225</t>
+          <t>efc2cf46-388c-488d-86c2-c8157f576205</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-02-09 15:24</t>
+          <t>2026-02-09 22:19</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>baec8258-9207-48d9-951d-28c160870f36</t>
+          <t>3125d4e7-d69c-4fb6-a063-6077eb50ca4b</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2140,19 +2140,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-02-09 15:24</t>
+          <t>2026-02-09 22:19</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>5a33c75f-b594-4d1a-b4c1-fb21eaa7f356</t>
+          <t>3b2f911e-e83a-4c5c-a55b-128990bdbf07</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2162,19 +2162,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-02-09 15:25</t>
+          <t>2026-02-09 22:19</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>641a2cb7-5ad5-436f-b4ab-c71bc55962a6</t>
+          <t>6da62569-030b-467a-b2b8-d1652ca3a6fb</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2184,474 +2184,474 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2026-02-09 15:25</t>
+          <t>2026-02-09 22:19</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>e47677a2-1e0b-4cb2-901a-e42ffab3003c</t>
+          <t>061dfa10-7121-4201-b35d-c8ca5eabc00e</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2026-02-09 15:25</t>
+          <t>2026-02-09 22:19</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7b97b441-9b7a-4c4d-88a7-3667995733fe</t>
+          <t>82e145f7-fef0-4682-8f17-b5c14772f8e9</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2026-02-09 15:25</t>
+          <t>2026-02-09 22:19</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>3ca606b3-900f-4450-8ccf-7b063e0b4bf3</t>
+          <t>bc35fcc0-098e-4e8b-aa28-f43d2c9ebce0</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2026-02-09 15:25</t>
+          <t>2026-02-09 22:19</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>a2e6feb3-395a-40da-ab73-2b2cdb3156b8</t>
+          <t>86c3625d-918d-446a-9fb9-53d27f0356f3</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2026-02-09 15:26</t>
+          <t>2026-02-09 22:19</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>9e7479f9-56f1-49bf-bd0d-3490bbf2eeca</t>
+          <t>f964f6fa-5d1e-4abe-8418-b2beca047f6b</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2026-02-09 15:27</t>
+          <t>2026-02-09 22:19</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>5daafbdc-8f59-4cb7-9886-b2bf27938c7a</t>
+          <t>524f55ed-c8c7-4ab2-aeb0-5f46a928629c</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2026-02-09 15:27</t>
+          <t>2026-02-09 22:20</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>14c3ef5e-c798-4150-bda8-b209eb5b0684</t>
+          <t>8defd775-4962-4d6f-95f1-06e15c6f8d52</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2026-02-09 15:27</t>
+          <t>2026-02-09 22:23</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>45345851-5609-4ee7-b9f0-4d58734cc375</t>
+          <t>33d1f9ad-d6cb-4b5f-a316-8b91c005e40f</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2026-02-09 15:28</t>
+          <t>2026-02-09 22:25</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>efe30ba1-4d4a-406e-b336-327b1a9b5fc6</t>
+          <t>34f92f7b-c8bb-453e-85fa-ecdde729ab05</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2026-02-09 15:28</t>
+          <t>2026-02-09 22:25</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>dbbb2660-85f4-4ee5-8d94-c93a9879912e</t>
+          <t>c11fa366-aa1e-4461-a1a5-7bc22317e984</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2026-02-09 15:28</t>
+          <t>2026-02-09 22:27</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>4c777751-0bde-40bc-a45b-872ea9f145e0</t>
+          <t>78e2b157-5981-45bc-8d5b-266e92df5d4b</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2026-02-09 15:30</t>
+          <t>2026-02-09 22:29</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>38292f1d-59fa-4ac2-9bbd-dc77903654c6</t>
+          <t>3e0eabef-82c1-4b9b-87c3-fa5c497fd305</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2026-02-09 15:30</t>
+          <t>2026-02-09 22:29</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>6bd75c74-f775-4e0d-8609-f0a7477bac03</t>
+          <t>3d426207-ca5e-48b2-8287-405f57e9f77d</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2026-02-09 15:33</t>
+          <t>2026-02-09 22:30</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>6568a80e-0130-431a-946c-da90cba1ae9f</t>
+          <t>c1fbe3ac-cd73-4e16-8946-a3e5ebdeb523</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2026-02-09 15:33</t>
+          <t>2026-02-09 22:30</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>148e706e-a7d2-480c-9f7d-4f96335308b4</t>
+          <t>075a5557-366f-48a1-a9dd-d40c52c713d5</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2026-02-09 15:34</t>
+          <t>2026-02-09 22:32</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2b0a3c89-94a8-4b94-b99e-3034e28b487f</t>
+          <t>f48bd763-b22a-4a62-b928-af1aa47930d4</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2026-02-09 15:34</t>
+          <t>2026-02-09 22:32</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>b5844d1a-48c1-4178-bb20-2f6a0d0cbc12</t>
+          <t>36848f07-ac94-4118-87e5-6e267e698c20</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2026-02-09 15:35</t>
+          <t>2026-02-09 22:38</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0ae5b408-0162-4dd2-b4f1-8e65ac309a87</t>
+          <t>00c57809-63e9-4f86-9aa8-af916f52c414</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2026-02-09 15:35</t>
+          <t>2026-02-09 22:38</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>fcab4260-4392-4234-8379-3d60680ac58f</t>
+          <t>405b7b42-47b7-4751-a90b-4c6cb2e88b2c</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2026-02-09 15:35</t>
+          <t>2026-02-09 22:39</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>30c77f76-80f4-4377-88f0-ed7db1557e07</t>
+          <t>8b6561ed-fc5b-4552-9c8a-e13bc0cecd78</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2026-02-09 15:35</t>
+          <t>2026-02-09 22:43</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>69c6fa23-37d8-4377-ba3e-ba0f175d9d59</t>
+          <t>51dd795f-8a05-4b49-b5f1-9b85dd840ec6</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2026-02-09 15:37</t>
+          <t>2026-02-09 22:43</t>
         </is>
       </c>
     </row>

--- a/excel_templates/查看记录表.xlsx
+++ b/excel_templates/查看记录表.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>f569dfde-e3ef-4eff-b46a-5002f9ccaa15</t>
+          <t>44c70899-0045-40ce-ab9e-2a74bcc940fc</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>44c70899-0045-40ce-ab9e-2a74bcc940fc</t>
+          <t>27c0ebb6-d72f-459a-8df0-5fba48978589</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -502,12 +502,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>27c0ebb6-d72f-459a-8df0-5fba48978589</t>
+          <t>723241ee-c56d-4328-a331-4fccae1b3ba9</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -524,12 +524,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>723241ee-c56d-4328-a331-4fccae1b3ba9</t>
+          <t>d9857272-74f1-45b9-a9f0-399842f872dd</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>PHO003</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -546,12 +546,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>d9857272-74f1-45b9-a9f0-399842f872dd</t>
+          <t>12b90d45-ef6c-406c-aa37-11c1da0ac2ca</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHO003</t>
+          <t>cea5f628-8066-466c-8c8b-dc0d66e106f0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -568,12 +568,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12b90d45-ef6c-406c-aa37-11c1da0ac2ca</t>
+          <t>5764a8db-065f-4d5a-84b1-1d741355fbdc</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cea5f628-8066-466c-8c8b-dc0d66e106f0</t>
+          <t>PHO003</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -590,12 +590,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5764a8db-065f-4d5a-84b1-1d741355fbdc</t>
+          <t>b27b3f21-e664-40d2-84de-1e1d62836ee1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHO003</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-02-09 15:15</t>
+          <t>2026-02-09 15:18</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>b27b3f21-e664-40d2-84de-1e1d62836ee1</t>
+          <t>e512f80a-f9fc-4528-b190-3bbdc534a871</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -634,7 +634,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>e512f80a-f9fc-4528-b190-3bbdc534a871</t>
+          <t>a97a19a6-bfc5-43ee-a965-7177466eb853</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -649,14 +649,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-02-09 15:18</t>
+          <t>2026-02-09 15:19</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>a97a19a6-bfc5-43ee-a965-7177466eb853</t>
+          <t>6608f62c-2055-404e-bf7c-5be6a289060a</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -671,14 +671,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-02-09 15:19</t>
+          <t>2026-02-09 15:20</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6608f62c-2055-404e-bf7c-5be6a289060a</t>
+          <t>2c4949bc-a674-4490-a76b-0957ab4c2b3f</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -693,14 +693,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-02-09 15:20</t>
+          <t>2026-02-09 15:22</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2c4949bc-a674-4490-a76b-0957ab4c2b3f</t>
+          <t>aad5b85f-0f92-4c26-bfac-9de1b0157f87</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -722,7 +722,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>aad5b85f-0f92-4c26-bfac-9de1b0157f87</t>
+          <t>ecdd7dbe-fcca-47e6-a1af-91a5ec6f1b16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -737,19 +737,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-02-09 15:22</t>
+          <t>2026-02-09 15:23</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ecdd7dbe-fcca-47e6-a1af-91a5ec6f1b16</t>
+          <t>f5e67905-4c72-46fc-b082-9355c3a254c3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -766,7 +766,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>f5e67905-4c72-46fc-b082-9355c3a254c3</t>
+          <t>4ad686bd-f597-4dac-9984-6b57f7b370fc</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -781,14 +781,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-02-09 15:23</t>
+          <t>2026-02-09 15:24</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4ad686bd-f597-4dac-9984-6b57f7b370fc</t>
+          <t>53eaeb60-a2f7-48e7-96c3-f229fabdc900</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>53eaeb60-a2f7-48e7-96c3-f229fabdc900</t>
+          <t>e488b3f7-6319-463d-872f-73cbfeaeb225</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -832,12 +832,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>e488b3f7-6319-463d-872f-73cbfeaeb225</t>
+          <t>baec8258-9207-48d9-951d-28c160870f36</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -854,7 +854,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>baec8258-9207-48d9-951d-28c160870f36</t>
+          <t>5a33c75f-b594-4d1a-b4c1-fb21eaa7f356</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -869,14 +869,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2026-02-09 15:24</t>
+          <t>2026-02-09 15:25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5a33c75f-b594-4d1a-b4c1-fb21eaa7f356</t>
+          <t>641a2cb7-5ad5-436f-b4ab-c71bc55962a6</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -898,7 +898,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>641a2cb7-5ad5-436f-b4ab-c71bc55962a6</t>
+          <t>e47677a2-1e0b-4cb2-901a-e42ffab3003c</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>e47677a2-1e0b-4cb2-901a-e42ffab3003c</t>
+          <t>7b97b441-9b7a-4c4d-88a7-3667995733fe</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -942,7 +942,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7b97b441-9b7a-4c4d-88a7-3667995733fe</t>
+          <t>3ca606b3-900f-4450-8ccf-7b063e0b4bf3</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3ca606b3-900f-4450-8ccf-7b063e0b4bf3</t>
+          <t>a2e6feb3-395a-40da-ab73-2b2cdb3156b8</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -979,14 +979,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2026-02-09 15:25</t>
+          <t>2026-02-09 15:26</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>a2e6feb3-395a-40da-ab73-2b2cdb3156b8</t>
+          <t>9e7479f9-56f1-49bf-bd0d-3490bbf2eeca</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1001,14 +1001,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2026-02-09 15:26</t>
+          <t>2026-02-09 15:27</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>9e7479f9-56f1-49bf-bd0d-3490bbf2eeca</t>
+          <t>5daafbdc-8f59-4cb7-9886-b2bf27938c7a</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1030,7 +1030,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5daafbdc-8f59-4cb7-9886-b2bf27938c7a</t>
+          <t>14c3ef5e-c798-4150-bda8-b209eb5b0684</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1052,7 +1052,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>14c3ef5e-c798-4150-bda8-b209eb5b0684</t>
+          <t>45345851-5609-4ee7-b9f0-4d58734cc375</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1067,14 +1067,14 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2026-02-09 15:27</t>
+          <t>2026-02-09 15:28</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>45345851-5609-4ee7-b9f0-4d58734cc375</t>
+          <t>efe30ba1-4d4a-406e-b336-327b1a9b5fc6</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>efe30ba1-4d4a-406e-b336-327b1a9b5fc6</t>
+          <t>dbbb2660-85f4-4ee5-8d94-c93a9879912e</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1118,7 +1118,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>dbbb2660-85f4-4ee5-8d94-c93a9879912e</t>
+          <t>4c777751-0bde-40bc-a45b-872ea9f145e0</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2026-02-09 15:28</t>
+          <t>2026-02-09 15:30</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4c777751-0bde-40bc-a45b-872ea9f145e0</t>
+          <t>38292f1d-59fa-4ac2-9bbd-dc77903654c6</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>38292f1d-59fa-4ac2-9bbd-dc77903654c6</t>
+          <t>6bd75c74-f775-4e0d-8609-f0a7477bac03</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1177,14 +1177,14 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2026-02-09 15:30</t>
+          <t>2026-02-09 15:33</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6bd75c74-f775-4e0d-8609-f0a7477bac03</t>
+          <t>6568a80e-0130-431a-946c-da90cba1ae9f</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1206,7 +1206,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6568a80e-0130-431a-946c-da90cba1ae9f</t>
+          <t>148e706e-a7d2-480c-9f7d-4f96335308b4</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1221,14 +1221,14 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2026-02-09 15:33</t>
+          <t>2026-02-09 15:34</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>148e706e-a7d2-480c-9f7d-4f96335308b4</t>
+          <t>2b0a3c89-94a8-4b94-b99e-3034e28b487f</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1250,7 +1250,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2b0a3c89-94a8-4b94-b99e-3034e28b487f</t>
+          <t>b5844d1a-48c1-4178-bb20-2f6a0d0cbc12</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1265,14 +1265,14 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2026-02-09 15:34</t>
+          <t>2026-02-09 15:35</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>b5844d1a-48c1-4178-bb20-2f6a0d0cbc12</t>
+          <t>0ae5b408-0162-4dd2-b4f1-8e65ac309a87</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1294,7 +1294,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0ae5b408-0162-4dd2-b4f1-8e65ac309a87</t>
+          <t>fcab4260-4392-4234-8379-3d60680ac58f</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1316,7 +1316,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>fcab4260-4392-4234-8379-3d60680ac58f</t>
+          <t>30c77f76-80f4-4377-88f0-ed7db1557e07</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1338,7 +1338,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>30c77f76-80f4-4377-88f0-ed7db1557e07</t>
+          <t>69c6fa23-37d8-4377-ba3e-ba0f175d9d59</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1353,14 +1353,14 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2026-02-09 15:35</t>
+          <t>2026-02-09 15:37</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>69c6fa23-37d8-4377-ba3e-ba0f175d9d59</t>
+          <t>7cb199bc-9a26-4314-97a8-b4bdb38c5778</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1370,24 +1370,24 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2026-02-09 15:37</t>
+          <t>2026-02-09 21:06</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7cb199bc-9a26-4314-97a8-b4bdb38c5778</t>
+          <t>ee3d8e5d-0ada-4ca6-a6da-0ee71f3f1631</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ee3d8e5d-0ada-4ca6-a6da-0ee71f3f1631</t>
+          <t>91319deb-ea34-4e80-a591-30bd20d40603</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1419,14 +1419,14 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2026-02-09 21:06</t>
+          <t>2026-02-09 21:07</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>91319deb-ea34-4e80-a591-30bd20d40603</t>
+          <t>2b86f7d7-35a0-4152-9522-9800310f8df3</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1441,19 +1441,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-02-09 21:07</t>
+          <t>2026-02-09 21:08</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2b86f7d7-35a0-4152-9522-9800310f8df3</t>
+          <t>efbcc911-01e0-4543-96d2-71bbf52cb9fe</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1470,7 +1470,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>efbcc911-01e0-4543-96d2-71bbf52cb9fe</t>
+          <t>bc77ccaf-e304-43e6-9041-c11805d232f3</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1485,14 +1485,14 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-02-09 21:08</t>
+          <t>2026-02-09 21:14</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>bc77ccaf-e304-43e6-9041-c11805d232f3</t>
+          <t>374b0695-d7ad-4bc1-8b42-fed226b5ffc1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1514,12 +1514,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>374b0695-d7ad-4bc1-8b42-fed226b5ffc1</t>
+          <t>7b2185a9-32fc-45a3-88ab-2fa2d0a25c2b</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1536,12 +1536,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>7b2185a9-32fc-45a3-88ab-2fa2d0a25c2b</t>
+          <t>257f2f14-b3c7-40ec-aef3-10767d2aa2a8</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1558,7 +1558,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>257f2f14-b3c7-40ec-aef3-10767d2aa2a8</t>
+          <t>77972ff7-069a-475d-93f5-866354f61daf</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1580,12 +1580,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>77972ff7-069a-475d-93f5-866354f61daf</t>
+          <t>7adcd91f-bd47-45df-aa97-b803ffc56e7d</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>cea5f628-8066-466c-8c8b-dc0d66e106f0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1602,12 +1602,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>7adcd91f-bd47-45df-aa97-b803ffc56e7d</t>
+          <t>d29f7137-b102-44a9-9f6a-f88dd67d13dd</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>cea5f628-8066-466c-8c8b-dc0d66e106f0</t>
+          <t>PHO002</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1624,12 +1624,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>d29f7137-b102-44a9-9f6a-f88dd67d13dd</t>
+          <t>73ea5c12-f695-4ce5-9e51-e911978af7d8</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PHO002</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1639,19 +1639,19 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-02-09 21:14</t>
+          <t>2026-02-09 22:07</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>73ea5c12-f695-4ce5-9e51-e911978af7d8</t>
+          <t>300d20b5-ae66-4958-9d4f-998bcf36f96d</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1668,12 +1668,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>300d20b5-ae66-4958-9d4f-998bcf36f96d</t>
+          <t>980431e0-fa65-4522-9a45-7d6aa91afaa3</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1690,12 +1690,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>980431e0-fa65-4522-9a45-7d6aa91afaa3</t>
+          <t>a23aa804-631a-4171-8b0e-c3c5f6438bdb</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1712,12 +1712,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>a23aa804-631a-4171-8b0e-c3c5f6438bdb</t>
+          <t>6cb1ac89-4ab3-4085-adec-a142f6ef7e1f</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1734,12 +1734,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6cb1ac89-4ab3-4085-adec-a142f6ef7e1f</t>
+          <t>5028ffb7-ab8a-4c51-8268-e946a49211a8</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1749,19 +1749,19 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-09 22:07</t>
+          <t>2026-02-09 22:08</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5028ffb7-ab8a-4c51-8268-e946a49211a8</t>
+          <t>e79bfe00-42ad-4435-b681-0f3d4a87ae53</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1778,12 +1778,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>e79bfe00-42ad-4435-b681-0f3d4a87ae53</t>
+          <t>17d57931-ce50-4c3d-8f58-9e2e96dcd94f</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1793,14 +1793,14 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-09 22:08</t>
+          <t>2026-02-09 22:10</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>17d57931-ce50-4c3d-8f58-9e2e96dcd94f</t>
+          <t>f6dbb23f-f033-4479-bb80-f0f5aadec027</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1815,14 +1815,14 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-09 22:10</t>
+          <t>2026-02-09 22:11</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>f6dbb23f-f033-4479-bb80-f0f5aadec027</t>
+          <t>ed193c87-1d47-4232-9f0f-6618417cca5c</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1844,7 +1844,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ed193c87-1d47-4232-9f0f-6618417cca5c</t>
+          <t>f5562c9d-d7a1-4be7-99b9-dc7676ac18c6</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1866,7 +1866,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>f5562c9d-d7a1-4be7-99b9-dc7676ac18c6</t>
+          <t>3d9a3f48-0506-4601-897c-b33337b395a9</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3d9a3f48-0506-4601-897c-b33337b395a9</t>
+          <t>bc89d55b-7898-467f-b731-6f0a397bda42</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1910,12 +1910,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>bc89d55b-7898-467f-b731-6f0a397bda42</t>
+          <t>350219ca-6cda-4155-840c-4021d282480c</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1932,12 +1932,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>350219ca-6cda-4155-840c-4021d282480c</t>
+          <t>3bcf3f84-bc33-4e47-bf27-6dfc1e6bda46</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1954,7 +1954,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3bcf3f84-bc33-4e47-bf27-6dfc1e6bda46</t>
+          <t>e4905670-2588-4929-89d4-4aaba793fbe7</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1969,19 +1969,19 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-09 22:11</t>
+          <t>2026-02-09 22:16</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>e4905670-2588-4929-89d4-4aaba793fbe7</t>
+          <t>38d347e7-b05c-4ac5-a8d9-6342d59ad0d4</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1998,7 +1998,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>38d347e7-b05c-4ac5-a8d9-6342d59ad0d4</t>
+          <t>521d01eb-57c4-4ffe-acc7-c4da653e35df</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2013,14 +2013,14 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-09 22:16</t>
+          <t>2026-02-09 22:17</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>521d01eb-57c4-4ffe-acc7-c4da653e35df</t>
+          <t>f0ab4c97-0275-48bc-8d6f-25375ca07ce2</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2042,7 +2042,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>f0ab4c97-0275-48bc-8d6f-25375ca07ce2</t>
+          <t>3a943fba-a8e1-48d6-9e2b-a2cb66bfc892</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2064,7 +2064,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3a943fba-a8e1-48d6-9e2b-a2cb66bfc892</t>
+          <t>4401c5e8-f432-48bb-863e-4c2c65ef8917</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2086,7 +2086,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>4401c5e8-f432-48bb-863e-4c2c65ef8917</t>
+          <t>efc2cf46-388c-488d-86c2-c8157f576205</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2101,14 +2101,14 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-02-09 22:17</t>
+          <t>2026-02-09 22:19</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>efc2cf46-388c-488d-86c2-c8157f576205</t>
+          <t>3125d4e7-d69c-4fb6-a063-6077eb50ca4b</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3125d4e7-d69c-4fb6-a063-6077eb50ca4b</t>
+          <t>3b2f911e-e83a-4c5c-a55b-128990bdbf07</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2152,7 +2152,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3b2f911e-e83a-4c5c-a55b-128990bdbf07</t>
+          <t>6da62569-030b-467a-b2b8-d1652ca3a6fb</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2174,12 +2174,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6da62569-030b-467a-b2b8-d1652ca3a6fb</t>
+          <t>061dfa10-7121-4201-b35d-c8ca5eabc00e</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2196,12 +2196,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>061dfa10-7121-4201-b35d-c8ca5eabc00e</t>
+          <t>82e145f7-fef0-4682-8f17-b5c14772f8e9</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2218,12 +2218,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>82e145f7-fef0-4682-8f17-b5c14772f8e9</t>
+          <t>bc35fcc0-098e-4e8b-aa28-f43d2c9ebce0</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2240,12 +2240,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>bc35fcc0-098e-4e8b-aa28-f43d2c9ebce0</t>
+          <t>86c3625d-918d-446a-9fb9-53d27f0356f3</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2262,12 +2262,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>86c3625d-918d-446a-9fb9-53d27f0356f3</t>
+          <t>f964f6fa-5d1e-4abe-8418-b2beca047f6b</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2284,12 +2284,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>f964f6fa-5d1e-4abe-8418-b2beca047f6b</t>
+          <t>524f55ed-c8c7-4ab2-aeb0-5f46a928629c</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2299,14 +2299,14 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2026-02-09 22:19</t>
+          <t>2026-02-09 22:20</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>524f55ed-c8c7-4ab2-aeb0-5f46a928629c</t>
+          <t>8defd775-4962-4d6f-95f1-06e15c6f8d52</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2321,14 +2321,14 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2026-02-09 22:20</t>
+          <t>2026-02-09 22:23</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>8defd775-4962-4d6f-95f1-06e15c6f8d52</t>
+          <t>33d1f9ad-d6cb-4b5f-a316-8b91c005e40f</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2343,14 +2343,14 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2026-02-09 22:23</t>
+          <t>2026-02-09 22:25</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>33d1f9ad-d6cb-4b5f-a316-8b91c005e40f</t>
+          <t>34f92f7b-c8bb-453e-85fa-ecdde729ab05</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>34f92f7b-c8bb-453e-85fa-ecdde729ab05</t>
+          <t>c11fa366-aa1e-4461-a1a5-7bc22317e984</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2387,14 +2387,14 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2026-02-09 22:25</t>
+          <t>2026-02-09 22:27</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>c11fa366-aa1e-4461-a1a5-7bc22317e984</t>
+          <t>78e2b157-5981-45bc-8d5b-266e92df5d4b</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2409,14 +2409,14 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2026-02-09 22:27</t>
+          <t>2026-02-09 22:29</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>78e2b157-5981-45bc-8d5b-266e92df5d4b</t>
+          <t>3e0eabef-82c1-4b9b-87c3-fa5c497fd305</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2438,7 +2438,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3e0eabef-82c1-4b9b-87c3-fa5c497fd305</t>
+          <t>3d426207-ca5e-48b2-8287-405f57e9f77d</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2453,14 +2453,14 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2026-02-09 22:29</t>
+          <t>2026-02-09 22:30</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>3d426207-ca5e-48b2-8287-405f57e9f77d</t>
+          <t>c1fbe3ac-cd73-4e16-8946-a3e5ebdeb523</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2482,7 +2482,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>c1fbe3ac-cd73-4e16-8946-a3e5ebdeb523</t>
+          <t>075a5557-366f-48a1-a9dd-d40c52c713d5</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2497,14 +2497,14 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2026-02-09 22:30</t>
+          <t>2026-02-09 22:32</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>075a5557-366f-48a1-a9dd-d40c52c713d5</t>
+          <t>f48bd763-b22a-4a62-b928-af1aa47930d4</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2526,12 +2526,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>f48bd763-b22a-4a62-b928-af1aa47930d4</t>
+          <t>36848f07-ac94-4118-87e5-6e267e698c20</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2541,14 +2541,14 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2026-02-09 22:32</t>
+          <t>2026-02-09 22:38</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>36848f07-ac94-4118-87e5-6e267e698c20</t>
+          <t>00c57809-63e9-4f86-9aa8-af916f52c414</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2570,7 +2570,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>00c57809-63e9-4f86-9aa8-af916f52c414</t>
+          <t>405b7b42-47b7-4751-a90b-4c6cb2e88b2c</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2585,14 +2585,14 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2026-02-09 22:38</t>
+          <t>2026-02-09 22:39</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>405b7b42-47b7-4751-a90b-4c6cb2e88b2c</t>
+          <t>8b6561ed-fc5b-4552-9c8a-e13bc0cecd78</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2607,14 +2607,14 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2026-02-09 22:39</t>
+          <t>2026-02-09 22:43</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>8b6561ed-fc5b-4552-9c8a-e13bc0cecd78</t>
+          <t>51dd795f-8a05-4b49-b5f1-9b85dd840ec6</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2636,7 +2636,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>51dd795f-8a05-4b49-b5f1-9b85dd840ec6</t>
+          <t>c87a9cb3-3327-471c-93c7-fe28e75f10ef</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2026-02-09 22:43</t>
+          <t>2026-02-09 22:49</t>
         </is>
       </c>
     </row>

--- a/excel_templates/查看记录表.xlsx
+++ b/excel_templates/查看记录表.xlsx
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>44c70899-0045-40ce-ab9e-2a74bcc940fc</t>
+          <t>12b90d45-ef6c-406c-aa37-11c1da0ac2ca</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>cea5f628-8066-466c-8c8b-dc0d66e106f0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>27c0ebb6-d72f-459a-8df0-5fba48978589</t>
+          <t>5764a8db-065f-4d5a-84b1-1d741355fbdc</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>PHO003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -502,12 +502,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>723241ee-c56d-4328-a331-4fccae1b3ba9</t>
+          <t>b27b3f21-e664-40d2-84de-1e1d62836ee1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -517,19 +517,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-02-09 15:15</t>
+          <t>2026-02-09 15:18</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>d9857272-74f1-45b9-a9f0-399842f872dd</t>
+          <t>e512f80a-f9fc-4528-b190-3bbdc534a871</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHO003</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -539,19 +539,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-02-09 15:15</t>
+          <t>2026-02-09 15:18</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12b90d45-ef6c-406c-aa37-11c1da0ac2ca</t>
+          <t>a97a19a6-bfc5-43ee-a965-7177466eb853</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cea5f628-8066-466c-8c8b-dc0d66e106f0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -561,19 +561,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-02-09 15:15</t>
+          <t>2026-02-09 15:19</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5764a8db-065f-4d5a-84b1-1d741355fbdc</t>
+          <t>6608f62c-2055-404e-bf7c-5be6a289060a</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHO003</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -583,14 +583,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-02-09 15:15</t>
+          <t>2026-02-09 15:20</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>b27b3f21-e664-40d2-84de-1e1d62836ee1</t>
+          <t>2c4949bc-a674-4490-a76b-0957ab4c2b3f</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-02-09 15:18</t>
+          <t>2026-02-09 15:22</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>e512f80a-f9fc-4528-b190-3bbdc534a871</t>
+          <t>aad5b85f-0f92-4c26-bfac-9de1b0157f87</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -627,14 +627,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-02-09 15:18</t>
+          <t>2026-02-09 15:22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>a97a19a6-bfc5-43ee-a965-7177466eb853</t>
+          <t>ecdd7dbe-fcca-47e6-a1af-91a5ec6f1b16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -649,19 +649,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-02-09 15:19</t>
+          <t>2026-02-09 15:23</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6608f62c-2055-404e-bf7c-5be6a289060a</t>
+          <t>f5e67905-4c72-46fc-b082-9355c3a254c3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -671,19 +671,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-02-09 15:20</t>
+          <t>2026-02-09 15:23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2c4949bc-a674-4490-a76b-0957ab4c2b3f</t>
+          <t>4ad686bd-f597-4dac-9984-6b57f7b370fc</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -693,19 +693,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-02-09 15:22</t>
+          <t>2026-02-09 15:24</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>aad5b85f-0f92-4c26-bfac-9de1b0157f87</t>
+          <t>53eaeb60-a2f7-48e7-96c3-f229fabdc900</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -715,19 +715,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-02-09 15:22</t>
+          <t>2026-02-09 15:24</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ecdd7dbe-fcca-47e6-a1af-91a5ec6f1b16</t>
+          <t>e488b3f7-6319-463d-872f-73cbfeaeb225</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -737,19 +737,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-02-09 15:23</t>
+          <t>2026-02-09 15:24</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>f5e67905-4c72-46fc-b082-9355c3a254c3</t>
+          <t>baec8258-9207-48d9-951d-28c160870f36</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -759,19 +759,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-02-09 15:23</t>
+          <t>2026-02-09 15:24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4ad686bd-f597-4dac-9984-6b57f7b370fc</t>
+          <t>5a33c75f-b594-4d1a-b4c1-fb21eaa7f356</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -781,19 +781,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-02-09 15:24</t>
+          <t>2026-02-09 15:25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>53eaeb60-a2f7-48e7-96c3-f229fabdc900</t>
+          <t>641a2cb7-5ad5-436f-b4ab-c71bc55962a6</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -803,19 +803,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2026-02-09 15:24</t>
+          <t>2026-02-09 15:25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>e488b3f7-6319-463d-872f-73cbfeaeb225</t>
+          <t>e47677a2-1e0b-4cb2-901a-e42ffab3003c</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -825,14 +825,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2026-02-09 15:24</t>
+          <t>2026-02-09 15:25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>baec8258-9207-48d9-951d-28c160870f36</t>
+          <t>7b97b441-9b7a-4c4d-88a7-3667995733fe</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -847,14 +847,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-02-09 15:24</t>
+          <t>2026-02-09 15:25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5a33c75f-b594-4d1a-b4c1-fb21eaa7f356</t>
+          <t>3ca606b3-900f-4450-8ccf-7b063e0b4bf3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -876,7 +876,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>641a2cb7-5ad5-436f-b4ab-c71bc55962a6</t>
+          <t>a2e6feb3-395a-40da-ab73-2b2cdb3156b8</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -891,14 +891,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2026-02-09 15:25</t>
+          <t>2026-02-09 15:26</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>e47677a2-1e0b-4cb2-901a-e42ffab3003c</t>
+          <t>9e7479f9-56f1-49bf-bd0d-3490bbf2eeca</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -913,14 +913,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2026-02-09 15:25</t>
+          <t>2026-02-09 15:27</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7b97b441-9b7a-4c4d-88a7-3667995733fe</t>
+          <t>5daafbdc-8f59-4cb7-9886-b2bf27938c7a</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -935,14 +935,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2026-02-09 15:25</t>
+          <t>2026-02-09 15:27</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3ca606b3-900f-4450-8ccf-7b063e0b4bf3</t>
+          <t>14c3ef5e-c798-4150-bda8-b209eb5b0684</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -957,14 +957,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2026-02-09 15:25</t>
+          <t>2026-02-09 15:27</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>a2e6feb3-395a-40da-ab73-2b2cdb3156b8</t>
+          <t>45345851-5609-4ee7-b9f0-4d58734cc375</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -979,14 +979,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2026-02-09 15:26</t>
+          <t>2026-02-09 15:28</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>9e7479f9-56f1-49bf-bd0d-3490bbf2eeca</t>
+          <t>efe30ba1-4d4a-406e-b336-327b1a9b5fc6</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1001,14 +1001,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2026-02-09 15:27</t>
+          <t>2026-02-09 15:28</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5daafbdc-8f59-4cb7-9886-b2bf27938c7a</t>
+          <t>dbbb2660-85f4-4ee5-8d94-c93a9879912e</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1023,14 +1023,14 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2026-02-09 15:27</t>
+          <t>2026-02-09 15:28</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>14c3ef5e-c798-4150-bda8-b209eb5b0684</t>
+          <t>4c777751-0bde-40bc-a45b-872ea9f145e0</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1045,14 +1045,14 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2026-02-09 15:27</t>
+          <t>2026-02-09 15:30</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>45345851-5609-4ee7-b9f0-4d58734cc375</t>
+          <t>38292f1d-59fa-4ac2-9bbd-dc77903654c6</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1067,14 +1067,14 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2026-02-09 15:28</t>
+          <t>2026-02-09 15:30</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>efe30ba1-4d4a-406e-b336-327b1a9b5fc6</t>
+          <t>6bd75c74-f775-4e0d-8609-f0a7477bac03</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1089,14 +1089,14 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2026-02-09 15:28</t>
+          <t>2026-02-09 15:33</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>dbbb2660-85f4-4ee5-8d94-c93a9879912e</t>
+          <t>6568a80e-0130-431a-946c-da90cba1ae9f</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1111,14 +1111,14 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2026-02-09 15:28</t>
+          <t>2026-02-09 15:33</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4c777751-0bde-40bc-a45b-872ea9f145e0</t>
+          <t>148e706e-a7d2-480c-9f7d-4f96335308b4</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2026-02-09 15:30</t>
+          <t>2026-02-09 15:34</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>38292f1d-59fa-4ac2-9bbd-dc77903654c6</t>
+          <t>2b0a3c89-94a8-4b94-b99e-3034e28b487f</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1155,14 +1155,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2026-02-09 15:30</t>
+          <t>2026-02-09 15:34</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6bd75c74-f775-4e0d-8609-f0a7477bac03</t>
+          <t>b5844d1a-48c1-4178-bb20-2f6a0d0cbc12</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1177,14 +1177,14 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2026-02-09 15:33</t>
+          <t>2026-02-09 15:35</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6568a80e-0130-431a-946c-da90cba1ae9f</t>
+          <t>0ae5b408-0162-4dd2-b4f1-8e65ac309a87</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2026-02-09 15:33</t>
+          <t>2026-02-09 15:35</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>148e706e-a7d2-480c-9f7d-4f96335308b4</t>
+          <t>fcab4260-4392-4234-8379-3d60680ac58f</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1221,14 +1221,14 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2026-02-09 15:34</t>
+          <t>2026-02-09 15:35</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2b0a3c89-94a8-4b94-b99e-3034e28b487f</t>
+          <t>30c77f76-80f4-4377-88f0-ed7db1557e07</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1243,14 +1243,14 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2026-02-09 15:34</t>
+          <t>2026-02-09 15:35</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>b5844d1a-48c1-4178-bb20-2f6a0d0cbc12</t>
+          <t>69c6fa23-37d8-4377-ba3e-ba0f175d9d59</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1265,14 +1265,14 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2026-02-09 15:35</t>
+          <t>2026-02-09 15:37</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0ae5b408-0162-4dd2-b4f1-8e65ac309a87</t>
+          <t>7cb199bc-9a26-4314-97a8-b4bdb38c5778</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1282,85 +1282,85 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2026-02-09 15:35</t>
+          <t>2026-02-09 21:06</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>fcab4260-4392-4234-8379-3d60680ac58f</t>
+          <t>ee3d8e5d-0ada-4ca6-a6da-0ee71f3f1631</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2026-02-09 15:35</t>
+          <t>2026-02-09 21:06</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30c77f76-80f4-4377-88f0-ed7db1557e07</t>
+          <t>91319deb-ea34-4e80-a591-30bd20d40603</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2026-02-09 15:35</t>
+          <t>2026-02-09 21:07</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>69c6fa23-37d8-4377-ba3e-ba0f175d9d59</t>
+          <t>2b86f7d7-35a0-4152-9522-9800310f8df3</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2026-02-09 15:37</t>
+          <t>2026-02-09 21:08</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>7cb199bc-9a26-4314-97a8-b4bdb38c5778</t>
+          <t>efbcc911-01e0-4543-96d2-71bbf52cb9fe</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1375,19 +1375,19 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2026-02-09 21:06</t>
+          <t>2026-02-09 21:08</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ee3d8e5d-0ada-4ca6-a6da-0ee71f3f1631</t>
+          <t>bc77ccaf-e304-43e6-9041-c11805d232f3</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1397,19 +1397,19 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2026-02-09 21:06</t>
+          <t>2026-02-09 21:14</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>91319deb-ea34-4e80-a591-30bd20d40603</t>
+          <t>374b0695-d7ad-4bc1-8b42-fed226b5ffc1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1419,14 +1419,14 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2026-02-09 21:07</t>
+          <t>2026-02-09 21:14</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2b86f7d7-35a0-4152-9522-9800310f8df3</t>
+          <t>7b2185a9-32fc-45a3-88ab-2fa2d0a25c2b</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1441,19 +1441,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-02-09 21:08</t>
+          <t>2026-02-09 21:14</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>efbcc911-01e0-4543-96d2-71bbf52cb9fe</t>
+          <t>257f2f14-b3c7-40ec-aef3-10767d2aa2a8</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1463,19 +1463,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-02-09 21:08</t>
+          <t>2026-02-09 21:14</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>bc77ccaf-e304-43e6-9041-c11805d232f3</t>
+          <t>77972ff7-069a-475d-93f5-866354f61daf</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1492,12 +1492,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>374b0695-d7ad-4bc1-8b42-fed226b5ffc1</t>
+          <t>7adcd91f-bd47-45df-aa97-b803ffc56e7d</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>cea5f628-8066-466c-8c8b-dc0d66e106f0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1514,12 +1514,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>7b2185a9-32fc-45a3-88ab-2fa2d0a25c2b</t>
+          <t>d29f7137-b102-44a9-9f6a-f88dd67d13dd</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>PHO002</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1536,12 +1536,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>257f2f14-b3c7-40ec-aef3-10767d2aa2a8</t>
+          <t>73ea5c12-f695-4ce5-9e51-e911978af7d8</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1551,14 +1551,14 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-02-09 21:14</t>
+          <t>2026-02-09 22:07</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>77972ff7-069a-475d-93f5-866354f61daf</t>
+          <t>300d20b5-ae66-4958-9d4f-998bcf36f96d</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1573,19 +1573,19 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-09 21:14</t>
+          <t>2026-02-09 22:07</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>7adcd91f-bd47-45df-aa97-b803ffc56e7d</t>
+          <t>980431e0-fa65-4522-9a45-7d6aa91afaa3</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>cea5f628-8066-466c-8c8b-dc0d66e106f0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1595,19 +1595,19 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-09 21:14</t>
+          <t>2026-02-09 22:07</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>d29f7137-b102-44a9-9f6a-f88dd67d13dd</t>
+          <t>a23aa804-631a-4171-8b0e-c3c5f6438bdb</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PHO002</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1617,19 +1617,19 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-09 21:14</t>
+          <t>2026-02-09 22:07</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>73ea5c12-f695-4ce5-9e51-e911978af7d8</t>
+          <t>6cb1ac89-4ab3-4085-adec-a142f6ef7e1f</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1646,12 +1646,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>300d20b5-ae66-4958-9d4f-998bcf36f96d</t>
+          <t>5028ffb7-ab8a-4c51-8268-e946a49211a8</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-09 22:07</t>
+          <t>2026-02-09 22:08</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>980431e0-fa65-4522-9a45-7d6aa91afaa3</t>
+          <t>e79bfe00-42ad-4435-b681-0f3d4a87ae53</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1683,19 +1683,19 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-09 22:07</t>
+          <t>2026-02-09 22:08</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>a23aa804-631a-4171-8b0e-c3c5f6438bdb</t>
+          <t>17d57931-ce50-4c3d-8f58-9e2e96dcd94f</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1705,14 +1705,14 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-09 22:07</t>
+          <t>2026-02-09 22:10</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6cb1ac89-4ab3-4085-adec-a142f6ef7e1f</t>
+          <t>f6dbb23f-f033-4479-bb80-f0f5aadec027</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1727,19 +1727,19 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-09 22:07</t>
+          <t>2026-02-09 22:11</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>5028ffb7-ab8a-4c51-8268-e946a49211a8</t>
+          <t>ed193c87-1d47-4232-9f0f-6618417cca5c</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1749,19 +1749,19 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-09 22:08</t>
+          <t>2026-02-09 22:11</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>e79bfe00-42ad-4435-b681-0f3d4a87ae53</t>
+          <t>f5562c9d-d7a1-4be7-99b9-dc7676ac18c6</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1771,14 +1771,14 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-09 22:08</t>
+          <t>2026-02-09 22:11</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>17d57931-ce50-4c3d-8f58-9e2e96dcd94f</t>
+          <t>3d9a3f48-0506-4601-897c-b33337b395a9</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1793,14 +1793,14 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-09 22:10</t>
+          <t>2026-02-09 22:11</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>f6dbb23f-f033-4479-bb80-f0f5aadec027</t>
+          <t>bc89d55b-7898-467f-b731-6f0a397bda42</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1822,12 +1822,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ed193c87-1d47-4232-9f0f-6618417cca5c</t>
+          <t>350219ca-6cda-4155-840c-4021d282480c</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1844,12 +1844,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>f5562c9d-d7a1-4be7-99b9-dc7676ac18c6</t>
+          <t>3bcf3f84-bc33-4e47-bf27-6dfc1e6bda46</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1866,12 +1866,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3d9a3f48-0506-4601-897c-b33337b395a9</t>
+          <t>e4905670-2588-4929-89d4-4aaba793fbe7</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1881,14 +1881,14 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-09 22:11</t>
+          <t>2026-02-09 22:16</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>bc89d55b-7898-467f-b731-6f0a397bda42</t>
+          <t>38d347e7-b05c-4ac5-a8d9-6342d59ad0d4</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1903,19 +1903,19 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-09 22:11</t>
+          <t>2026-02-09 22:16</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>350219ca-6cda-4155-840c-4021d282480c</t>
+          <t>521d01eb-57c4-4ffe-acc7-c4da653e35df</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1925,19 +1925,19 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-02-09 22:11</t>
+          <t>2026-02-09 22:17</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3bcf3f84-bc33-4e47-bf27-6dfc1e6bda46</t>
+          <t>f0ab4c97-0275-48bc-8d6f-25375ca07ce2</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1947,19 +1947,19 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-09 22:11</t>
+          <t>2026-02-09 22:17</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>e4905670-2588-4929-89d4-4aaba793fbe7</t>
+          <t>3a943fba-a8e1-48d6-9e2b-a2cb66bfc892</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1969,14 +1969,14 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-09 22:16</t>
+          <t>2026-02-09 22:17</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>38d347e7-b05c-4ac5-a8d9-6342d59ad0d4</t>
+          <t>4401c5e8-f432-48bb-863e-4c2c65ef8917</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1991,14 +1991,14 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-02-09 22:16</t>
+          <t>2026-02-09 22:17</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>521d01eb-57c4-4ffe-acc7-c4da653e35df</t>
+          <t>efc2cf46-388c-488d-86c2-c8157f576205</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2013,14 +2013,14 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-09 22:17</t>
+          <t>2026-02-09 22:19</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>f0ab4c97-0275-48bc-8d6f-25375ca07ce2</t>
+          <t>3125d4e7-d69c-4fb6-a063-6077eb50ca4b</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2035,14 +2035,14 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-09 22:17</t>
+          <t>2026-02-09 22:19</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3a943fba-a8e1-48d6-9e2b-a2cb66bfc892</t>
+          <t>3b2f911e-e83a-4c5c-a55b-128990bdbf07</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2057,14 +2057,14 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-02-09 22:17</t>
+          <t>2026-02-09 22:19</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>4401c5e8-f432-48bb-863e-4c2c65ef8917</t>
+          <t>6da62569-030b-467a-b2b8-d1652ca3a6fb</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2079,19 +2079,19 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2026-02-09 22:17</t>
+          <t>2026-02-09 22:19</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>efc2cf46-388c-488d-86c2-c8157f576205</t>
+          <t>061dfa10-7121-4201-b35d-c8ca5eabc00e</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2108,12 +2108,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3125d4e7-d69c-4fb6-a063-6077eb50ca4b</t>
+          <t>82e145f7-fef0-4682-8f17-b5c14772f8e9</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2130,12 +2130,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3b2f911e-e83a-4c5c-a55b-128990bdbf07</t>
+          <t>bc35fcc0-098e-4e8b-aa28-f43d2c9ebce0</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2152,12 +2152,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6da62569-030b-467a-b2b8-d1652ca3a6fb</t>
+          <t>86c3625d-918d-446a-9fb9-53d27f0356f3</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2174,12 +2174,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>061dfa10-7121-4201-b35d-c8ca5eabc00e</t>
+          <t>f964f6fa-5d1e-4abe-8418-b2beca047f6b</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2196,12 +2196,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>82e145f7-fef0-4682-8f17-b5c14772f8e9</t>
+          <t>524f55ed-c8c7-4ab2-aeb0-5f46a928629c</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2211,19 +2211,19 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2026-02-09 22:19</t>
+          <t>2026-02-09 22:20</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>bc35fcc0-098e-4e8b-aa28-f43d2c9ebce0</t>
+          <t>8defd775-4962-4d6f-95f1-06e15c6f8d52</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2233,14 +2233,14 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2026-02-09 22:19</t>
+          <t>2026-02-09 22:23</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>86c3625d-918d-446a-9fb9-53d27f0356f3</t>
+          <t>33d1f9ad-d6cb-4b5f-a316-8b91c005e40f</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2255,19 +2255,19 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2026-02-09 22:19</t>
+          <t>2026-02-09 22:25</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>f964f6fa-5d1e-4abe-8418-b2beca047f6b</t>
+          <t>34f92f7b-c8bb-453e-85fa-ecdde729ab05</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2277,14 +2277,14 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2026-02-09 22:19</t>
+          <t>2026-02-09 22:25</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>524f55ed-c8c7-4ab2-aeb0-5f46a928629c</t>
+          <t>c11fa366-aa1e-4461-a1a5-7bc22317e984</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2299,14 +2299,14 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2026-02-09 22:20</t>
+          <t>2026-02-09 22:27</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>8defd775-4962-4d6f-95f1-06e15c6f8d52</t>
+          <t>78e2b157-5981-45bc-8d5b-266e92df5d4b</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2321,14 +2321,14 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2026-02-09 22:23</t>
+          <t>2026-02-09 22:29</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>33d1f9ad-d6cb-4b5f-a316-8b91c005e40f</t>
+          <t>3e0eabef-82c1-4b9b-87c3-fa5c497fd305</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2343,14 +2343,14 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2026-02-09 22:25</t>
+          <t>2026-02-09 22:29</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>34f92f7b-c8bb-453e-85fa-ecdde729ab05</t>
+          <t>3d426207-ca5e-48b2-8287-405f57e9f77d</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2365,14 +2365,14 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2026-02-09 22:25</t>
+          <t>2026-02-09 22:30</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>c11fa366-aa1e-4461-a1a5-7bc22317e984</t>
+          <t>c1fbe3ac-cd73-4e16-8946-a3e5ebdeb523</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2387,14 +2387,14 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2026-02-09 22:27</t>
+          <t>2026-02-09 22:30</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>78e2b157-5981-45bc-8d5b-266e92df5d4b</t>
+          <t>075a5557-366f-48a1-a9dd-d40c52c713d5</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2409,14 +2409,14 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2026-02-09 22:29</t>
+          <t>2026-02-09 22:32</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>3e0eabef-82c1-4b9b-87c3-fa5c497fd305</t>
+          <t>f48bd763-b22a-4a62-b928-af1aa47930d4</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2431,19 +2431,19 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2026-02-09 22:29</t>
+          <t>2026-02-09 22:32</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3d426207-ca5e-48b2-8287-405f57e9f77d</t>
+          <t>36848f07-ac94-4118-87e5-6e267e698c20</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2453,19 +2453,19 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2026-02-09 22:30</t>
+          <t>2026-02-09 22:38</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>c1fbe3ac-cd73-4e16-8946-a3e5ebdeb523</t>
+          <t>00c57809-63e9-4f86-9aa8-af916f52c414</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2475,19 +2475,19 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2026-02-09 22:30</t>
+          <t>2026-02-09 22:38</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>075a5557-366f-48a1-a9dd-d40c52c713d5</t>
+          <t>405b7b42-47b7-4751-a90b-4c6cb2e88b2c</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2497,19 +2497,19 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2026-02-09 22:32</t>
+          <t>2026-02-09 22:39</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>f48bd763-b22a-4a62-b928-af1aa47930d4</t>
+          <t>8b6561ed-fc5b-4552-9c8a-e13bc0cecd78</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2519,14 +2519,14 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2026-02-09 22:32</t>
+          <t>2026-02-09 22:43</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>36848f07-ac94-4118-87e5-6e267e698c20</t>
+          <t>51dd795f-8a05-4b49-b5f1-9b85dd840ec6</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2541,14 +2541,14 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2026-02-09 22:38</t>
+          <t>2026-02-09 22:43</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>00c57809-63e9-4f86-9aa8-af916f52c414</t>
+          <t>c87a9cb3-3327-471c-93c7-fe28e75f10ef</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2563,19 +2563,19 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2026-02-09 22:38</t>
+          <t>2026-02-09 22:49</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>405b7b42-47b7-4751-a90b-4c6cb2e88b2c</t>
+          <t>27d54230-549f-4382-91bf-cc720ed1ba1f</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2585,19 +2585,19 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2026-02-09 22:39</t>
+          <t>2026-02-09 22:50</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>8b6561ed-fc5b-4552-9c8a-e13bc0cecd78</t>
+          <t>943d23ff-1baf-4be9-afd1-a8694575f74b</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2607,19 +2607,19 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2026-02-09 22:43</t>
+          <t>2026-02-09 22:50</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>51dd795f-8a05-4b49-b5f1-9b85dd840ec6</t>
+          <t>25290df9-5b2e-4347-b6f4-1b1ac64eb4cc</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2629,19 +2629,19 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2026-02-09 22:43</t>
+          <t>2026-02-09 22:52</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>c87a9cb3-3327-471c-93c7-fe28e75f10ef</t>
+          <t>4e5bc59b-4dfe-4fae-a90c-3860b616acbf</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2026-02-09 22:49</t>
+          <t>2026-02-09 22:53</t>
         </is>
       </c>
     </row>

--- a/excel_templates/查看记录表.xlsx
+++ b/excel_templates/查看记录表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,10 +446,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>设备类型</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>查看人</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>查看时间</t>
         </is>
@@ -458,51 +463,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12b90d45-ef6c-406c-aa37-11c1da0ac2ca</t>
+          <t>5b9f7ab3-9c19-40fb-a50e-9c81738e9101</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>cea5f628-8066-466c-8c8b-dc0d66e106f0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-02-09 15:15</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:36</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5764a8db-065f-4d5a-84b1-1d741355fbdc</t>
+          <t>04150bd2-0006-4993-b05d-ef41aec0b7b9</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHO003</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-02-09 15:15</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:37</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>b27b3f21-e664-40d2-84de-1e1d62836ee1</t>
+          <t>65965e9f-e603-4d59-b0a7-2dc5baccad7c</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -512,19 +527,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-02-09 15:18</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:41</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>e512f80a-f9fc-4528-b190-3bbdc534a871</t>
+          <t>830f9c38-ea2f-49ec-b378-87249a22c016</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -534,19 +554,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-02-09 15:18</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:41</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>a97a19a6-bfc5-43ee-a965-7177466eb853</t>
+          <t>d19db97a-234b-42c8-a9ea-76e8956c3417</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -556,19 +581,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>手机卡</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-02-09 15:19</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:41</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6608f62c-2055-404e-bf7c-5be6a289060a</t>
+          <t>f4671d83-a1b4-4f8b-9b9c-7df09ccc2dac</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -578,63 +608,78 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>其它设备</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-02-09 15:20</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2c4949bc-a674-4490-a76b-0957ab4c2b3f</t>
+          <t>f86f1896-f718-458f-abfc-49511c12c22b</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>TEG-243</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-02-09 15:22</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:41</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>aad5b85f-0f92-4c26-bfac-9de1b0157f87</t>
+          <t>17db9488-5226-4283-8abb-17a1c83b118a</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>TEG-243</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-02-09 15:22</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:41</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ecdd7dbe-fcca-47e6-a1af-91a5ec6f1b16</t>
+          <t>c06b05e6-443c-4e0a-8b02-dfb3c9561c40</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -644,107 +689,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-02-09 15:23</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:46</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>f5e67905-4c72-46fc-b082-9355c3a254c3</t>
+          <t>7b59846a-c88b-485e-bf55-f7d0ef55c3df</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>手机卡</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-02-09 15:23</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:46</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4ad686bd-f597-4dac-9984-6b57f7b370fc</t>
+          <t>a0a6baf8-8618-410f-9095-edef56a3a0dd</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>其它设备</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-02-09 15:24</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:46</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>53eaeb60-a2f7-48e7-96c3-f229fabdc900</t>
+          <t>079453ab-cd40-4b56-b491-90453afa35de</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-02-09 15:24</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:47</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>e488b3f7-6319-463d-872f-73cbfeaeb225</t>
+          <t>7a846487-dcc4-491a-9835-cccd09ec395a</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-02-09 15:24</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:49</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>baec8258-9207-48d9-951d-28c160870f36</t>
+          <t>929533fd-97aa-4190-a14a-e1c8f727a1d8</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -754,19 +824,24 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-02-09 15:24</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:50</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5a33c75f-b594-4d1a-b4c1-fb21eaa7f356</t>
+          <t>279bc8ff-fef5-410a-881e-7be1d8bc4516</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -776,19 +851,24 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-02-09 15:25</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:51</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>641a2cb7-5ad5-436f-b4ab-c71bc55962a6</t>
+          <t>268404e1-a3aa-4f92-9077-ffba9b1b415b</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -798,459 +878,564 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2026-02-09 15:25</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:51</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>e47677a2-1e0b-4cb2-901a-e42ffab3003c</t>
+          <t>a52a20e3-435e-4a54-b9d1-afd5482e7172</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qwqe1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2026-02-09 15:25</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:54</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7b97b441-9b7a-4c4d-88a7-3667995733fe</t>
+          <t>28329a26-e739-45c2-afaf-c2d1505483a6</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qwqe1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-02-09 15:25</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:54</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3ca606b3-900f-4450-8ccf-7b063e0b4bf3</t>
+          <t>bc95abf4-77c7-4182-adc3-e467905dc903</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>ybb01</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>手机卡</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2026-02-09 15:25</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:54</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>a2e6feb3-395a-40da-ab73-2b2cdb3156b8</t>
+          <t>7a8270ca-68e9-4b31-b5d0-4806038333e7</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>ybb01</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>手机卡</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2026-02-09 15:26</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:54</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9e7479f9-56f1-49bf-bd0d-3490bbf2eeca</t>
+          <t>09d4bcbf-1b93-49fe-860c-19cfe93b7abc</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qt01</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>其它设备</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2026-02-09 15:27</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:55</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5daafbdc-8f59-4cb7-9886-b2bf27938c7a</t>
+          <t>9bf77a45-513c-498e-a68a-ff4d3061a79c</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qt01</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>其它设备</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2026-02-09 15:27</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:55</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>14c3ef5e-c798-4150-bda8-b209eb5b0684</t>
+          <t>570d1829-351d-4d8a-8161-59914b49bf0c</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qwqe1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2026-02-09 15:27</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:56</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>45345851-5609-4ee7-b9f0-4d58734cc375</t>
+          <t>d5e3bcd2-a56b-4116-b703-00a0d9a19eb3</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qwqe1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2026-02-09 15:28</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:56</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>efe30ba1-4d4a-406e-b336-327b1a9b5fc6</t>
+          <t>3aad21a1-18ef-482e-9895-07c22276b5b9</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qwqe1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2026-02-09 15:28</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:56</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>dbbb2660-85f4-4ee5-8d94-c93a9879912e</t>
+          <t>04ce0605-1a9d-4978-b556-695700b19348</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qwqe2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2026-02-09 15:28</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:56</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4c777751-0bde-40bc-a45b-872ea9f145e0</t>
+          <t>859f4499-8326-44f9-b50c-e873c0d72d34</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qwqe2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2026-02-09 15:30</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:56</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>38292f1d-59fa-4ac2-9bbd-dc77903654c6</t>
+          <t>878b7187-0035-42db-b94b-e82a12cdba28</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>ybb02</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>手机卡</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2026-02-09 15:30</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:57</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6bd75c74-f775-4e0d-8609-f0a7477bac03</t>
+          <t>403ca20e-fbea-4d37-a358-0161e5d1b80e</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>ybb02</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>手机卡</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2026-02-09 15:33</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:57</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6568a80e-0130-431a-946c-da90cba1ae9f</t>
+          <t>c729912d-5de5-44bf-86c1-37fdfecc0b21</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>TEG-237</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2026-02-09 15:33</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:01</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>148e706e-a7d2-480c-9f7d-4f96335308b4</t>
+          <t>2f0029fb-7a48-483d-bdf7-2cf95630c70c</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>TEG-237</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2026-02-09 15:34</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:01</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2b0a3c89-94a8-4b94-b99e-3034e28b487f</t>
+          <t>4b80563e-fdf9-49cb-865d-abacafd806fb</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>TEG-237</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2026-02-09 15:34</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:06</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>b5844d1a-48c1-4178-bb20-2f6a0d0cbc12</t>
+          <t>397699f3-c531-4461-a14a-0dffbeeba02a</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>ybb02</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>手机卡</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2026-02-09 15:35</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:06</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0ae5b408-0162-4dd2-b4f1-8e65ac309a87</t>
+          <t>5888139e-b43f-42f2-8679-fa302c45f73d</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>TEG-237</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2026-02-09 15:35</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:06</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>fcab4260-4392-4234-8379-3d60680ac58f</t>
+          <t>6b8f9b9d-b642-45f0-9a54-860cb7c7a561</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2026-02-09 15:35</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2026-02-10 18:17</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>30c77f76-80f4-4377-88f0-ed7db1557e07</t>
+          <t>673c7736-1ee5-4048-8db1-60e2401e4b0f</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2026-02-09 15:35</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2026-02-10 18:42</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>69c6fa23-37d8-4377-ba3e-ba0f175d9d59</t>
+          <t>e46a88b5-75e8-42dd-a120-0fedde3abd0a</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1260,151 +1445,186 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2026-02-09 15:37</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2026-02-10 18:42</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7cb199bc-9a26-4314-97a8-b4bdb38c5778</t>
+          <t>47d61daa-2d48-4b59-87f7-156b6a786e43</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2026-02-09 21:06</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2026-02-10 18:43</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ee3d8e5d-0ada-4ca6-a6da-0ee71f3f1631</t>
+          <t>a3d10443-a24d-490c-8e52-402155555dc2</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2026-02-09 21:06</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2026-02-10 18:43</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>91319deb-ea34-4e80-a591-30bd20d40603</t>
+          <t>613a235a-eb0c-4525-919f-8cb5a69d9a4e</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2026-02-09 21:07</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2026-02-10 18:43</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2b86f7d7-35a0-4152-9522-9800310f8df3</t>
+          <t>c2373ae4-9c92-4463-8a0b-7612890c404d</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2026-02-09 21:08</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2026-02-10 18:43</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>efbcc911-01e0-4543-96d2-71bbf52cb9fe</t>
+          <t>cf63f666-4b88-4042-a63a-da3b1fdb11a8</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2026-02-09 21:08</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2026-02-10 18:46</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>bc77ccaf-e304-43e6-9041-c11805d232f3</t>
+          <t>679eebf4-8aca-4c82-bb7e-4f5dc15a2735</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2026-02-09 21:14</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2026-02-10 18:46</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>374b0695-d7ad-4bc1-8b42-fed226b5ffc1</t>
+          <t>9d7be35d-1f76-40eb-a4d7-fa0b39095170</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1414,283 +1634,348 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2026-02-09 21:14</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2026-02-10 18:48</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>7b2185a9-32fc-45a3-88ab-2fa2d0a25c2b</t>
+          <t>53531214-d90c-41df-9787-b2ee6b1ed79e</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-02-09 21:14</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2026-02-10 18:49</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>257f2f14-b3c7-40ec-aef3-10767d2aa2a8</t>
+          <t>1919858b-93e5-4c9e-96f8-41f75b9f6b63</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-02-09 21:14</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2026-02-10 18:49</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>77972ff7-069a-475d-93f5-866354f61daf</t>
+          <t>fda0badc-cd55-487c-a94a-749222edabb7</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-02-09 21:14</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:01</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>7adcd91f-bd47-45df-aa97-b803ffc56e7d</t>
+          <t>fc40cabe-67a1-4c91-b88e-cc26f315922f</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>cea5f628-8066-466c-8c8b-dc0d66e106f0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-09 21:14</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:01</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>d29f7137-b102-44a9-9f6a-f88dd67d13dd</t>
+          <t>fef467d5-bcaf-44c4-95a6-338a305f2a7e</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PHO002</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-02-09 21:14</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:08</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>73ea5c12-f695-4ce5-9e51-e911978af7d8</t>
+          <t>2830d20c-4554-47dd-bb49-11e7bf52937b</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-02-09 22:07</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:13</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>300d20b5-ae66-4958-9d4f-998bcf36f96d</t>
+          <t>0f2666a3-f634-45a3-aeac-25e430b8a621</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-09 22:07</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:18</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>980431e0-fa65-4522-9a45-7d6aa91afaa3</t>
+          <t>89705dcd-48b6-4a03-b0eb-640477639fdb</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-09 22:07</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:25</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>a23aa804-631a-4171-8b0e-c3c5f6438bdb</t>
+          <t>d23b76f8-71d3-469f-9772-9bf2b67b6364</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-09 22:07</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:27</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6cb1ac89-4ab3-4085-adec-a142f6ef7e1f</t>
+          <t>1ee9bd69-945f-4d70-88d3-d9daa0816115</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-02-09 22:07</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:29</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5028ffb7-ab8a-4c51-8268-e946a49211a8</t>
+          <t>a510385d-59a1-4dd8-a035-00d2c9889068</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-09 22:08</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:31</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>e79bfe00-42ad-4435-b681-0f3d4a87ae53</t>
+          <t>c48dd726-ec9b-4679-83aa-36c5d240023f</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-09 22:08</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:34</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>17d57931-ce50-4c3d-8f58-9e2e96dcd94f</t>
+          <t>ca4dd94d-cbf3-4f84-a765-d80ba33537ee</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1700,41 +1985,51 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-09 22:10</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:34</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>f6dbb23f-f033-4479-bb80-f0f5aadec027</t>
+          <t>789c84cc-d2f4-4396-a095-d4d40118f81c</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-09 22:11</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:34</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ed193c87-1d47-4232-9f0f-6618417cca5c</t>
+          <t>32cb48c7-8dd6-4f32-8f71-ff3e13876564</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1744,19 +2039,24 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-09 22:11</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:34</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>f5562c9d-d7a1-4be7-99b9-dc7676ac18c6</t>
+          <t>2298ae70-7964-46e4-b7a3-78bfe4a77f02</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1766,41 +2066,51 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-09 22:11</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:34</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3d9a3f48-0506-4601-897c-b33337b395a9</t>
+          <t>06bc03bc-f8d3-4b76-bbb3-a308b6b236db</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-09 22:11</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:34</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>bc89d55b-7898-467f-b731-6f0a397bda42</t>
+          <t>67e8a2c3-7236-4d3f-893e-63715ae15761</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1810,41 +2120,51 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-09 22:11</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:39</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>350219ca-6cda-4155-840c-4021d282480c</t>
+          <t>6cad0cb4-ad18-4710-a0e0-817a6a61d856</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-09 22:11</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:41</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3bcf3f84-bc33-4e47-bf27-6dfc1e6bda46</t>
+          <t>dcc043c8-1297-4560-9938-681a9d6dd3d9</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1854,19 +2174,24 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-09 22:11</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:41</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>e4905670-2588-4929-89d4-4aaba793fbe7</t>
+          <t>cadde377-7238-4b3a-905a-fed3b61b20cf</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1876,782 +2201,341 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-09 22:16</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:43</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>38d347e7-b05c-4ac5-a8d9-6342d59ad0d4</t>
+          <t>d9fa281b-470b-4a39-a62f-e80111642d65</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-09 22:16</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:43</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>521d01eb-57c4-4ffe-acc7-c4da653e35df</t>
+          <t>e6fa7ac7-bfed-4d00-81f4-e339adbf3a3b</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-02-09 22:17</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:43</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>f0ab4c97-0275-48bc-8d6f-25375ca07ce2</t>
+          <t>f97659ca-8913-478a-b734-573226791a9e</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-09 22:17</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:47</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3a943fba-a8e1-48d6-9e2b-a2cb66bfc892</t>
+          <t>a51869cc-5711-4071-b415-5283e4f26956</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qwqe3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-09 22:17</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:47</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>4401c5e8-f432-48bb-863e-4c2c65ef8917</t>
+          <t>c6cb3f17-c8b6-4e67-9a39-e9820c848ee3</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qwqe3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-02-09 22:17</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:47</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>efc2cf46-388c-488d-86c2-c8157f576205</t>
+          <t>90eca4d8-cdf4-40f7-921d-81e0b2703580</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qwqe4</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-09 22:19</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:47</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3125d4e7-d69c-4fb6-a063-6077eb50ca4b</t>
+          <t>29f3da0b-2575-4441-b5e4-4f0ca59df2e0</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qwqe4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-09 22:19</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:47</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3b2f911e-e83a-4c5c-a55b-128990bdbf07</t>
+          <t>2b53bbf7-8743-49f4-9bac-772d20209452</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qt02</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>其它设备</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-02-09 22:19</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:48</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6da62569-030b-467a-b2b8-d1652ca3a6fb</t>
+          <t>54605a70-a0b5-4398-af28-0a5dd71ecef5</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qt02</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>其它设备</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2026-02-09 22:19</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:48</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>061dfa10-7121-4201-b35d-c8ca5eabc00e</t>
+          <t>f686b616-3d8a-4739-b542-783fefecd1ed</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>TEG-199</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-02-09 22:19</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:49</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>82e145f7-fef0-4682-8f17-b5c14772f8e9</t>
+          <t>0141b966-f09f-4efb-b3bf-c52c09e912e9</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>TEG-199</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-02-09 22:19</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:49</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>bc35fcc0-098e-4e8b-aa28-f43d2c9ebce0</t>
+          <t>484615d7-1508-4b89-96d1-88436f139479</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-02-09 22:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>86c3625d-918d-446a-9fb9-53d27f0356f3</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>2026-02-09 22:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>f964f6fa-5d1e-4abe-8418-b2beca047f6b</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>PHO001</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>2026-02-09 22:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>524f55ed-c8c7-4ab2-aeb0-5f46a928629c</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>2026-02-09 22:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>8defd775-4962-4d6f-95f1-06e15c6f8d52</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2026-02-09 22:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>33d1f9ad-d6cb-4b5f-a316-8b91c005e40f</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>2026-02-09 22:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>34f92f7b-c8bb-453e-85fa-ecdde729ab05</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>2026-02-09 22:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>c11fa366-aa1e-4461-a1a5-7bc22317e984</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>2026-02-09 22:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>78e2b157-5981-45bc-8d5b-266e92df5d4b</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>2026-02-09 22:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>3e0eabef-82c1-4b9b-87c3-fa5c497fd305</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>2026-02-09 22:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>3d426207-ca5e-48b2-8287-405f57e9f77d</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>2026-02-09 22:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>c1fbe3ac-cd73-4e16-8946-a3e5ebdeb523</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>2026-02-09 22:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>075a5557-366f-48a1-a9dd-d40c52c713d5</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>2026-02-09 22:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>f48bd763-b22a-4a62-b928-af1aa47930d4</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>2026-02-09 22:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>36848f07-ac94-4118-87e5-6e267e698c20</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>PHO001</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>2026-02-09 22:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>00c57809-63e9-4f86-9aa8-af916f52c414</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>PHO001</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>2026-02-09 22:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>405b7b42-47b7-4751-a90b-4c6cb2e88b2c</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>PHO001</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>2026-02-09 22:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>8b6561ed-fc5b-4552-9c8a-e13bc0cecd78</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>PHO001</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>2026-02-09 22:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>51dd795f-8a05-4b49-b5f1-9b85dd840ec6</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>PHO001</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>2026-02-09 22:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>c87a9cb3-3327-471c-93c7-fe28e75f10ef</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>PHO001</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>2026-02-09 22:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>27d54230-549f-4382-91bf-cc720ed1ba1f</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>2026-02-09 22:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>943d23ff-1baf-4be9-afd1-a8694575f74b</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>2026-02-09 22:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>25290df9-5b2e-4347-b6f4-1b1ac64eb4cc</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>2026-02-09 22:52</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>4e5bc59b-4dfe-4fae-a90c-3860b616acbf</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>2026-02-09 22:53</t>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:57</t>
         </is>
       </c>
     </row>

--- a/excel_templates/查看记录表.xlsx
+++ b/excel_templates/查看记录表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2539,6 +2539,222 @@
         </is>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>bbc7444a-da76-436f-98f1-b0c1e2a4c41d</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2026-02-11 09:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>9399f325-fb47-4285-89d7-0547e8e3f0ab</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2026-02-11 09:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>b7f3398d-6979-489f-a4b4-08f28507ccf5</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2026-02-11 09:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2f899b9d-cf85-44dc-8018-01cf8f3f3b7a</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2026-02-11 10:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>5d8f7b5d-06c3-435e-b323-7cce99eed533</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2026-02-11 10:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>523349fe-f889-4763-af3a-e696b779c1d0</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2026-02-11 10:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>337a86f5-2cd1-4c4f-8e35-1d5d42f85630</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4f161042-bc1d-4f07-819e-b298ea3507f3</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>TEG-243</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2026-02-11 17:51</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_templates/查看记录表.xlsx
+++ b/excel_templates/查看记录表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5b9f7ab3-9c19-40fb-a50e-9c81738e9101</t>
+          <t>c06b05e6-443c-4e0a-8b02-dfb3c9561c40</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -473,7 +473,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -483,14 +483,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2026-02-10 16:36</t>
+          <t>2026-02-10 16:46</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04150bd2-0006-4993-b05d-ef41aec0b7b9</t>
+          <t>7b59846a-c88b-485e-bf55-f7d0ef55c3df</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>手机卡</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -510,14 +510,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2026-02-10 16:37</t>
+          <t>2026-02-10 16:46</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>65965e9f-e603-4d59-b0a7-2dc5baccad7c</t>
+          <t>a0a6baf8-8618-410f-9095-edef56a3a0dd</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>其它设备</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -537,14 +537,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2026-02-10 16:41</t>
+          <t>2026-02-10 16:46</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>830f9c38-ea2f-49ec-b378-87249a22c016</t>
+          <t>079453ab-cd40-4b56-b491-90453afa35de</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -564,14 +564,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2026-02-10 16:41</t>
+          <t>2026-02-10 16:47</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>d19db97a-234b-42c8-a9ea-76e8956c3417</t>
+          <t>7a846487-dcc4-491a-9835-cccd09ec395a</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>手机卡</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -591,14 +591,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2026-02-10 16:41</t>
+          <t>2026-02-10 16:49</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>f4671d83-a1b4-4f8b-9b9c-7df09ccc2dac</t>
+          <t>929533fd-97aa-4190-a14a-e1c8f727a1d8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>其它设备</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -618,24 +618,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2026-02-10 16:41</t>
+          <t>2026-02-10 16:50</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>f86f1896-f718-458f-abfc-49511c12c22b</t>
+          <t>279bc8ff-fef5-410a-881e-7be1d8bc4516</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TEG-243</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>手机</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -645,24 +645,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2026-02-10 16:41</t>
+          <t>2026-02-10 16:51</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>17db9488-5226-4283-8abb-17a1c83b118a</t>
+          <t>268404e1-a3aa-4f92-9077-ffba9b1b415b</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TEG-243</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>手机</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -672,19 +672,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2026-02-10 16:41</t>
+          <t>2026-02-10 16:51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>c06b05e6-443c-4e0a-8b02-dfb3c9561c40</t>
+          <t>a52a20e3-435e-4a54-b9d1-afd5482e7172</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qwqe1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -699,24 +699,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2026-02-10 16:46</t>
+          <t>2026-02-10 16:54</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7b59846a-c88b-485e-bf55-f7d0ef55c3df</t>
+          <t>28329a26-e739-45c2-afaf-c2d1505483a6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qwqe1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>手机卡</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -726,24 +726,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2026-02-10 16:46</t>
+          <t>2026-02-10 16:54</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>a0a6baf8-8618-410f-9095-edef56a3a0dd</t>
+          <t>bc95abf4-77c7-4182-adc3-e467905dc903</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>ybb01</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>其它设备</t>
+          <t>手机卡</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -753,24 +753,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2026-02-10 16:46</t>
+          <t>2026-02-10 16:54</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>079453ab-cd40-4b56-b491-90453afa35de</t>
+          <t>7a8270ca-68e9-4b31-b5d0-4806038333e7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>ybb01</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>手机卡</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -780,24 +780,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2026-02-10 16:47</t>
+          <t>2026-02-10 16:54</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7a846487-dcc4-491a-9835-cccd09ec395a</t>
+          <t>09d4bcbf-1b93-49fe-860c-19cfe93b7abc</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qt01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>其它设备</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -807,24 +807,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2026-02-10 16:49</t>
+          <t>2026-02-10 16:55</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>929533fd-97aa-4190-a14a-e1c8f727a1d8</t>
+          <t>9bf77a45-513c-498e-a68a-ff4d3061a79c</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qt01</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>其它设备</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -834,19 +834,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2026-02-10 16:50</t>
+          <t>2026-02-10 16:55</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>279bc8ff-fef5-410a-881e-7be1d8bc4516</t>
+          <t>570d1829-351d-4d8a-8161-59914b49bf0c</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qwqe1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2026-02-10 16:51</t>
+          <t>2026-02-10 16:56</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>268404e1-a3aa-4f92-9077-ffba9b1b415b</t>
+          <t>d5e3bcd2-a56b-4116-b703-00a0d9a19eb3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qwqe1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -888,14 +888,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2026-02-10 16:51</t>
+          <t>2026-02-10 16:56</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>a52a20e3-435e-4a54-b9d1-afd5482e7172</t>
+          <t>3aad21a1-18ef-482e-9895-07c22276b5b9</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -915,19 +915,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2026-02-10 16:54</t>
+          <t>2026-02-10 16:56</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>28329a26-e739-45c2-afaf-c2d1505483a6</t>
+          <t>04ce0605-1a9d-4978-b556-695700b19348</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>qwqe1</t>
+          <t>qwqe2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -942,24 +942,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2026-02-10 16:54</t>
+          <t>2026-02-10 16:56</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>bc95abf4-77c7-4182-adc3-e467905dc903</t>
+          <t>859f4499-8326-44f9-b50c-e873c0d72d34</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ybb01</t>
+          <t>qwqe2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>手机卡</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -969,19 +969,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2026-02-10 16:54</t>
+          <t>2026-02-10 16:56</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7a8270ca-68e9-4b31-b5d0-4806038333e7</t>
+          <t>878b7187-0035-42db-b94b-e82a12cdba28</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ybb01</t>
+          <t>ybb02</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -996,24 +996,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2026-02-10 16:54</t>
+          <t>2026-02-10 16:57</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>09d4bcbf-1b93-49fe-860c-19cfe93b7abc</t>
+          <t>403ca20e-fbea-4d37-a358-0161e5d1b80e</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>qt01</t>
+          <t>ybb02</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>其它设备</t>
+          <t>手机卡</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1023,24 +1023,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2026-02-10 16:55</t>
+          <t>2026-02-10 16:57</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>9bf77a45-513c-498e-a68a-ff4d3061a79c</t>
+          <t>c729912d-5de5-44bf-86c1-37fdfecc0b21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>qt01</t>
+          <t>TEG-237</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>其它设备</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1050,24 +1050,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2026-02-10 16:55</t>
+          <t>2026-02-10 17:01</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>570d1829-351d-4d8a-8161-59914b49bf0c</t>
+          <t>2f0029fb-7a48-483d-bdf7-2cf95630c70c</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>qwqe1</t>
+          <t>TEG-237</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1077,24 +1077,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2026-02-10 16:56</t>
+          <t>2026-02-10 17:01</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>d5e3bcd2-a56b-4116-b703-00a0d9a19eb3</t>
+          <t>4b80563e-fdf9-49cb-865d-abacafd806fb</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>qwqe1</t>
+          <t>TEG-237</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1104,24 +1104,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2026-02-10 16:56</t>
+          <t>2026-02-10 17:06</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3aad21a1-18ef-482e-9895-07c22276b5b9</t>
+          <t>397699f3-c531-4461-a14a-0dffbeeba02a</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>qwqe1</t>
+          <t>ybb02</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>手机卡</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1131,24 +1131,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2026-02-10 16:56</t>
+          <t>2026-02-10 17:06</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04ce0605-1a9d-4978-b556-695700b19348</t>
+          <t>5888139e-b43f-42f2-8679-fa302c45f73d</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>qwqe2</t>
+          <t>TEG-237</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1158,24 +1158,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2026-02-10 16:56</t>
+          <t>2026-02-10 17:06</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>859f4499-8326-44f9-b50c-e873c0d72d34</t>
+          <t>6b8f9b9d-b642-45f0-9a54-860cb7c7a561</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>qwqe2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1185,208 +1185,208 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2026-02-10 16:56</t>
+          <t>2026-02-10 18:17</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>878b7187-0035-42db-b94b-e82a12cdba28</t>
+          <t>673c7736-1ee5-4048-8db1-60e2401e4b0f</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ybb02</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>手机卡</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2026-02-10 16:57</t>
+          <t>2026-02-10 18:42</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>403ca20e-fbea-4d37-a358-0161e5d1b80e</t>
+          <t>e46a88b5-75e8-42dd-a120-0fedde3abd0a</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ybb02</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>手机卡</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2026-02-10 16:57</t>
+          <t>2026-02-10 18:42</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>c729912d-5de5-44bf-86c1-37fdfecc0b21</t>
+          <t>47d61daa-2d48-4b59-87f7-156b6a786e43</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TEG-237</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>手机</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2026-02-10 17:01</t>
+          <t>2026-02-10 18:43</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2f0029fb-7a48-483d-bdf7-2cf95630c70c</t>
+          <t>a3d10443-a24d-490c-8e52-402155555dc2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TEG-237</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>手机</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2026-02-10 17:01</t>
+          <t>2026-02-10 18:43</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4b80563e-fdf9-49cb-865d-abacafd806fb</t>
+          <t>613a235a-eb0c-4525-919f-8cb5a69d9a4e</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TEG-237</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>手机</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2026-02-10 17:06</t>
+          <t>2026-02-10 18:43</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>397699f3-c531-4461-a14a-0dffbeeba02a</t>
+          <t>c2373ae4-9c92-4463-8a0b-7612890c404d</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ybb02</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>手机卡</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2026-02-10 17:06</t>
+          <t>2026-02-10 18:43</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5888139e-b43f-42f2-8679-fa302c45f73d</t>
+          <t>cf63f666-4b88-4042-a63a-da3b1fdb11a8</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TEG-237</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>手机</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2026-02-10 17:06</t>
+          <t>2026-02-10 18:46</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6b8f9b9d-b642-45f0-9a54-860cb7c7a561</t>
+          <t>679eebf4-8aca-4c82-bb7e-4f5dc15a2735</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1396,24 +1396,24 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2026-02-10 18:17</t>
+          <t>2026-02-10 18:46</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>673c7736-1ee5-4048-8db1-60e2401e4b0f</t>
+          <t>9d7be35d-1f76-40eb-a4d7-fa0b39095170</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1428,14 +1428,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2026-02-10 18:42</t>
+          <t>2026-02-10 18:48</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>e46a88b5-75e8-42dd-a120-0fedde3abd0a</t>
+          <t>53531214-d90c-41df-9787-b2ee6b1ed79e</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1455,19 +1455,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2026-02-10 18:42</t>
+          <t>2026-02-10 18:49</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>47d61daa-2d48-4b59-87f7-156b6a786e43</t>
+          <t>1919858b-93e5-4c9e-96f8-41f75b9f6b63</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1482,19 +1482,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2026-02-10 18:43</t>
+          <t>2026-02-10 18:49</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>a3d10443-a24d-490c-8e52-402155555dc2</t>
+          <t>fda0badc-cd55-487c-a94a-749222edabb7</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1509,19 +1509,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2026-02-10 18:43</t>
+          <t>2026-02-10 19:01</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>613a235a-eb0c-4525-919f-8cb5a69d9a4e</t>
+          <t>fc40cabe-67a1-4c91-b88e-cc26f315922f</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1536,19 +1536,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2026-02-10 18:43</t>
+          <t>2026-02-10 19:01</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>c2373ae4-9c92-4463-8a0b-7612890c404d</t>
+          <t>fef467d5-bcaf-44c4-95a6-338a305f2a7e</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1563,19 +1563,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2026-02-10 18:43</t>
+          <t>2026-02-10 19:08</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>cf63f666-4b88-4042-a63a-da3b1fdb11a8</t>
+          <t>2830d20c-4554-47dd-bb49-11e7bf52937b</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1590,19 +1590,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2026-02-10 18:46</t>
+          <t>2026-02-10 19:13</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>679eebf4-8aca-4c82-bb7e-4f5dc15a2735</t>
+          <t>0f2666a3-f634-45a3-aeac-25e430b8a621</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1617,19 +1617,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2026-02-10 18:46</t>
+          <t>2026-02-10 19:18</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>9d7be35d-1f76-40eb-a4d7-fa0b39095170</t>
+          <t>89705dcd-48b6-4a03-b0eb-640477639fdb</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1644,19 +1644,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2026-02-10 18:48</t>
+          <t>2026-02-10 19:25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>53531214-d90c-41df-9787-b2ee6b1ed79e</t>
+          <t>d23b76f8-71d3-469f-9772-9bf2b67b6364</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1671,19 +1671,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2026-02-10 18:49</t>
+          <t>2026-02-10 19:27</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1919858b-93e5-4c9e-96f8-41f75b9f6b63</t>
+          <t>1ee9bd69-945f-4d70-88d3-d9daa0816115</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1698,19 +1698,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2026-02-10 18:49</t>
+          <t>2026-02-10 19:29</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>fda0badc-cd55-487c-a94a-749222edabb7</t>
+          <t>a510385d-59a1-4dd8-a035-00d2c9889068</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1725,14 +1725,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2026-02-10 19:01</t>
+          <t>2026-02-10 19:31</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>fc40cabe-67a1-4c91-b88e-cc26f315922f</t>
+          <t>c48dd726-ec9b-4679-83aa-36c5d240023f</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1752,19 +1752,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2026-02-10 19:01</t>
+          <t>2026-02-10 19:34</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>fef467d5-bcaf-44c4-95a6-338a305f2a7e</t>
+          <t>ca4dd94d-cbf3-4f84-a765-d80ba33537ee</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1779,14 +1779,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2026-02-10 19:08</t>
+          <t>2026-02-10 19:34</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2830d20c-4554-47dd-bb49-11e7bf52937b</t>
+          <t>789c84cc-d2f4-4396-a095-d4d40118f81c</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1806,19 +1806,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2026-02-10 19:13</t>
+          <t>2026-02-10 19:34</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0f2666a3-f634-45a3-aeac-25e430b8a621</t>
+          <t>32cb48c7-8dd6-4f32-8f71-ff3e13876564</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1833,19 +1833,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2026-02-10 19:18</t>
+          <t>2026-02-10 19:34</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>89705dcd-48b6-4a03-b0eb-640477639fdb</t>
+          <t>2298ae70-7964-46e4-b7a3-78bfe4a77f02</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1860,24 +1860,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2026-02-10 19:25</t>
+          <t>2026-02-10 19:34</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>d23b76f8-71d3-469f-9772-9bf2b67b6364</t>
+          <t>06bc03bc-f8d3-4b76-bbb3-a308b6b236db</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>车机</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1887,19 +1887,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2026-02-10 19:27</t>
+          <t>2026-02-10 19:34</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1ee9bd69-945f-4d70-88d3-d9daa0816115</t>
+          <t>67e8a2c3-7236-4d3f-893e-63715ae15761</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1914,19 +1914,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2026-02-10 19:29</t>
+          <t>2026-02-10 19:39</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>a510385d-59a1-4dd8-a035-00d2c9889068</t>
+          <t>6cad0cb4-ad18-4710-a0e0-817a6a61d856</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1941,19 +1941,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2026-02-10 19:31</t>
+          <t>2026-02-10 19:41</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>c48dd726-ec9b-4679-83aa-36c5d240023f</t>
+          <t>dcc043c8-1297-4560-9938-681a9d6dd3d9</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1968,19 +1968,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2026-02-10 19:34</t>
+          <t>2026-02-10 19:41</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ca4dd94d-cbf3-4f84-a765-d80ba33537ee</t>
+          <t>cadde377-7238-4b3a-905a-fed3b61b20cf</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1995,19 +1995,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2026-02-10 19:34</t>
+          <t>2026-02-10 19:43</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>789c84cc-d2f4-4396-a095-d4d40118f81c</t>
+          <t>d9fa281b-470b-4a39-a62f-e80111642d65</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2022,19 +2022,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2026-02-10 19:34</t>
+          <t>2026-02-10 19:43</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>32cb48c7-8dd6-4f32-8f71-ff3e13876564</t>
+          <t>e6fa7ac7-bfed-4d00-81f4-e339adbf3a3b</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2049,19 +2049,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2026-02-10 19:34</t>
+          <t>2026-02-10 19:43</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2298ae70-7964-46e4-b7a3-78bfe4a77f02</t>
+          <t>f97659ca-8913-478a-b734-573226791a9e</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2076,24 +2076,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2026-02-10 19:34</t>
+          <t>2026-02-10 19:47</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>06bc03bc-f8d3-4b76-bbb3-a308b6b236db</t>
+          <t>a51869cc-5711-4071-b415-5283e4f26956</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>qwqe3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>手机</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2103,24 +2103,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2026-02-10 19:34</t>
+          <t>2026-02-10 19:47</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>67e8a2c3-7236-4d3f-893e-63715ae15761</t>
+          <t>c6cb3f17-c8b6-4e67-9a39-e9820c848ee3</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qwqe3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>车机</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2130,24 +2130,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2026-02-10 19:39</t>
+          <t>2026-02-10 19:47</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6cad0cb4-ad18-4710-a0e0-817a6a61d856</t>
+          <t>90eca4d8-cdf4-40f7-921d-81e0b2703580</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qwqe4</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>车机</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2157,24 +2157,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2026-02-10 19:41</t>
+          <t>2026-02-10 19:47</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>dcc043c8-1297-4560-9938-681a9d6dd3d9</t>
+          <t>29f3da0b-2575-4441-b5e4-4f0ca59df2e0</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>qwqe4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>车机</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2184,24 +2184,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2026-02-10 19:41</t>
+          <t>2026-02-10 19:47</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>cadde377-7238-4b3a-905a-fed3b61b20cf</t>
+          <t>2b53bbf7-8743-49f4-9bac-772d20209452</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>qt02</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>车机</t>
+          <t>其它设备</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2211,24 +2211,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2026-02-10 19:43</t>
+          <t>2026-02-10 19:48</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>d9fa281b-470b-4a39-a62f-e80111642d65</t>
+          <t>54605a70-a0b5-4398-af28-0a5dd71ecef5</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>qt02</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>车机</t>
+          <t>其它设备</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2238,24 +2238,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2026-02-10 19:43</t>
+          <t>2026-02-10 19:48</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>e6fa7ac7-bfed-4d00-81f4-e339adbf3a3b</t>
+          <t>f686b616-3d8a-4739-b542-783fefecd1ed</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>TEG-199</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>车机</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2265,24 +2265,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2026-02-10 19:43</t>
+          <t>2026-02-10 19:49</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>f97659ca-8913-478a-b734-573226791a9e</t>
+          <t>0141b966-f09f-4efb-b3bf-c52c09e912e9</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>TEG-199</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>车机</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2292,24 +2292,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2026-02-10 19:47</t>
+          <t>2026-02-10 19:49</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>a51869cc-5711-4071-b415-5283e4f26956</t>
+          <t>484615d7-1508-4b89-96d1-88436f139479</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>qwqe3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2319,24 +2319,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2026-02-10 19:47</t>
+          <t>2026-02-10 19:57</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>c6cb3f17-c8b6-4e67-9a39-e9820c848ee3</t>
+          <t>bbc7444a-da76-436f-98f1-b0c1e2a4c41d</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>qwqe3</t>
+          <t>281</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2346,24 +2346,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2026-02-10 19:47</t>
+          <t>2026-02-11 09:41</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>90eca4d8-cdf4-40f7-921d-81e0b2703580</t>
+          <t>9399f325-fb47-4285-89d7-0547e8e3f0ab</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>qwqe4</t>
+          <t>281</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2373,24 +2373,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2026-02-10 19:47</t>
+          <t>2026-02-11 09:42</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>29f3da0b-2575-4441-b5e4-4f0ca59df2e0</t>
+          <t>b7f3398d-6979-489f-a4b4-08f28507ccf5</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>qwqe4</t>
+          <t>270</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2400,105 +2400,105 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2026-02-10 19:47</t>
+          <t>2026-02-11 09:57</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2b53bbf7-8743-49f4-9bac-772d20209452</t>
+          <t>2f899b9d-cf85-44dc-8018-01cf8f3f3b7a</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>qt02</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>其它设备</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2026-02-10 19:48</t>
+          <t>2026-02-11 10:34</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>54605a70-a0b5-4398-af28-0a5dd71ecef5</t>
+          <t>5d8f7b5d-06c3-435e-b323-7cce99eed533</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>qt02</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>其它设备</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2026-02-10 19:48</t>
+          <t>2026-02-11 10:35</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>f686b616-3d8a-4739-b542-783fefecd1ed</t>
+          <t>523349fe-f889-4763-af3a-e696b779c1d0</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TEG-199</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>手机</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2026-02-10 19:49</t>
+          <t>2026-02-11 10:57</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0141b966-f09f-4efb-b3bf-c52c09e912e9</t>
+          <t>337a86f5-2cd1-4c4f-8e35-1d5d42f85630</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TEG-199</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>手机</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2508,46 +2508,46 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2026-02-10 19:49</t>
+          <t>2026-02-11 12:52</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>484615d7-1508-4b89-96d1-88436f139479</t>
+          <t>4f161042-bc1d-4f07-819e-b298ea3507f3</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>TEG-243</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>车机</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2026-02-10 19:57</t>
+          <t>2026-02-11 17:51</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>bbc7444a-da76-436f-98f1-b0c1e2a4c41d</t>
+          <t>bbba2543-7802-431f-8bc1-9d304738f38d</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2562,19 +2562,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2026-02-11 09:41</t>
+          <t>2026-02-11 19:32</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>9399f325-fb47-4285-89d7-0547e8e3f0ab</t>
+          <t>d46bf135-5d17-4682-b989-53b7928e1c34</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2026-02-11 09:42</t>
+          <t>2026-02-11 19:32</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>b7f3398d-6979-489f-a4b4-08f28507ccf5</t>
+          <t>a24ac377-d762-4a1e-9bfe-ec6f7551eccf</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2616,19 +2616,19 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2026-02-11 09:57</t>
+          <t>2026-02-11 19:33</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2f899b9d-cf85-44dc-8018-01cf8f3f3b7a</t>
+          <t>dfed3dfc-9b84-45a1-9299-f5f16c9bf907</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2638,24 +2638,24 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2026-02-11 10:34</t>
+          <t>2026-02-11 19:34</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>5d8f7b5d-06c3-435e-b323-7cce99eed533</t>
+          <t>e7b15476-541f-484b-9528-19d43c01b09e</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2665,24 +2665,24 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2026-02-11 10:35</t>
+          <t>2026-02-11 19:34</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>523349fe-f889-4763-af3a-e696b779c1d0</t>
+          <t>1d036724-c1ce-4b6c-97d6-ec36db4b3f69</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2692,24 +2692,24 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2026-02-11 10:57</t>
+          <t>2026-02-11 19:36</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>337a86f5-2cd1-4c4f-8e35-1d5d42f85630</t>
+          <t>0e65e2e6-9386-4765-b54a-08d2d4448908</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2724,34 +2724,439 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2026-02-11 12:52</t>
+          <t>2026-02-11 19:36</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>4f161042-bc1d-4f07-819e-b298ea3507f3</t>
+          <t>6d9d2db1-3f91-4de0-9b49-8424f1ef25d7</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TEG-243</t>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>手机</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2026-02-11 17:51</t>
+          <t>2026-02-11 19:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>96f302d0-f873-4c0a-9cd0-59fbb822b41c</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>PHO001</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2026-02-11 19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>544f712a-49f2-4c9a-8d09-330fdacc9f5e</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2026-02-11 19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>859f9ae2-aac4-494b-a5bf-4c39bcccb45b</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2026-02-11 19:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>f3799417-1f5e-4230-aa58-06379cecf37c</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2026-02-11 19:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>a99c558b-e171-4fd6-a842-664526e3d498</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2026-02-11 19:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1e8efa9d-8223-48e3-bdfc-72e701349409</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2026-02-11 19:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>5ae1aa61-2864-4c1b-9c5f-e74e3792113b</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2026-02-11 20:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>b27e8a90-48aa-4344-ac65-9a3c8647b974</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>066032d8-0a4f-4d29-9e68-3495859bd8ef</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2026-02-11 20:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>6b50f51e-48c0-40e0-b27f-300d06fc5daf</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>f8770a88-1a0d-47c3-a478-f8a7a02688d9</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2026-02-11 20:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>d535bd4c-3a1d-43d3-b584-52adfb2e09b3</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>f8770a88-1a0d-47c3-a478-f8a7a02688d9</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2026-02-11 20:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>8d2fde4c-972c-4879-aba3-06be32233b4a</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>f8770a88-1a0d-47c3-a478-f8a7a02688d9</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2026-02-11 20:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>8e191e09-4622-42d5-9248-459d07b3ccf4</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2026-02-11 20:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>b14cb403-2a37-4660-9370-fe7c6fa1a774</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>f8770a88-1a0d-47c3-a478-f8a7a02688d9</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2026-02-11 20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>877a9c17-a5ca-48eb-b683-c8307fe74c7a</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>59aed345-d8f2-41a3-8395-4121ac52f33c</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2026-02-11 20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>82342cc5-16ae-4c00-bec2-3ac957733110</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>066bcbbf-d6cf-4e83-a705-f6c0052f70db</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2026-02-11 20:30</t>
         </is>
       </c>
     </row>

--- a/excel_templates/查看记录表.xlsx
+++ b/excel_templates/查看记录表.xlsx
@@ -463,17 +463,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>c06b05e6-443c-4e0a-8b02-dfb3c9561c40</t>
+          <t>bc95abf4-77c7-4182-adc3-e467905dc903</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>ybb01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>手机卡</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -483,19 +483,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2026-02-10 16:46</t>
+          <t>2026-02-10 16:54</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7b59846a-c88b-485e-bf55-f7d0ef55c3df</t>
+          <t>7a8270ca-68e9-4b31-b5d0-4806038333e7</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>ybb01</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -510,19 +510,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2026-02-10 16:46</t>
+          <t>2026-02-10 16:54</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>a0a6baf8-8618-410f-9095-edef56a3a0dd</t>
+          <t>09d4bcbf-1b93-49fe-860c-19cfe93b7abc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qt01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,24 +537,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2026-02-10 16:46</t>
+          <t>2026-02-10 16:55</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>079453ab-cd40-4b56-b491-90453afa35de</t>
+          <t>9bf77a45-513c-498e-a68a-ff4d3061a79c</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qt01</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>其它设备</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -564,19 +564,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2026-02-10 16:47</t>
+          <t>2026-02-10 16:55</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7a846487-dcc4-491a-9835-cccd09ec395a</t>
+          <t>570d1829-351d-4d8a-8161-59914b49bf0c</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qwqe1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -591,19 +591,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2026-02-10 16:49</t>
+          <t>2026-02-10 16:56</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>929533fd-97aa-4190-a14a-e1c8f727a1d8</t>
+          <t>d5e3bcd2-a56b-4116-b703-00a0d9a19eb3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qwqe1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -618,19 +618,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2026-02-10 16:50</t>
+          <t>2026-02-10 16:56</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>279bc8ff-fef5-410a-881e-7be1d8bc4516</t>
+          <t>3aad21a1-18ef-482e-9895-07c22276b5b9</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qwqe1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -645,19 +645,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2026-02-10 16:51</t>
+          <t>2026-02-10 16:56</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>268404e1-a3aa-4f92-9077-ffba9b1b415b</t>
+          <t>04ce0605-1a9d-4978-b556-695700b19348</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qwqe2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -672,19 +672,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2026-02-10 16:51</t>
+          <t>2026-02-10 16:56</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>a52a20e3-435e-4a54-b9d1-afd5482e7172</t>
+          <t>859f4499-8326-44f9-b50c-e873c0d72d34</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>qwqe1</t>
+          <t>qwqe2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -699,24 +699,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2026-02-10 16:54</t>
+          <t>2026-02-10 16:56</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>28329a26-e739-45c2-afaf-c2d1505483a6</t>
+          <t>878b7187-0035-42db-b94b-e82a12cdba28</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>qwqe1</t>
+          <t>ybb02</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>手机卡</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -726,19 +726,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2026-02-10 16:54</t>
+          <t>2026-02-10 16:57</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bc95abf4-77c7-4182-adc3-e467905dc903</t>
+          <t>403ca20e-fbea-4d37-a358-0161e5d1b80e</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ybb01</t>
+          <t>ybb02</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -753,24 +753,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2026-02-10 16:54</t>
+          <t>2026-02-10 16:57</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7a8270ca-68e9-4b31-b5d0-4806038333e7</t>
+          <t>c729912d-5de5-44bf-86c1-37fdfecc0b21</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ybb01</t>
+          <t>TEG-237</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>手机卡</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -780,24 +780,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2026-02-10 16:54</t>
+          <t>2026-02-10 17:01</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>09d4bcbf-1b93-49fe-860c-19cfe93b7abc</t>
+          <t>2f0029fb-7a48-483d-bdf7-2cf95630c70c</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>qt01</t>
+          <t>TEG-237</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>其它设备</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -807,24 +807,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2026-02-10 16:55</t>
+          <t>2026-02-10 17:01</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>9bf77a45-513c-498e-a68a-ff4d3061a79c</t>
+          <t>4b80563e-fdf9-49cb-865d-abacafd806fb</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>qt01</t>
+          <t>TEG-237</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>其它设备</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -834,24 +834,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2026-02-10 16:55</t>
+          <t>2026-02-10 17:06</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>570d1829-351d-4d8a-8161-59914b49bf0c</t>
+          <t>397699f3-c531-4461-a14a-0dffbeeba02a</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>qwqe1</t>
+          <t>ybb02</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>手机卡</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -861,24 +861,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2026-02-10 16:56</t>
+          <t>2026-02-10 17:06</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>d5e3bcd2-a56b-4116-b703-00a0d9a19eb3</t>
+          <t>5888139e-b43f-42f2-8679-fa302c45f73d</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>qwqe1</t>
+          <t>TEG-237</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -888,24 +888,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2026-02-10 16:56</t>
+          <t>2026-02-10 17:06</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3aad21a1-18ef-482e-9895-07c22276b5b9</t>
+          <t>6b8f9b9d-b642-45f0-9a54-860cb7c7a561</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>qwqe1</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -915,262 +915,262 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2026-02-10 16:56</t>
+          <t>2026-02-10 18:17</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04ce0605-1a9d-4978-b556-695700b19348</t>
+          <t>673c7736-1ee5-4048-8db1-60e2401e4b0f</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>qwqe2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2026-02-10 16:56</t>
+          <t>2026-02-10 18:42</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>859f4499-8326-44f9-b50c-e873c0d72d34</t>
+          <t>e46a88b5-75e8-42dd-a120-0fedde3abd0a</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>qwqe2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2026-02-10 16:56</t>
+          <t>2026-02-10 18:42</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>878b7187-0035-42db-b94b-e82a12cdba28</t>
+          <t>47d61daa-2d48-4b59-87f7-156b6a786e43</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ybb02</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>手机卡</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2026-02-10 16:57</t>
+          <t>2026-02-10 18:43</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>403ca20e-fbea-4d37-a358-0161e5d1b80e</t>
+          <t>a3d10443-a24d-490c-8e52-402155555dc2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ybb02</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>手机卡</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2026-02-10 16:57</t>
+          <t>2026-02-10 18:43</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>c729912d-5de5-44bf-86c1-37fdfecc0b21</t>
+          <t>613a235a-eb0c-4525-919f-8cb5a69d9a4e</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TEG-237</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>手机</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2026-02-10 17:01</t>
+          <t>2026-02-10 18:43</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2f0029fb-7a48-483d-bdf7-2cf95630c70c</t>
+          <t>c2373ae4-9c92-4463-8a0b-7612890c404d</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TEG-237</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>手机</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2026-02-10 17:01</t>
+          <t>2026-02-10 18:43</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4b80563e-fdf9-49cb-865d-abacafd806fb</t>
+          <t>cf63f666-4b88-4042-a63a-da3b1fdb11a8</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TEG-237</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>手机</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2026-02-10 17:06</t>
+          <t>2026-02-10 18:46</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>397699f3-c531-4461-a14a-0dffbeeba02a</t>
+          <t>679eebf4-8aca-4c82-bb7e-4f5dc15a2735</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ybb02</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>手机卡</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2026-02-10 17:06</t>
+          <t>2026-02-10 18:46</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5888139e-b43f-42f2-8679-fa302c45f73d</t>
+          <t>9d7be35d-1f76-40eb-a4d7-fa0b39095170</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TEG-237</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>手机</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2026-02-10 17:06</t>
+          <t>2026-02-10 18:48</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6b8f9b9d-b642-45f0-9a54-860cb7c7a561</t>
+          <t>53531214-d90c-41df-9787-b2ee6b1ed79e</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1180,24 +1180,24 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2026-02-10 18:17</t>
+          <t>2026-02-10 18:49</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>673c7736-1ee5-4048-8db1-60e2401e4b0f</t>
+          <t>1919858b-93e5-4c9e-96f8-41f75b9f6b63</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1212,19 +1212,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2026-02-10 18:42</t>
+          <t>2026-02-10 18:49</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>e46a88b5-75e8-42dd-a120-0fedde3abd0a</t>
+          <t>fda0badc-cd55-487c-a94a-749222edabb7</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1239,19 +1239,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2026-02-10 18:42</t>
+          <t>2026-02-10 19:01</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>47d61daa-2d48-4b59-87f7-156b6a786e43</t>
+          <t>fc40cabe-67a1-4c91-b88e-cc26f315922f</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1266,19 +1266,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2026-02-10 18:43</t>
+          <t>2026-02-10 19:01</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>a3d10443-a24d-490c-8e52-402155555dc2</t>
+          <t>fef467d5-bcaf-44c4-95a6-338a305f2a7e</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1293,19 +1293,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2026-02-10 18:43</t>
+          <t>2026-02-10 19:08</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>613a235a-eb0c-4525-919f-8cb5a69d9a4e</t>
+          <t>2830d20c-4554-47dd-bb49-11e7bf52937b</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1320,19 +1320,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2026-02-10 18:43</t>
+          <t>2026-02-10 19:13</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>c2373ae4-9c92-4463-8a0b-7612890c404d</t>
+          <t>0f2666a3-f634-45a3-aeac-25e430b8a621</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1347,19 +1347,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2026-02-10 18:43</t>
+          <t>2026-02-10 19:18</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>cf63f666-4b88-4042-a63a-da3b1fdb11a8</t>
+          <t>89705dcd-48b6-4a03-b0eb-640477639fdb</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2026-02-10 18:46</t>
+          <t>2026-02-10 19:25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>679eebf4-8aca-4c82-bb7e-4f5dc15a2735</t>
+          <t>d23b76f8-71d3-469f-9772-9bf2b67b6364</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1401,19 +1401,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2026-02-10 18:46</t>
+          <t>2026-02-10 19:27</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9d7be35d-1f76-40eb-a4d7-fa0b39095170</t>
+          <t>1ee9bd69-945f-4d70-88d3-d9daa0816115</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1428,19 +1428,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2026-02-10 18:48</t>
+          <t>2026-02-10 19:29</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>53531214-d90c-41df-9787-b2ee6b1ed79e</t>
+          <t>a510385d-59a1-4dd8-a035-00d2c9889068</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1455,14 +1455,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2026-02-10 18:49</t>
+          <t>2026-02-10 19:31</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1919858b-93e5-4c9e-96f8-41f75b9f6b63</t>
+          <t>c48dd726-ec9b-4679-83aa-36c5d240023f</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1482,19 +1482,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2026-02-10 18:49</t>
+          <t>2026-02-10 19:34</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>fda0badc-cd55-487c-a94a-749222edabb7</t>
+          <t>ca4dd94d-cbf3-4f84-a765-d80ba33537ee</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1509,19 +1509,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2026-02-10 19:01</t>
+          <t>2026-02-10 19:34</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>fc40cabe-67a1-4c91-b88e-cc26f315922f</t>
+          <t>789c84cc-d2f4-4396-a095-d4d40118f81c</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1536,19 +1536,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2026-02-10 19:01</t>
+          <t>2026-02-10 19:34</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>fef467d5-bcaf-44c4-95a6-338a305f2a7e</t>
+          <t>32cb48c7-8dd6-4f32-8f71-ff3e13876564</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1563,19 +1563,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2026-02-10 19:08</t>
+          <t>2026-02-10 19:34</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2830d20c-4554-47dd-bb49-11e7bf52937b</t>
+          <t>2298ae70-7964-46e4-b7a3-78bfe4a77f02</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1590,24 +1590,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2026-02-10 19:13</t>
+          <t>2026-02-10 19:34</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0f2666a3-f634-45a3-aeac-25e430b8a621</t>
+          <t>06bc03bc-f8d3-4b76-bbb3-a308b6b236db</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>车机</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1617,19 +1617,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2026-02-10 19:18</t>
+          <t>2026-02-10 19:34</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>89705dcd-48b6-4a03-b0eb-640477639fdb</t>
+          <t>67e8a2c3-7236-4d3f-893e-63715ae15761</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1644,19 +1644,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2026-02-10 19:25</t>
+          <t>2026-02-10 19:39</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>d23b76f8-71d3-469f-9772-9bf2b67b6364</t>
+          <t>6cad0cb4-ad18-4710-a0e0-817a6a61d856</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1671,19 +1671,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2026-02-10 19:27</t>
+          <t>2026-02-10 19:41</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1ee9bd69-945f-4d70-88d3-d9daa0816115</t>
+          <t>dcc043c8-1297-4560-9938-681a9d6dd3d9</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1698,19 +1698,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2026-02-10 19:29</t>
+          <t>2026-02-10 19:41</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>a510385d-59a1-4dd8-a035-00d2c9889068</t>
+          <t>cadde377-7238-4b3a-905a-fed3b61b20cf</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2026-02-10 19:31</t>
+          <t>2026-02-10 19:43</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>c48dd726-ec9b-4679-83aa-36c5d240023f</t>
+          <t>d9fa281b-470b-4a39-a62f-e80111642d65</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1752,19 +1752,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2026-02-10 19:34</t>
+          <t>2026-02-10 19:43</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ca4dd94d-cbf3-4f84-a765-d80ba33537ee</t>
+          <t>e6fa7ac7-bfed-4d00-81f4-e339adbf3a3b</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1779,19 +1779,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2026-02-10 19:34</t>
+          <t>2026-02-10 19:43</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>789c84cc-d2f4-4396-a095-d4d40118f81c</t>
+          <t>f97659ca-8913-478a-b734-573226791a9e</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1806,24 +1806,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2026-02-10 19:34</t>
+          <t>2026-02-10 19:47</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>32cb48c7-8dd6-4f32-8f71-ff3e13876564</t>
+          <t>a51869cc-5711-4071-b415-5283e4f26956</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qwqe3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>车机</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1833,24 +1833,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2026-02-10 19:34</t>
+          <t>2026-02-10 19:47</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2298ae70-7964-46e4-b7a3-78bfe4a77f02</t>
+          <t>c6cb3f17-c8b6-4e67-9a39-e9820c848ee3</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qwqe3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>车机</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1860,24 +1860,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2026-02-10 19:34</t>
+          <t>2026-02-10 19:47</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>06bc03bc-f8d3-4b76-bbb3-a308b6b236db</t>
+          <t>90eca4d8-cdf4-40f7-921d-81e0b2703580</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>qwqe4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>手机</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1887,24 +1887,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2026-02-10 19:34</t>
+          <t>2026-02-10 19:47</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>67e8a2c3-7236-4d3f-893e-63715ae15761</t>
+          <t>29f3da0b-2575-4441-b5e4-4f0ca59df2e0</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qwqe4</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>车机</t>
+          <t>仪表</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1914,24 +1914,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2026-02-10 19:39</t>
+          <t>2026-02-10 19:47</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6cad0cb4-ad18-4710-a0e0-817a6a61d856</t>
+          <t>2b53bbf7-8743-49f4-9bac-772d20209452</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qt02</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>车机</t>
+          <t>其它设备</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1941,24 +1941,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2026-02-10 19:41</t>
+          <t>2026-02-10 19:48</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>dcc043c8-1297-4560-9938-681a9d6dd3d9</t>
+          <t>54605a70-a0b5-4398-af28-0a5dd71ecef5</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>qt02</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>车机</t>
+          <t>其它设备</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1968,24 +1968,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2026-02-10 19:41</t>
+          <t>2026-02-10 19:48</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>cadde377-7238-4b3a-905a-fed3b61b20cf</t>
+          <t>f686b616-3d8a-4739-b542-783fefecd1ed</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>TEG-199</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>车机</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1995,24 +1995,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2026-02-10 19:43</t>
+          <t>2026-02-10 19:49</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>d9fa281b-470b-4a39-a62f-e80111642d65</t>
+          <t>0141b966-f09f-4efb-b3bf-c52c09e912e9</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>TEG-199</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>车机</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2022,19 +2022,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2026-02-10 19:43</t>
+          <t>2026-02-10 19:49</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>e6fa7ac7-bfed-4d00-81f4-e339adbf3a3b</t>
+          <t>484615d7-1508-4b89-96d1-88436f139479</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2049,19 +2049,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2026-02-10 19:43</t>
+          <t>2026-02-10 19:57</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>f97659ca-8913-478a-b734-573226791a9e</t>
+          <t>bbc7444a-da76-436f-98f1-b0c1e2a4c41d</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>281</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2076,24 +2076,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2026-02-10 19:47</t>
+          <t>2026-02-11 09:41</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>a51869cc-5711-4071-b415-5283e4f26956</t>
+          <t>9399f325-fb47-4285-89d7-0547e8e3f0ab</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>qwqe3</t>
+          <t>281</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2103,24 +2103,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2026-02-10 19:47</t>
+          <t>2026-02-11 09:42</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>c6cb3f17-c8b6-4e67-9a39-e9820c848ee3</t>
+          <t>b7f3398d-6979-489f-a4b4-08f28507ccf5</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>qwqe3</t>
+          <t>270</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2130,105 +2130,105 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2026-02-10 19:47</t>
+          <t>2026-02-11 09:57</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>90eca4d8-cdf4-40f7-921d-81e0b2703580</t>
+          <t>2f899b9d-cf85-44dc-8018-01cf8f3f3b7a</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>qwqe4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2026-02-10 19:47</t>
+          <t>2026-02-11 10:34</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>29f3da0b-2575-4441-b5e4-4f0ca59df2e0</t>
+          <t>5d8f7b5d-06c3-435e-b323-7cce99eed533</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>qwqe4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>仪表</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2026-02-10 19:47</t>
+          <t>2026-02-11 10:35</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2b53bbf7-8743-49f4-9bac-772d20209452</t>
+          <t>523349fe-f889-4763-af3a-e696b779c1d0</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>qt02</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>其它设备</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2026-02-10 19:48</t>
+          <t>2026-02-11 10:57</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>54605a70-a0b5-4398-af28-0a5dd71ecef5</t>
+          <t>337a86f5-2cd1-4c4f-8e35-1d5d42f85630</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>qt02</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>其它设备</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2238,19 +2238,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2026-02-10 19:48</t>
+          <t>2026-02-11 12:52</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>f686b616-3d8a-4739-b542-783fefecd1ed</t>
+          <t>4f161042-bc1d-4f07-819e-b298ea3507f3</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TEG-199</t>
+          <t>TEG-243</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2260,29 +2260,29 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2026-02-10 19:49</t>
+          <t>2026-02-11 17:51</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0141b966-f09f-4efb-b3bf-c52c09e912e9</t>
+          <t>bbba2543-7802-431f-8bc1-9d304738f38d</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TEG-199</t>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>手机</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2292,19 +2292,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2026-02-10 19:49</t>
+          <t>2026-02-11 19:32</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>484615d7-1508-4b89-96d1-88436f139479</t>
+          <t>d46bf135-5d17-4682-b989-53b7928e1c34</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2319,19 +2319,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2026-02-10 19:57</t>
+          <t>2026-02-11 19:32</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>bbc7444a-da76-436f-98f1-b0c1e2a4c41d</t>
+          <t>a24ac377-d762-4a1e-9bfe-ec6f7551eccf</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2346,19 +2346,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2026-02-11 09:41</t>
+          <t>2026-02-11 19:33</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>9399f325-fb47-4285-89d7-0547e8e3f0ab</t>
+          <t>dfed3dfc-9b84-45a1-9299-f5f16c9bf907</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2373,19 +2373,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2026-02-11 09:42</t>
+          <t>2026-02-11 19:34</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>b7f3398d-6979-489f-a4b4-08f28507ccf5</t>
+          <t>e7b15476-541f-484b-9528-19d43c01b09e</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2400,19 +2400,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2026-02-11 09:57</t>
+          <t>2026-02-11 19:34</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2f899b9d-cf85-44dc-8018-01cf8f3f3b7a</t>
+          <t>1d036724-c1ce-4b6c-97d6-ec36db4b3f69</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2422,24 +2422,24 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2026-02-11 10:34</t>
+          <t>2026-02-11 19:36</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>5d8f7b5d-06c3-435e-b323-7cce99eed533</t>
+          <t>0e65e2e6-9386-4765-b54a-08d2d4448908</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2449,24 +2449,24 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2026-02-11 10:35</t>
+          <t>2026-02-11 19:36</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>523349fe-f889-4763-af3a-e696b779c1d0</t>
+          <t>6d9d2db1-3f91-4de0-9b49-8424f1ef25d7</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2476,56 +2476,56 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2026-02-11 10:57</t>
+          <t>2026-02-11 19:36</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>337a86f5-2cd1-4c4f-8e35-1d5d42f85630</t>
+          <t>96f302d0-f873-4c0a-9cd0-59fbb822b41c</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>PHO001</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>车机</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2026-02-11 12:52</t>
+          <t>2026-02-11 19:39</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>4f161042-bc1d-4f07-819e-b298ea3507f3</t>
+          <t>544f712a-49f2-4c9a-8d09-330fdacc9f5e</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TEG-243</t>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>手机</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2535,14 +2535,14 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2026-02-11 17:51</t>
+          <t>2026-02-11 19:39</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>bbba2543-7802-431f-8bc1-9d304738f38d</t>
+          <t>859f9ae2-aac4-494b-a5bf-4c39bcccb45b</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2026-02-11 19:32</t>
+          <t>2026-02-11 19:40</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>d46bf135-5d17-4682-b989-53b7928e1c34</t>
+          <t>f3799417-1f5e-4230-aa58-06379cecf37c</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2584,19 +2584,19 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2026-02-11 19:32</t>
+          <t>2026-02-11 19:42</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>a24ac377-d762-4a1e-9bfe-ec6f7551eccf</t>
+          <t>a99c558b-e171-4fd6-a842-664526e3d498</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2611,19 +2611,19 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2026-02-11 19:33</t>
+          <t>2026-02-11 19:43</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>dfed3dfc-9b84-45a1-9299-f5f16c9bf907</t>
+          <t>1e8efa9d-8223-48e3-bdfc-72e701349409</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2638,19 +2638,19 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2026-02-11 19:34</t>
+          <t>2026-02-11 19:44</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>e7b15476-541f-484b-9528-19d43c01b09e</t>
+          <t>5ae1aa61-2864-4c1b-9c5f-e74e3792113b</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2665,24 +2665,24 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2026-02-11 19:34</t>
+          <t>2026-02-11 20:16</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1d036724-c1ce-4b6c-97d6-ec36db4b3f69</t>
+          <t>b27e8a90-48aa-4344-ac65-9a3c8647b974</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
+          <t>066032d8-0a4f-4d29-9e68-3495859bd8ef</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2692,24 +2692,24 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2026-02-11 19:36</t>
+          <t>2026-02-11 20:16</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0e65e2e6-9386-4765-b54a-08d2d4448908</t>
+          <t>6b50f51e-48c0-40e0-b27f-300d06fc5daf</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
+          <t>f8770a88-1a0d-47c3-a478-f8a7a02688d9</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2719,24 +2719,24 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2026-02-11 19:36</t>
+          <t>2026-02-11 20:17</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6d9d2db1-3f91-4de0-9b49-8424f1ef25d7</t>
+          <t>d535bd4c-3a1d-43d3-b584-52adfb2e09b3</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
+          <t>f8770a88-1a0d-47c3-a478-f8a7a02688d9</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2746,29 +2746,29 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2026-02-11 19:36</t>
+          <t>2026-02-11 20:21</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>96f302d0-f873-4c0a-9cd0-59fbb822b41c</t>
+          <t>8d2fde4c-972c-4879-aba3-06be32233b4a</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PHO001</t>
+          <t>f8770a88-1a0d-47c3-a478-f8a7a02688d9</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2778,14 +2778,14 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2026-02-11 19:39</t>
+          <t>2026-02-11 20:23</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>544f712a-49f2-4c9a-8d09-330fdacc9f5e</t>
+          <t>8e191e09-4622-42d5-9248-459d07b3ccf4</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>车机</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2805,19 +2805,19 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2026-02-11 19:39</t>
+          <t>2026-02-11 20:24</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>859f9ae2-aac4-494b-a5bf-4c39bcccb45b</t>
+          <t>b14cb403-2a37-4660-9370-fe7c6fa1a774</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
+          <t>f8770a88-1a0d-47c3-a478-f8a7a02688d9</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2832,19 +2832,19 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2026-02-11 19:40</t>
+          <t>2026-02-11 20:30</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>f3799417-1f5e-4230-aa58-06379cecf37c</t>
+          <t>877a9c17-a5ca-48eb-b683-c8307fe74c7a</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
+          <t>59aed345-d8f2-41a3-8395-4121ac52f33c</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2859,19 +2859,19 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2026-02-11 19:42</t>
+          <t>2026-02-11 20:30</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>a99c558b-e171-4fd6-a842-664526e3d498</t>
+          <t>82342cc5-16ae-4c00-bec2-3ac957733110</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
+          <t>066bcbbf-d6cf-4e83-a705-f6c0052f70db</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2886,14 +2886,14 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2026-02-11 19:43</t>
+          <t>2026-02-11 20:30</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1e8efa9d-8223-48e3-bdfc-72e701349409</t>
+          <t>72417d38-1d02-4284-abf7-79a166c82239</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2913,14 +2913,14 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2026-02-11 19:44</t>
+          <t>2026-02-13 17:27</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>5ae1aa61-2864-4c1b-9c5f-e74e3792113b</t>
+          <t>e19dd98c-a10d-4b8b-8e32-79bcb1eda16c</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2940,19 +2940,19 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2026-02-11 20:16</t>
+          <t>2026-02-13 17:27</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>b27e8a90-48aa-4344-ac65-9a3c8647b974</t>
+          <t>94a63142-6dec-4bee-91ed-6a2b408e0d30</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>066032d8-0a4f-4d29-9e68-3495859bd8ef</t>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2967,24 +2967,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2026-02-11 20:16</t>
+          <t>2026-02-13 17:27</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>6b50f51e-48c0-40e0-b27f-300d06fc5daf</t>
+          <t>b0789d99-72ae-4747-9152-7b6adb22d88e</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>f8770a88-1a0d-47c3-a478-f8a7a02688d9</t>
+          <t>TEG-238</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>车机</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2994,24 +2994,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2026-02-11 20:17</t>
+          <t>2026-02-13 17:29</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>d535bd4c-3a1d-43d3-b584-52adfb2e09b3</t>
+          <t>98fbc452-ed35-4c39-a9bb-7e5ecbfee583</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>f8770a88-1a0d-47c3-a478-f8a7a02688d9</t>
+          <t>TEG-238</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>车机</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3021,24 +3021,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2026-02-11 20:21</t>
+          <t>2026-02-13 17:30</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>8d2fde4c-972c-4879-aba3-06be32233b4a</t>
+          <t>434fa301-0840-452a-93a6-226163a84f04</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>f8770a88-1a0d-47c3-a478-f8a7a02688d9</t>
+          <t>TEG-238</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>车机</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3048,24 +3048,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2026-02-11 20:23</t>
+          <t>2026-02-13 17:30</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>8e191e09-4622-42d5-9248-459d07b3ccf4</t>
+          <t>456dddc8-85d2-42e1-bbb8-dd128bb14309</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
+          <t>TEG-238</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>车机</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3075,24 +3075,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2026-02-11 20:24</t>
+          <t>2026-02-13 17:30</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>b14cb403-2a37-4660-9370-fe7c6fa1a774</t>
+          <t>7b2176cb-a22f-4f18-a221-288debbc9579</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>f8770a88-1a0d-47c3-a478-f8a7a02688d9</t>
+          <t>TEG-238</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>车机</t>
+          <t>手机</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3102,19 +3102,19 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2026-02-11 20:30</t>
+          <t>2026-02-13 17:32</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>877a9c17-a5ca-48eb-b683-c8307fe74c7a</t>
+          <t>6563684a-1d73-44e0-80de-bede399dae14</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>59aed345-d8f2-41a3-8395-4121ac52f33c</t>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3129,19 +3129,19 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2026-02-11 20:30</t>
+          <t>2026-02-13 17:38</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>82342cc5-16ae-4c00-bec2-3ac957733110</t>
+          <t>22f9b377-5d3c-4032-bbca-6f278b24bb10</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>066bcbbf-d6cf-4e83-a705-f6c0052f70db</t>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2026-02-11 20:30</t>
+          <t>2026-02-13 17:50</t>
         </is>
       </c>
     </row>
